--- a/assets/default_calibrations/pfm/20220808_pfm_55Fe109Cd137Cs_m10deg_105thr_LV0d5/report_xfit.xlsx
+++ b/assets/default_calibrations/pfm/20220808_pfm_55Fe109Cd137Cs_m10deg_105thr_LV0d5/report_xfit.xlsx
@@ -544,22 +544,22 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>17055.5192939084</v>
+        <v>17055.51929391723</v>
       </c>
       <c r="C4">
-        <v>1.244003075909953</v>
+        <v>1.244003072844812</v>
       </c>
       <c r="D4">
-        <v>67.68124236819166</v>
+        <v>67.68124239418417</v>
       </c>
       <c r="E4">
-        <v>2.739291735121323</v>
+        <v>2.739291723048967</v>
       </c>
       <c r="F4">
-        <v>75210.58223980216</v>
+        <v>75210.58225953684</v>
       </c>
       <c r="G4">
-        <v>2617.147382614827</v>
+        <v>2617.147378331328</v>
       </c>
       <c r="H4">
         <v>16995.78329722142</v>
@@ -571,13 +571,13 @@
         <v>19731.30176046261</v>
       </c>
       <c r="K4">
-        <v>0.5759669332397948</v>
+        <v>0.5759669332397949</v>
       </c>
       <c r="L4">
         <v>86.92780935209379</v>
       </c>
       <c r="M4">
-        <v>1.308483181906921</v>
+        <v>1.30848318190692</v>
       </c>
       <c r="N4">
         <v>167597.8096780438</v>
@@ -586,10 +586,10 @@
         <v>2147.21271024218</v>
       </c>
       <c r="P4">
-        <v>19691.93202690487</v>
+        <v>19691.932026902</v>
       </c>
       <c r="Q4">
-        <v>19807.91428861804</v>
+        <v>19807.91428862475</v>
       </c>
       <c r="R4">
         <v>20204.88551360343</v>
@@ -601,19 +601,19 @@
         <v>84.02002537638238</v>
       </c>
       <c r="U4">
-        <v>3.087589699348672</v>
+        <v>3.087589699348671</v>
       </c>
       <c r="V4">
         <v>28681.2566658454</v>
       </c>
       <c r="W4">
-        <v>893.9127742463749</v>
+        <v>893.9127742463747</v>
       </c>
       <c r="X4">
-        <v>20128.15890540168</v>
+        <v>20128.15890541599</v>
       </c>
       <c r="Y4">
-        <v>20245.71924921867</v>
+        <v>20245.71924920978</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -624,7 +624,7 @@
         <v>16737.01973512608</v>
       </c>
       <c r="C5">
-        <v>0.5488532601613859</v>
+        <v>0.548853260161386</v>
       </c>
       <c r="D5">
         <v>56.1896909262592</v>
@@ -636,31 +636,31 @@
         <v>84127.50842671169</v>
       </c>
       <c r="G5">
-        <v>1556.311345978807</v>
+        <v>1556.311345978808</v>
       </c>
       <c r="H5">
-        <v>16685.52492199501</v>
+        <v>16685.5249219982</v>
       </c>
       <c r="I5">
-        <v>16763.98922131673</v>
+        <v>16763.98922131419</v>
       </c>
       <c r="J5">
-        <v>18962.53790024726</v>
+        <v>18962.53790025623</v>
       </c>
       <c r="K5">
-        <v>0.5136164456597255</v>
+        <v>0.5136164490240441</v>
       </c>
       <c r="L5">
-        <v>71.97988649190393</v>
+        <v>71.97988646283467</v>
       </c>
       <c r="M5">
-        <v>1.268938748570233</v>
+        <v>1.268938777776041</v>
       </c>
       <c r="N5">
-        <v>165059.7770621675</v>
+        <v>165059.7769968082</v>
       </c>
       <c r="O5">
-        <v>2307.173411566226</v>
+        <v>2307.173449610971</v>
       </c>
       <c r="P5">
         <v>18926.85852115652</v>
@@ -678,13 +678,13 @@
         <v>73.8671127794792</v>
       </c>
       <c r="U5">
-        <v>2.326830722258973</v>
+        <v>2.326830722258972</v>
       </c>
       <c r="V5">
         <v>30250.11389060205</v>
       </c>
       <c r="W5">
-        <v>817.2470107324291</v>
+        <v>817.2470107324287</v>
       </c>
       <c r="X5">
         <v>19305.90748307661</v>
@@ -701,7 +701,7 @@
         <v>17294.77311548076</v>
       </c>
       <c r="C6">
-        <v>0.8583158247120338</v>
+        <v>0.8583158247120342</v>
       </c>
       <c r="D6">
         <v>53.99326133647686</v>
@@ -713,7 +713,7 @@
         <v>84942.74942589554</v>
       </c>
       <c r="G6">
-        <v>2521.509173085955</v>
+        <v>2521.509173085956</v>
       </c>
       <c r="H6">
         <v>17246.77577721537</v>
@@ -722,22 +722,22 @@
         <v>17319.40647096137</v>
       </c>
       <c r="J6">
-        <v>19921.36154818265</v>
+        <v>19921.3615481807</v>
       </c>
       <c r="K6">
-        <v>0.4348304058085158</v>
+        <v>0.4348304057386336</v>
       </c>
       <c r="L6">
-        <v>73.06456416431172</v>
+        <v>73.06456417075952</v>
       </c>
       <c r="M6">
-        <v>1.05421737140087</v>
+        <v>1.054217371221496</v>
       </c>
       <c r="N6">
-        <v>164741.6419621287</v>
+        <v>164741.6419740078</v>
       </c>
       <c r="O6">
-        <v>1910.35948160267</v>
+        <v>1910.359449364933</v>
       </c>
       <c r="P6">
         <v>19884.8738334068</v>
@@ -749,19 +749,19 @@
         <v>20385.30285417469</v>
       </c>
       <c r="S6">
-        <v>1.089407946635632</v>
+        <v>1.089407946635633</v>
       </c>
       <c r="T6">
         <v>74.57320227426953</v>
       </c>
       <c r="U6">
-        <v>2.508945981424126</v>
+        <v>2.508945981424128</v>
       </c>
       <c r="V6">
         <v>27832.43715856293</v>
       </c>
       <c r="W6">
-        <v>763.0809385264826</v>
+        <v>763.0809385264827</v>
       </c>
       <c r="X6">
         <v>20314.93307159584</v>
@@ -778,7 +778,7 @@
         <v>16134.90032962304</v>
       </c>
       <c r="C7">
-        <v>0.6589945670941758</v>
+        <v>0.658994567094176</v>
       </c>
       <c r="D7">
         <v>58.90410165585297</v>
@@ -790,7 +790,7 @@
         <v>98175.76025053834</v>
       </c>
       <c r="G7">
-        <v>2192.810696358255</v>
+        <v>2192.810696358256</v>
       </c>
       <c r="H7">
         <v>16081.79680916966</v>
@@ -802,7 +802,7 @@
         <v>18635.14016553498</v>
       </c>
       <c r="K7">
-        <v>0.6315963305916822</v>
+        <v>0.6315963305916821</v>
       </c>
       <c r="L7">
         <v>78.16504708249514</v>
@@ -832,7 +832,7 @@
         <v>81.34892093700651</v>
       </c>
       <c r="U7">
-        <v>3.653367310886292</v>
+        <v>3.653367310886293</v>
       </c>
       <c r="V7">
         <v>31993.98889001457</v>
@@ -855,13 +855,13 @@
         <v>16729.65137407345</v>
       </c>
       <c r="C8">
-        <v>0.559341198402343</v>
+        <v>0.5593411984023431</v>
       </c>
       <c r="D8">
         <v>72.49082527156521</v>
       </c>
       <c r="E8">
-        <v>1.305762807393698</v>
+        <v>1.305762807393699</v>
       </c>
       <c r="F8">
         <v>97688.1732593818</v>
@@ -870,58 +870,58 @@
         <v>1441.646357270534</v>
       </c>
       <c r="H8">
-        <v>16666.05481238657</v>
+        <v>16666.05481237999</v>
       </c>
       <c r="I8">
-        <v>16762.42034730456</v>
+        <v>16762.42034730976</v>
       </c>
       <c r="J8">
         <v>19242.96044407926</v>
       </c>
       <c r="K8">
-        <v>0.6583619741984708</v>
+        <v>0.6583619741984711</v>
       </c>
       <c r="L8">
         <v>88.46671453337122</v>
       </c>
       <c r="M8">
-        <v>1.383201577979417</v>
+        <v>1.383201577979418</v>
       </c>
       <c r="N8">
         <v>173068.2377559774</v>
       </c>
       <c r="O8">
-        <v>2366.742166190198</v>
+        <v>2366.742166190199</v>
       </c>
       <c r="P8">
-        <v>19202.03303090406</v>
+        <v>19202.03303090766</v>
       </c>
       <c r="Q8">
-        <v>19320.98357080195</v>
+        <v>19320.98357079388</v>
       </c>
       <c r="R8">
-        <v>19700.53139562798</v>
+        <v>19700.53139563872</v>
       </c>
       <c r="S8">
-        <v>1.263613518865698</v>
+        <v>1.263613518308949</v>
       </c>
       <c r="T8">
-        <v>87.90481945500757</v>
+        <v>87.90481949102926</v>
       </c>
       <c r="U8">
-        <v>2.712559624831909</v>
+        <v>2.712559606495613</v>
       </c>
       <c r="V8">
-        <v>31519.22532478536</v>
+        <v>31519.22532970952</v>
       </c>
       <c r="W8">
-        <v>821.2352530048668</v>
+        <v>821.235245099876</v>
       </c>
       <c r="X8">
-        <v>19619.52360197252</v>
+        <v>19619.52360196517</v>
       </c>
       <c r="Y8">
-        <v>19743.85700603596</v>
+        <v>19743.85700604184</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -929,22 +929,22 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>17011.18810917435</v>
+        <v>17011.18810916064</v>
       </c>
       <c r="C9">
-        <v>1.459079615237853</v>
+        <v>1.459079621642301</v>
       </c>
       <c r="D9">
-        <v>74.10080055587426</v>
+        <v>74.1008005095713</v>
       </c>
       <c r="E9">
-        <v>3.36857298489435</v>
+        <v>3.368573064771057</v>
       </c>
       <c r="F9">
-        <v>95925.27543255687</v>
+        <v>95925.27539673346</v>
       </c>
       <c r="G9">
-        <v>3617.757823278926</v>
+        <v>3617.75791414676</v>
       </c>
       <c r="H9">
         <v>16943.62277146082</v>
@@ -956,7 +956,7 @@
         <v>19684.41234187532</v>
       </c>
       <c r="K9">
-        <v>0.6803875918362957</v>
+        <v>0.6803875918362956</v>
       </c>
       <c r="L9">
         <v>84.40003895126168</v>
@@ -971,10 +971,10 @@
         <v>2421.163634104828</v>
       </c>
       <c r="P9">
-        <v>19643.23652456357</v>
+        <v>19643.23652456483</v>
       </c>
       <c r="Q9">
-        <v>19760.27966394924</v>
+        <v>19760.27966394683</v>
       </c>
       <c r="R9">
         <v>20152.7896706683</v>
@@ -986,7 +986,7 @@
         <v>93.63955600291338</v>
       </c>
       <c r="U9">
-        <v>1.781142086297006</v>
+        <v>1.781142086297004</v>
       </c>
       <c r="V9">
         <v>30743.03545742659</v>
@@ -995,10 +995,10 @@
         <v>499.8117239046123</v>
       </c>
       <c r="X9">
-        <v>20067.9585464225</v>
+        <v>20067.9585464226</v>
       </c>
       <c r="Y9">
-        <v>20196.37734380351</v>
+        <v>20196.3773438033</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1009,7 +1009,7 @@
         <v>16359.85218949275</v>
       </c>
       <c r="C10">
-        <v>0.4797597287467891</v>
+        <v>0.4797597287467892</v>
       </c>
       <c r="D10">
         <v>70.76685057630726</v>
@@ -1021,37 +1021,37 @@
         <v>45486.79230392894</v>
       </c>
       <c r="G10">
-        <v>582.3678105090669</v>
+        <v>582.3678105090671</v>
       </c>
       <c r="H10">
-        <v>16295.99234551606</v>
+        <v>16295.99234551164</v>
       </c>
       <c r="I10">
-        <v>16391.62335138963</v>
+        <v>16391.62335139201</v>
       </c>
       <c r="J10">
-        <v>19289.51965225483</v>
+        <v>19289.51965226287</v>
       </c>
       <c r="K10">
-        <v>0.673977192474678</v>
+        <v>0.6739771925513219</v>
       </c>
       <c r="L10">
-        <v>90.06946383067287</v>
+        <v>90.06946379624335</v>
       </c>
       <c r="M10">
-        <v>1.676754685195018</v>
+        <v>1.676754680477031</v>
       </c>
       <c r="N10">
-        <v>121538.7170851002</v>
+        <v>121538.7170631077</v>
       </c>
       <c r="O10">
-        <v>1795.538759771214</v>
+        <v>1795.538725716676</v>
       </c>
       <c r="P10">
-        <v>19247.22451245569</v>
+        <v>19247.22451245507</v>
       </c>
       <c r="Q10">
-        <v>19368.71262785887</v>
+        <v>19368.71262786014</v>
       </c>
       <c r="R10">
         <v>19801.82424695717</v>
@@ -1063,13 +1063,13 @@
         <v>82.23897007872795</v>
       </c>
       <c r="U10">
-        <v>4.130129941870032</v>
+        <v>4.130129941870033</v>
       </c>
       <c r="V10">
         <v>19919.45775163624</v>
       </c>
       <c r="W10">
-        <v>802.423897150313</v>
+        <v>802.4238971503131</v>
       </c>
       <c r="X10">
         <v>19726.27896209589</v>
@@ -1083,76 +1083,76 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>17130.99726945864</v>
+        <v>17130.99726945865</v>
       </c>
       <c r="C11">
-        <v>0.6092514340650099</v>
+        <v>0.6092514340611834</v>
       </c>
       <c r="D11">
-        <v>57.385889726245</v>
+        <v>57.38588972626208</v>
       </c>
       <c r="E11">
-        <v>1.199203710676526</v>
+        <v>1.199203710674285</v>
       </c>
       <c r="F11">
-        <v>49304.74192906408</v>
+        <v>49304.74192907759</v>
       </c>
       <c r="G11">
-        <v>948.7020118608277</v>
+        <v>948.7020118610343</v>
       </c>
       <c r="H11">
-        <v>17078.76194594974</v>
+        <v>17078.76194593895</v>
       </c>
       <c r="I11">
-        <v>17158.47018505793</v>
+        <v>17158.47018506537</v>
       </c>
       <c r="J11">
-        <v>19546.4021072477</v>
+        <v>19546.40210724667</v>
       </c>
       <c r="K11">
-        <v>0.4800230432946834</v>
+        <v>0.4800230436733346</v>
       </c>
       <c r="L11">
-        <v>75.31667130571265</v>
+        <v>75.31667130973008</v>
       </c>
       <c r="M11">
-        <v>1.13527028105016</v>
+        <v>1.13527029370646</v>
       </c>
       <c r="N11">
-        <v>123702.4774661309</v>
+        <v>123702.4774696464</v>
       </c>
       <c r="O11">
-        <v>1502.369216560411</v>
+        <v>1502.36923842033</v>
       </c>
       <c r="P11">
-        <v>19509.9705161512</v>
+        <v>19509.97051615391</v>
       </c>
       <c r="Q11">
-        <v>19614.27472955354</v>
+        <v>19614.27472954852</v>
       </c>
       <c r="R11">
-        <v>19976.04868423794</v>
+        <v>19976.04868423793</v>
       </c>
       <c r="S11">
-        <v>1.204138636734515</v>
+        <v>1.204138636736499</v>
       </c>
       <c r="T11">
-        <v>72.07911570556725</v>
+        <v>72.07911570554749</v>
       </c>
       <c r="U11">
-        <v>2.669041452810112</v>
+        <v>2.669041435151071</v>
       </c>
       <c r="V11">
-        <v>21156.61370928087</v>
+        <v>21156.61370927663</v>
       </c>
       <c r="W11">
-        <v>652.5391274045053</v>
+        <v>652.539127405814</v>
       </c>
       <c r="X11">
-        <v>19906.37998954608</v>
+        <v>19906.37998951311</v>
       </c>
       <c r="Y11">
-        <v>20015.04270431151</v>
+        <v>20015.04270433843</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1163,19 +1163,19 @@
         <v>16790.50901475656</v>
       </c>
       <c r="C12">
-        <v>0.7880485573170916</v>
+        <v>0.7880485573170913</v>
       </c>
       <c r="D12">
         <v>58.93808932946781</v>
       </c>
       <c r="E12">
-        <v>1.607547100016985</v>
+        <v>1.607547100016984</v>
       </c>
       <c r="F12">
         <v>94679.07582454277</v>
       </c>
       <c r="G12">
-        <v>2335.822147990085</v>
+        <v>2335.822147990084</v>
       </c>
       <c r="H12">
         <v>16739.24422150855</v>
@@ -1184,34 +1184,34 @@
         <v>16815.4512298609</v>
       </c>
       <c r="J12">
-        <v>19591.61353071731</v>
+        <v>19591.61353071949</v>
       </c>
       <c r="K12">
-        <v>0.7144524072116032</v>
+        <v>0.7144524069899876</v>
       </c>
       <c r="L12">
-        <v>79.49543684701199</v>
+        <v>79.49543684044743</v>
       </c>
       <c r="M12">
-        <v>1.540212981849707</v>
+        <v>1.540212983019754</v>
       </c>
       <c r="N12">
-        <v>169025.7859644139</v>
+        <v>169025.7859556143</v>
       </c>
       <c r="O12">
-        <v>2797.217705565493</v>
+        <v>2797.217703274033</v>
       </c>
       <c r="P12">
-        <v>19551.54533746577</v>
+        <v>19551.54533746677</v>
       </c>
       <c r="Q12">
-        <v>19663.03966605406</v>
+        <v>19663.03966605202</v>
       </c>
       <c r="R12">
         <v>20084.45115625318</v>
       </c>
       <c r="S12">
-        <v>0.794676162587956</v>
+        <v>0.7946761625879561</v>
       </c>
       <c r="T12">
         <v>76.03520370199074</v>
@@ -1226,10 +1226,10 @@
         <v>572.98124225499</v>
       </c>
       <c r="X12">
-        <v>20012.48471755133</v>
+        <v>20012.48471755132</v>
       </c>
       <c r="Y12">
-        <v>20123.37184588224</v>
+        <v>20123.37184588223</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1237,22 +1237,22 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <v>16656.10247607416</v>
+        <v>16656.10247606493</v>
       </c>
       <c r="C13">
-        <v>0.7418470178487573</v>
+        <v>0.7418470141459848</v>
       </c>
       <c r="D13">
-        <v>74.18112206881791</v>
+        <v>74.18112204757135</v>
       </c>
       <c r="E13">
-        <v>1.693374043066089</v>
+        <v>1.693373994797465</v>
       </c>
       <c r="F13">
-        <v>111791.2875855285</v>
+        <v>111791.2875496325</v>
       </c>
       <c r="G13">
-        <v>2226.67063440471</v>
+        <v>2226.670579285442</v>
       </c>
       <c r="H13">
         <v>16591.70766246362</v>
@@ -1261,52 +1261,52 @@
         <v>16685.14772312092</v>
       </c>
       <c r="J13">
-        <v>19454.38218314383</v>
+        <v>19454.38218313922</v>
       </c>
       <c r="K13">
-        <v>0.8282577403052829</v>
+        <v>0.8282577378015404</v>
       </c>
       <c r="L13">
-        <v>84.66422330889256</v>
+        <v>84.66422332231787</v>
       </c>
       <c r="M13">
-        <v>1.733562808164325</v>
+        <v>1.733562802456339</v>
       </c>
       <c r="N13">
-        <v>170329.2497498413</v>
+        <v>170329.2497668789</v>
       </c>
       <c r="O13">
-        <v>3013.351481371114</v>
+        <v>3013.351472252356</v>
       </c>
       <c r="P13">
-        <v>19411.33686828963</v>
+        <v>19411.33686828857</v>
       </c>
       <c r="Q13">
-        <v>19530.9047523757</v>
+        <v>19530.90475237694</v>
       </c>
       <c r="R13">
-        <v>19946.9902648299</v>
+        <v>19946.99026486256</v>
       </c>
       <c r="S13">
-        <v>1.85306843168896</v>
+        <v>1.853068412988113</v>
       </c>
       <c r="T13">
-        <v>89.36332395511066</v>
+        <v>89.36332404115689</v>
       </c>
       <c r="U13">
-        <v>4.023282909716077</v>
+        <v>4.023282944590496</v>
       </c>
       <c r="V13">
-        <v>30738.99179349686</v>
+        <v>30738.99181940993</v>
       </c>
       <c r="W13">
-        <v>1189.616578102946</v>
+        <v>1189.616574595759</v>
       </c>
       <c r="X13">
-        <v>19867.16812470508</v>
+        <v>19867.16812470515</v>
       </c>
       <c r="Y13">
-        <v>19988.09711619381</v>
+        <v>19988.09711619224</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1317,13 +1317,13 @@
         <v>17446.74532835031</v>
       </c>
       <c r="C14">
-        <v>1.772859186293311</v>
+        <v>1.77285918629331</v>
       </c>
       <c r="D14">
         <v>66.00259611398228</v>
       </c>
       <c r="E14">
-        <v>3.662748310440159</v>
+        <v>3.662748310440155</v>
       </c>
       <c r="F14">
         <v>51149.43996822086</v>
@@ -1347,7 +1347,7 @@
         <v>82.68244812478923</v>
       </c>
       <c r="M14">
-        <v>2.224596300179218</v>
+        <v>2.224596300179217</v>
       </c>
       <c r="N14">
         <v>121868.4698320705</v>
@@ -1371,7 +1371,7 @@
         <v>74.24876732661751</v>
       </c>
       <c r="U14">
-        <v>2.450380756432094</v>
+        <v>2.450380756432093</v>
       </c>
       <c r="V14">
         <v>20553.64679020962</v>
@@ -1391,46 +1391,46 @@
         <v>11</v>
       </c>
       <c r="B15">
-        <v>17245.51153203643</v>
+        <v>17245.51153204403</v>
       </c>
       <c r="C15">
-        <v>0.4961240038853466</v>
+        <v>0.4961240040695812</v>
       </c>
       <c r="D15">
-        <v>59.12656575204968</v>
+        <v>59.12656577931722</v>
       </c>
       <c r="E15">
-        <v>1.228805732110827</v>
+        <v>1.22880572633145</v>
       </c>
       <c r="F15">
-        <v>104467.792637998</v>
+        <v>104467.7926706991</v>
       </c>
       <c r="G15">
-        <v>1737.619671697742</v>
+        <v>1737.61966993504</v>
       </c>
       <c r="H15">
-        <v>17191.95312150068</v>
+        <v>17191.95312149149</v>
       </c>
       <c r="I15">
-        <v>17273.96282968193</v>
+        <v>17273.96282968896</v>
       </c>
       <c r="J15">
-        <v>19822.93134539214</v>
+        <v>19822.93134539555</v>
       </c>
       <c r="K15">
-        <v>0.7552866914000371</v>
+        <v>0.7552866934989346</v>
       </c>
       <c r="L15">
-        <v>77.68670163798259</v>
+        <v>77.6867016271411</v>
       </c>
       <c r="M15">
-        <v>1.675418360338055</v>
+        <v>1.675418392639125</v>
       </c>
       <c r="N15">
-        <v>171983.0059440692</v>
+        <v>171983.0059288588</v>
       </c>
       <c r="O15">
-        <v>3104.213348842444</v>
+        <v>3104.213353643123</v>
       </c>
       <c r="P15">
         <v>19784.81353259609</v>
@@ -1439,28 +1439,28 @@
         <v>19892.65651550319</v>
       </c>
       <c r="R15">
-        <v>20279.94925412433</v>
+        <v>20279.94925412094</v>
       </c>
       <c r="S15">
-        <v>1.826361786287416</v>
+        <v>1.826361779154732</v>
       </c>
       <c r="T15">
-        <v>78.28109821920469</v>
+        <v>78.28109821867255</v>
       </c>
       <c r="U15">
-        <v>3.910842648909478</v>
+        <v>3.910842614141036</v>
       </c>
       <c r="V15">
-        <v>29617.94031713832</v>
+        <v>29617.94030968035</v>
       </c>
       <c r="W15">
-        <v>1271.356743856129</v>
+        <v>1271.356721530275</v>
       </c>
       <c r="X15">
-        <v>20207.43259589214</v>
+        <v>20207.43259592096</v>
       </c>
       <c r="Y15">
-        <v>20317.80531715907</v>
+        <v>20317.8053171305</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1471,25 +1471,25 @@
         <v>16690.04842611796</v>
       </c>
       <c r="C16">
-        <v>0.7535001830521489</v>
+        <v>0.7535001830521486</v>
       </c>
       <c r="D16">
         <v>56.73088137077107</v>
       </c>
       <c r="E16">
-        <v>1.528586881913715</v>
+        <v>1.528586881913714</v>
       </c>
       <c r="F16">
         <v>53172.40073230162</v>
       </c>
       <c r="G16">
-        <v>1281.318732311091</v>
+        <v>1281.31873231109</v>
       </c>
       <c r="H16">
-        <v>16639.97529785445</v>
+        <v>16639.97529786067</v>
       </c>
       <c r="I16">
-        <v>16714.20952457721</v>
+        <v>16714.20952456918</v>
       </c>
       <c r="J16">
         <v>19500.5347434528</v>
@@ -1531,13 +1531,13 @@
         <v>21552.10013730692</v>
       </c>
       <c r="W16">
-        <v>650.333006933153</v>
+        <v>650.3330069331532</v>
       </c>
       <c r="X16">
-        <v>19922.432806364</v>
+        <v>19922.43280637453</v>
       </c>
       <c r="Y16">
-        <v>20025.40248175191</v>
+        <v>20025.40248174477</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -1548,13 +1548,13 @@
         <v>16868.74074363335</v>
       </c>
       <c r="C17">
-        <v>0.7881547724348263</v>
+        <v>0.7881547724348261</v>
       </c>
       <c r="D17">
         <v>59.3080721798495</v>
       </c>
       <c r="E17">
-        <v>1.719906213733018</v>
+        <v>1.719906213733019</v>
       </c>
       <c r="F17">
         <v>100828.8423868557</v>
@@ -1563,28 +1563,28 @@
         <v>2529.230495326492</v>
       </c>
       <c r="H17">
-        <v>16815.84385781644</v>
+        <v>16815.84385781535</v>
       </c>
       <c r="I17">
-        <v>16895.13425697551</v>
+        <v>16895.13425697606</v>
       </c>
       <c r="J17">
-        <v>19497.99451032322</v>
+        <v>19497.99451032306</v>
       </c>
       <c r="K17">
-        <v>0.2218298285794054</v>
+        <v>0.2218298279760367</v>
       </c>
       <c r="L17">
-        <v>76.47089667235022</v>
+        <v>76.47089667229739</v>
       </c>
       <c r="M17">
-        <v>0.5530944941130265</v>
+        <v>0.5530945062370649</v>
       </c>
       <c r="N17">
-        <v>173505.9028901009</v>
+        <v>173505.902893426</v>
       </c>
       <c r="O17">
-        <v>989.6510778681836</v>
+        <v>989.6510696702212</v>
       </c>
       <c r="P17">
         <v>19459.74162501149</v>
@@ -1596,7 +1596,7 @@
         <v>19963.34261698633</v>
       </c>
       <c r="S17">
-        <v>1.905840122530933</v>
+        <v>1.905840122530934</v>
       </c>
       <c r="T17">
         <v>78.65885849220633</v>
@@ -1608,7 +1608,7 @@
         <v>31393.42773076291</v>
       </c>
       <c r="W17">
-        <v>1443.57994744876</v>
+        <v>1443.579947448761</v>
       </c>
       <c r="X17">
         <v>19892.69544407158</v>
@@ -1625,19 +1625,19 @@
         <v>17193.57890457718</v>
       </c>
       <c r="C18">
-        <v>0.6043228226640487</v>
+        <v>0.6043228226640484</v>
       </c>
       <c r="D18">
         <v>57.64400927881424</v>
       </c>
       <c r="E18">
-        <v>1.311275049515537</v>
+        <v>1.311275049515536</v>
       </c>
       <c r="F18">
         <v>56387.48864669249</v>
       </c>
       <c r="G18">
-        <v>1174.537898032045</v>
+        <v>1174.537898032044</v>
       </c>
       <c r="H18">
         <v>17142.79059086305</v>
@@ -1649,7 +1649,7 @@
         <v>20106.86596671193</v>
       </c>
       <c r="K18">
-        <v>0.4914777913176032</v>
+        <v>0.4914777913176033</v>
       </c>
       <c r="L18">
         <v>78.26024147924785</v>
@@ -1685,13 +1685,13 @@
         <v>22410.79657390661</v>
       </c>
       <c r="W18">
-        <v>820.3408468910447</v>
+        <v>820.3408468910449</v>
       </c>
       <c r="X18">
-        <v>20541.3468152104</v>
+        <v>20541.34681520833</v>
       </c>
       <c r="Y18">
-        <v>20645.92466805844</v>
+        <v>20645.92466805953</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -1702,19 +1702,19 @@
         <v>16573.49886732138</v>
       </c>
       <c r="C19">
-        <v>0.7927593542792518</v>
+        <v>0.7927593542792524</v>
       </c>
       <c r="D19">
         <v>56.67499616908921</v>
       </c>
       <c r="E19">
-        <v>1.706864660752386</v>
+        <v>1.706864660752387</v>
       </c>
       <c r="F19">
         <v>88300.88111087312</v>
       </c>
       <c r="G19">
-        <v>2430.268723323875</v>
+        <v>2430.268723323877</v>
       </c>
       <c r="H19">
         <v>16523.83397933163</v>
@@ -1732,7 +1732,7 @@
         <v>71.88824098069875</v>
       </c>
       <c r="M19">
-        <v>1.514942669938974</v>
+        <v>1.514942669938975</v>
       </c>
       <c r="N19">
         <v>161966.7096195323</v>
@@ -1741,34 +1741,34 @@
         <v>2784.104021722974</v>
       </c>
       <c r="P19">
-        <v>19163.63012301051</v>
+        <v>19163.6301230105</v>
       </c>
       <c r="Q19">
         <v>19265.67827000298</v>
       </c>
       <c r="R19">
-        <v>19661.05302772645</v>
+        <v>19661.0530277402</v>
       </c>
       <c r="S19">
-        <v>0.5002522426138978</v>
+        <v>0.5002522431197955</v>
       </c>
       <c r="T19">
-        <v>75.64618604768789</v>
+        <v>75.64618608742553</v>
       </c>
       <c r="U19">
-        <v>1.138628595615347</v>
+        <v>1.138628616896765</v>
       </c>
       <c r="V19">
-        <v>29317.39919456585</v>
+        <v>29317.39920705667</v>
       </c>
       <c r="W19">
-        <v>370.9288656207975</v>
+        <v>370.9288639600112</v>
       </c>
       <c r="X19">
-        <v>19591.47666268368</v>
+        <v>19591.47666267054</v>
       </c>
       <c r="Y19">
-        <v>19697.23130231837</v>
+        <v>19697.23130232764</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -1791,7 +1791,7 @@
         <v>93733.06691285578</v>
       </c>
       <c r="G20">
-        <v>991.7100936238601</v>
+        <v>991.7100936238604</v>
       </c>
       <c r="H20">
         <v>16363.60421069538</v>
@@ -1809,37 +1809,37 @@
         <v>74.42726948040625</v>
       </c>
       <c r="M20">
-        <v>1.253954162072914</v>
+        <v>1.253954162072915</v>
       </c>
       <c r="N20">
         <v>164337.5981242913</v>
       </c>
       <c r="O20">
-        <v>2219.931336154677</v>
+        <v>2219.931336154678</v>
       </c>
       <c r="P20">
-        <v>18909.62397442315</v>
+        <v>18909.623974426</v>
       </c>
       <c r="Q20">
-        <v>19015.14480848112</v>
+        <v>19015.14480846887</v>
       </c>
       <c r="R20">
-        <v>19399.36026579105</v>
+        <v>19399.36026577596</v>
       </c>
       <c r="S20">
-        <v>1.557848080600644</v>
+        <v>1.557848071453716</v>
       </c>
       <c r="T20">
-        <v>76.96246849922422</v>
+        <v>76.96246846701874</v>
       </c>
       <c r="U20">
-        <v>3.285989097714747</v>
+        <v>3.285989007617994</v>
       </c>
       <c r="V20">
-        <v>30379.81085271748</v>
+        <v>30379.81083610951</v>
       </c>
       <c r="W20">
-        <v>1119.115556453194</v>
+        <v>1119.115551028062</v>
       </c>
       <c r="X20">
         <v>19328.0663040505</v>
@@ -1853,22 +1853,22 @@
         <v>17</v>
       </c>
       <c r="B21">
-        <v>16832.24727691393</v>
+        <v>16832.24727691765</v>
       </c>
       <c r="C21">
-        <v>0.714901102630933</v>
+        <v>0.7149011024984016</v>
       </c>
       <c r="D21">
-        <v>62.61148443105318</v>
+        <v>62.61148444323965</v>
       </c>
       <c r="E21">
-        <v>1.692954139675757</v>
+        <v>1.692954139211297</v>
       </c>
       <c r="F21">
-        <v>87720.02308941538</v>
+        <v>87720.02310275521</v>
       </c>
       <c r="G21">
-        <v>1912.479812531152</v>
+        <v>1912.479806841229</v>
       </c>
       <c r="H21">
         <v>16777.68083637313</v>
@@ -1886,7 +1886,7 @@
         <v>81.81603879205993</v>
       </c>
       <c r="M21">
-        <v>1.057234357427471</v>
+        <v>1.05723435742747</v>
       </c>
       <c r="N21">
         <v>168368.1785828174</v>
@@ -1901,22 +1901,22 @@
         <v>19711.32804210663</v>
       </c>
       <c r="R21">
-        <v>20134.66604935284</v>
+        <v>20134.66604932324</v>
       </c>
       <c r="S21">
-        <v>1.999875018478866</v>
+        <v>1.999875026888608</v>
       </c>
       <c r="T21">
-        <v>86.40962311781639</v>
+        <v>86.40962303184422</v>
       </c>
       <c r="U21">
-        <v>4.464385404239883</v>
+        <v>4.464385493942848</v>
       </c>
       <c r="V21">
-        <v>30138.67141087782</v>
+        <v>30138.67138869919</v>
       </c>
       <c r="W21">
-        <v>1305.10566853708</v>
+        <v>1305.10564949771</v>
       </c>
       <c r="X21">
         <v>20057.28777411398</v>
@@ -1930,22 +1930,22 @@
         <v>18</v>
       </c>
       <c r="B22">
-        <v>16317.39952143957</v>
+        <v>16317.39952147661</v>
       </c>
       <c r="C22">
-        <v>0.8666589460811284</v>
+        <v>0.8666589461792488</v>
       </c>
       <c r="D22">
-        <v>65.94535285005776</v>
+        <v>65.94535293976247</v>
       </c>
       <c r="E22">
-        <v>1.752826286865965</v>
+        <v>1.752826264285403</v>
       </c>
       <c r="F22">
-        <v>84383.11263250843</v>
+        <v>84383.11272790408</v>
       </c>
       <c r="G22">
-        <v>2023.742643336329</v>
+        <v>2023.742707802086</v>
       </c>
       <c r="H22">
         <v>16259.76576190715</v>
@@ -1954,52 +1954,52 @@
         <v>16345.33804848021</v>
       </c>
       <c r="J22">
-        <v>18825.29747944677</v>
+        <v>18825.29747944306</v>
       </c>
       <c r="K22">
-        <v>0.3152697320625201</v>
+        <v>0.315269734288804</v>
       </c>
       <c r="L22">
-        <v>82.00878229763387</v>
+        <v>82.00878231115145</v>
       </c>
       <c r="M22">
-        <v>0.7676657282953795</v>
+        <v>0.7676657327819543</v>
       </c>
       <c r="N22">
-        <v>168092.7053428779</v>
+        <v>168092.7053614537</v>
       </c>
       <c r="O22">
-        <v>1263.833762903729</v>
+        <v>1263.833748406294</v>
       </c>
       <c r="P22">
-        <v>18784.85992165966</v>
+        <v>18784.85992165749</v>
       </c>
       <c r="Q22">
-        <v>18899.12220447033</v>
+        <v>18899.12220447233</v>
       </c>
       <c r="R22">
-        <v>19279.19477953077</v>
+        <v>19279.19477954052</v>
       </c>
       <c r="S22">
-        <v>1.232976926561699</v>
+        <v>1.23297693658326</v>
       </c>
       <c r="T22">
-        <v>85.28308592721834</v>
+        <v>85.28308595602917</v>
       </c>
       <c r="U22">
-        <v>2.738499431612635</v>
+        <v>2.738499481148828</v>
       </c>
       <c r="V22">
-        <v>30363.0618864435</v>
+        <v>30363.06189369727</v>
       </c>
       <c r="W22">
-        <v>837.5125024252037</v>
+        <v>837.5125110447096</v>
       </c>
       <c r="X22">
-        <v>19201.97062906068</v>
+        <v>19201.9706290522</v>
       </c>
       <c r="Y22">
-        <v>19316.21946032181</v>
+        <v>19316.21946032628</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2010,13 +2010,13 @@
         <v>17300.01232929226</v>
       </c>
       <c r="C23">
-        <v>0.6385445449617572</v>
+        <v>0.6385445449617574</v>
       </c>
       <c r="D23">
         <v>58.94991159653929</v>
       </c>
       <c r="E23">
-        <v>1.327538403183347</v>
+        <v>1.327538403183348</v>
       </c>
       <c r="F23">
         <v>73177.13479022241</v>
@@ -2031,46 +2031,46 @@
         <v>17325.13596109044</v>
       </c>
       <c r="J23">
-        <v>19889.90599989248</v>
+        <v>19889.90599988765</v>
       </c>
       <c r="K23">
-        <v>0.3892687900473453</v>
+        <v>0.3892687900580392</v>
       </c>
       <c r="L23">
-        <v>77.42658388346449</v>
+        <v>77.42658389584567</v>
       </c>
       <c r="M23">
-        <v>0.7904444473238406</v>
+        <v>0.7904444621615249</v>
       </c>
       <c r="N23">
-        <v>160416.2888265321</v>
+        <v>160416.2888457263</v>
       </c>
       <c r="O23">
-        <v>1447.959558411709</v>
+        <v>1447.959553750444</v>
       </c>
       <c r="P23">
-        <v>19851.51046578403</v>
+        <v>19851.51046578338</v>
       </c>
       <c r="Q23">
-        <v>19961.03107946428</v>
+        <v>19961.03107946703</v>
       </c>
       <c r="R23">
-        <v>20353.56670063542</v>
+        <v>20353.56670063005</v>
       </c>
       <c r="S23">
-        <v>1.519091156265435</v>
+        <v>1.51909114817064</v>
       </c>
       <c r="T23">
-        <v>78.10296651448566</v>
+        <v>78.10296650560227</v>
       </c>
       <c r="U23">
-        <v>3.252269432767521</v>
+        <v>3.252269433444569</v>
       </c>
       <c r="V23">
-        <v>28675.48242832002</v>
+        <v>28675.48242265212</v>
       </c>
       <c r="W23">
-        <v>1054.523362437329</v>
+        <v>1054.523352641529</v>
       </c>
       <c r="X23">
         <v>20281.33334915699</v>
@@ -2084,52 +2084,52 @@
         <v>20</v>
       </c>
       <c r="B24">
-        <v>17509.97643173016</v>
+        <v>17509.97643172864</v>
       </c>
       <c r="C24">
-        <v>1.326637288683277</v>
+        <v>1.326637290536842</v>
       </c>
       <c r="D24">
-        <v>71.74193920921236</v>
+        <v>71.74193920650333</v>
       </c>
       <c r="E24">
-        <v>3.115085491981759</v>
+        <v>3.11508552467046</v>
       </c>
       <c r="F24">
-        <v>53000.66208149367</v>
+        <v>53000.66207800841</v>
       </c>
       <c r="G24">
-        <v>1878.446614704708</v>
+        <v>1878.446603436035</v>
       </c>
       <c r="H24">
-        <v>17440.6752387231</v>
+        <v>17440.67523877185</v>
       </c>
       <c r="I24">
-        <v>17543.86308489709</v>
+        <v>17543.86308485697</v>
       </c>
       <c r="J24">
         <v>20376.34850103868</v>
       </c>
       <c r="K24">
-        <v>0.2873205174616088</v>
+        <v>0.2873205174616087</v>
       </c>
       <c r="L24">
         <v>83.28943079906722</v>
       </c>
       <c r="M24">
-        <v>0.6294978445665919</v>
+        <v>0.6294978445665916</v>
       </c>
       <c r="N24">
         <v>125170.3650968471</v>
       </c>
       <c r="O24">
-        <v>795.5327474531306</v>
+        <v>795.5327474531305</v>
       </c>
       <c r="P24">
-        <v>20335.18858520224</v>
+        <v>20335.18858519461</v>
       </c>
       <c r="Q24">
-        <v>20451.46081380725</v>
+        <v>20451.46081382975</v>
       </c>
       <c r="R24">
         <v>20877.34172488534</v>
@@ -2164,31 +2164,31 @@
         <v>16971.84014067079</v>
       </c>
       <c r="C25">
-        <v>1.763977066554969</v>
+        <v>1.763977066554968</v>
       </c>
       <c r="D25">
         <v>84.23136997346116</v>
       </c>
       <c r="E25">
-        <v>3.66940489513899</v>
+        <v>3.669404895138987</v>
       </c>
       <c r="F25">
         <v>58391.07860639976</v>
       </c>
       <c r="G25">
-        <v>2272.143595004125</v>
+        <v>2272.143595004124</v>
       </c>
       <c r="H25">
-        <v>16895.08495143786</v>
+        <v>16895.08495140402</v>
       </c>
       <c r="I25">
-        <v>17009.46889271912</v>
+        <v>17009.46889274277</v>
       </c>
       <c r="J25">
         <v>19909.02151428118</v>
       </c>
       <c r="K25">
-        <v>0.6582127147448205</v>
+        <v>0.6582127147448202</v>
       </c>
       <c r="L25">
         <v>91.03226537908975</v>
@@ -2200,13 +2200,13 @@
         <v>126556.3246572229</v>
       </c>
       <c r="O25">
-        <v>1810.715621167986</v>
+        <v>1810.715621167985</v>
       </c>
       <c r="P25">
-        <v>19865.9261924412</v>
+        <v>19865.92619243981</v>
       </c>
       <c r="Q25">
-        <v>19989.79302811315</v>
+        <v>19989.79302811777</v>
       </c>
       <c r="R25">
         <v>20416.08090588277</v>
@@ -2224,13 +2224,13 @@
         <v>26476.22485486537</v>
       </c>
       <c r="W25">
-        <v>947.3860842190879</v>
+        <v>947.3860842190882</v>
       </c>
       <c r="X25">
-        <v>20325.03304891411</v>
+        <v>20325.03304892542</v>
       </c>
       <c r="Y25">
-        <v>20462.38738092994</v>
+        <v>20462.38738091914</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -2238,40 +2238,40 @@
         <v>23</v>
       </c>
       <c r="B26">
-        <v>16661.34017992169</v>
+        <v>16661.34017992167</v>
       </c>
       <c r="C26">
-        <v>1.615820377916634</v>
+        <v>1.615820381986886</v>
       </c>
       <c r="D26">
-        <v>89.06957546258688</v>
+        <v>89.06957545917834</v>
       </c>
       <c r="E26">
-        <v>3.583404499986103</v>
+        <v>3.583404477160934</v>
       </c>
       <c r="F26">
-        <v>62631.37201152721</v>
+        <v>62631.3720152089</v>
       </c>
       <c r="G26">
-        <v>2102.070146679133</v>
+        <v>2102.070135691947</v>
       </c>
       <c r="H26">
-        <v>16576.40520883149</v>
+        <v>16576.40520885264</v>
       </c>
       <c r="I26">
-        <v>16703.82268634371</v>
+        <v>16703.82268633045</v>
       </c>
       <c r="J26">
         <v>19483.38311861484</v>
       </c>
       <c r="K26">
-        <v>0.5085005267428798</v>
+        <v>0.5085005267428797</v>
       </c>
       <c r="L26">
         <v>93.34216601948414</v>
       </c>
       <c r="M26">
-        <v>1.228425194470312</v>
+        <v>1.228425194470313</v>
       </c>
       <c r="N26">
         <v>133144.7894890262</v>
@@ -2280,10 +2280,10 @@
         <v>1405.387137497883</v>
       </c>
       <c r="P26">
-        <v>19437.77195476648</v>
+        <v>19437.77195477109</v>
       </c>
       <c r="Q26">
-        <v>19567.28124353856</v>
+        <v>19567.28124352911</v>
       </c>
       <c r="R26">
         <v>19979.33990507385</v>
@@ -2304,10 +2304,10 @@
         <v>1636.177774720781</v>
       </c>
       <c r="X26">
-        <v>19890.3346853939</v>
+        <v>19890.33468543573</v>
       </c>
       <c r="Y26">
-        <v>20018.27398345673</v>
+        <v>20018.27398342369</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -2315,22 +2315,22 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>17475.20378824204</v>
+        <v>17475.20378825233</v>
       </c>
       <c r="C27">
-        <v>1.615308086097466</v>
+        <v>1.615308084963991</v>
       </c>
       <c r="D27">
-        <v>93.72704432676288</v>
+        <v>93.72704436820226</v>
       </c>
       <c r="E27">
-        <v>3.750056744209239</v>
+        <v>3.750056786353757</v>
       </c>
       <c r="F27">
-        <v>66409.60220412817</v>
+        <v>66409.60222296471</v>
       </c>
       <c r="G27">
-        <v>2168.423531730885</v>
+        <v>2168.423521319678</v>
       </c>
       <c r="H27">
         <v>17381.54270251122</v>
@@ -2339,52 +2339,52 @@
         <v>17529.68452748394</v>
       </c>
       <c r="J27">
-        <v>20261.83603865426</v>
+        <v>20261.83603865425</v>
       </c>
       <c r="K27">
-        <v>0.7855593699126688</v>
+        <v>0.7855593699119977</v>
       </c>
       <c r="L27">
-        <v>100.0276847246563</v>
+        <v>100.0276847246668</v>
       </c>
       <c r="M27">
-        <v>1.716591269854683</v>
+        <v>1.716591269849313</v>
       </c>
       <c r="N27">
-        <v>136835.7332961704</v>
+        <v>136835.7332961818</v>
       </c>
       <c r="O27">
-        <v>1981.682005663771</v>
+        <v>1981.682005659569</v>
       </c>
       <c r="P27">
-        <v>20214.78067451521</v>
+        <v>20214.78067451389</v>
       </c>
       <c r="Q27">
-        <v>20350.30944503672</v>
+        <v>20350.30944503981</v>
       </c>
       <c r="R27">
-        <v>20753.16591146632</v>
+        <v>20753.16591144777</v>
       </c>
       <c r="S27">
-        <v>2.253272015431198</v>
+        <v>2.253272030680434</v>
       </c>
       <c r="T27">
-        <v>112.8111075197922</v>
+        <v>112.8111074530839</v>
       </c>
       <c r="U27">
-        <v>5.308173910590956</v>
+        <v>5.308173916338825</v>
       </c>
       <c r="V27">
-        <v>27958.81169298002</v>
+        <v>27958.81168234168</v>
       </c>
       <c r="W27">
-        <v>1075.855031442858</v>
+        <v>1075.855016536595</v>
       </c>
       <c r="X27">
-        <v>20653.51812777401</v>
+        <v>20653.51812772005</v>
       </c>
       <c r="Y27">
-        <v>20803.8943526738</v>
+        <v>20803.89435271305</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -2410,28 +2410,28 @@
         <v>1472.563896054958</v>
       </c>
       <c r="H28">
-        <v>17231.1246564578</v>
+        <v>17231.12465645913</v>
       </c>
       <c r="I28">
-        <v>17332.36367181845</v>
+        <v>17332.36367181692</v>
       </c>
       <c r="J28">
-        <v>20060.64759211801</v>
+        <v>20060.6475921191</v>
       </c>
       <c r="K28">
-        <v>0.4481226589003437</v>
+        <v>0.4481226584252518</v>
       </c>
       <c r="L28">
-        <v>87.18941027525807</v>
+        <v>87.18941027143316</v>
       </c>
       <c r="M28">
-        <v>0.9849437747058187</v>
+        <v>0.984943778116203</v>
       </c>
       <c r="N28">
-        <v>124707.5904956019</v>
+        <v>124707.5904927253</v>
       </c>
       <c r="O28">
-        <v>1183.061663144855</v>
+        <v>1183.061663344102</v>
       </c>
       <c r="P28">
         <v>20017.28757471779</v>
@@ -2458,10 +2458,10 @@
         <v>775.9748657092181</v>
       </c>
       <c r="X28">
-        <v>20459.44201394924</v>
+        <v>20459.44201391382</v>
       </c>
       <c r="Y28">
-        <v>20584.58779696134</v>
+        <v>20584.58779698862</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -2472,7 +2472,7 @@
         <v>16902.4329361363</v>
       </c>
       <c r="C29">
-        <v>0.507769372811948</v>
+        <v>0.5077693728119481</v>
       </c>
       <c r="D29">
         <v>64.80200110267485</v>
@@ -2484,7 +2484,7 @@
         <v>63887.05651826164</v>
       </c>
       <c r="G29">
-        <v>965.9047247813115</v>
+        <v>965.9047247813118</v>
       </c>
       <c r="H29">
         <v>16842.02917258403</v>
@@ -2496,13 +2496,13 @@
         <v>19531.61444202849</v>
       </c>
       <c r="K29">
-        <v>0.5972140379252021</v>
+        <v>0.597214037925202</v>
       </c>
       <c r="L29">
         <v>84.79061324544793</v>
       </c>
       <c r="M29">
-        <v>1.503965123269474</v>
+        <v>1.503965123269475</v>
       </c>
       <c r="N29">
         <v>144768.1028479543</v>
@@ -2517,22 +2517,22 @@
         <v>19608.15843679211</v>
       </c>
       <c r="R29">
-        <v>19993.9037989094</v>
+        <v>19993.90379890909</v>
       </c>
       <c r="S29">
-        <v>1.88781869163052</v>
+        <v>1.887818695412684</v>
       </c>
       <c r="T29">
-        <v>84.56379871980462</v>
+        <v>84.56379872346007</v>
       </c>
       <c r="U29">
-        <v>4.283756120473305</v>
+        <v>4.283756104103812</v>
       </c>
       <c r="V29">
-        <v>25348.07378826709</v>
+        <v>25348.07378871114</v>
       </c>
       <c r="W29">
-        <v>1061.143724102272</v>
+        <v>1061.143722886988</v>
       </c>
       <c r="X29">
         <v>19915.9243719851</v>
@@ -2699,28 +2699,28 @@
         <v>1720.646650914359</v>
       </c>
       <c r="H4">
-        <v>16779.35374981691</v>
+        <v>16779.35374981512</v>
       </c>
       <c r="I4">
-        <v>16852.206422519</v>
+        <v>16852.20642252083</v>
       </c>
       <c r="J4">
         <v>19199.08689573844</v>
       </c>
       <c r="K4">
-        <v>0.163096462046377</v>
+        <v>0.1630964620463771</v>
       </c>
       <c r="L4">
         <v>70.21418687124226</v>
       </c>
       <c r="M4">
-        <v>0.3568049556160825</v>
+        <v>0.3568049556160827</v>
       </c>
       <c r="N4">
         <v>160349.5953168772</v>
       </c>
       <c r="O4">
-        <v>687.8699844149658</v>
+        <v>687.8699844149659</v>
       </c>
       <c r="P4">
         <v>19162.5504404776</v>
@@ -2738,7 +2738,7 @@
         <v>73.99673258927042</v>
       </c>
       <c r="U4">
-        <v>4.720113279922849</v>
+        <v>4.720113279922846</v>
       </c>
       <c r="V4">
         <v>29168.09039094568</v>
@@ -2747,10 +2747,10 @@
         <v>1498.395704086322</v>
       </c>
       <c r="X4">
-        <v>19564.80560472904</v>
+        <v>19564.80560472595</v>
       </c>
       <c r="Y4">
-        <v>19661.62464283236</v>
+        <v>19661.62464283972</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -2761,19 +2761,19 @@
         <v>16916.75984069889</v>
       </c>
       <c r="C5">
-        <v>0.4146430944088876</v>
+        <v>0.4146430944088875</v>
       </c>
       <c r="D5">
         <v>61.98187482186402</v>
       </c>
       <c r="E5">
-        <v>1.012936151066881</v>
+        <v>1.01293615106688</v>
       </c>
       <c r="F5">
         <v>104582.8719289087</v>
       </c>
       <c r="G5">
-        <v>1403.333183574565</v>
+        <v>1403.333183574563</v>
       </c>
       <c r="H5">
         <v>16860.89964619315</v>
@@ -2791,19 +2791,19 @@
         <v>82.23743773121461</v>
       </c>
       <c r="M5">
-        <v>1.571587269962864</v>
+        <v>1.571587269962863</v>
       </c>
       <c r="N5">
         <v>162068.3928926223</v>
       </c>
       <c r="O5">
-        <v>2563.908640626964</v>
+        <v>2563.908640626963</v>
       </c>
       <c r="P5">
-        <v>19683.39889201871</v>
+        <v>19683.39889202019</v>
       </c>
       <c r="Q5">
-        <v>19795.34521758812</v>
+        <v>19795.34521758487</v>
       </c>
       <c r="R5">
         <v>20213.18772844299</v>
@@ -2815,7 +2815,7 @@
         <v>83.0914818538191</v>
       </c>
       <c r="U5">
-        <v>4.433714231162848</v>
+        <v>4.433714231162845</v>
       </c>
       <c r="V5">
         <v>29047.41689817578</v>
@@ -2824,10 +2824,10 @@
         <v>1203.967232635498</v>
       </c>
       <c r="X5">
-        <v>20140.09556971582</v>
+        <v>20140.0955697012</v>
       </c>
       <c r="Y5">
-        <v>20250.19588466309</v>
+        <v>20250.19588468048</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -2835,28 +2835,28 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>16837.78393916621</v>
+        <v>16837.7839391643</v>
       </c>
       <c r="C6">
-        <v>0.9763271827499908</v>
+        <v>0.9763271833608342</v>
       </c>
       <c r="D6">
-        <v>76.58921381978486</v>
+        <v>76.5892138135066</v>
       </c>
       <c r="E6">
-        <v>2.174346138991599</v>
+        <v>2.174346137093093</v>
       </c>
       <c r="F6">
-        <v>114250.0888388734</v>
+        <v>114250.0888333906</v>
       </c>
       <c r="G6">
-        <v>2711.643550225545</v>
+        <v>2711.643548010144</v>
       </c>
       <c r="H6">
-        <v>16769.06888014861</v>
+        <v>16769.06888014151</v>
       </c>
       <c r="I6">
-        <v>16871.16012798131</v>
+        <v>16871.16012798569</v>
       </c>
       <c r="J6">
         <v>20010.98816100645</v>
@@ -2868,7 +2868,7 @@
         <v>90.33436760090154</v>
       </c>
       <c r="M6">
-        <v>0.72289761986808</v>
+        <v>0.7228976198680801</v>
       </c>
       <c r="N6">
         <v>161904.4814774457</v>
@@ -2883,28 +2883,28 @@
         <v>20091.04329749782</v>
       </c>
       <c r="R6">
-        <v>20558.18757359675</v>
+        <v>20558.1875735688</v>
       </c>
       <c r="S6">
-        <v>1.948085400766153</v>
+        <v>1.948085407328758</v>
       </c>
       <c r="T6">
-        <v>99.46382143490727</v>
+        <v>99.46382134373607</v>
       </c>
       <c r="U6">
-        <v>4.358650996520073</v>
+        <v>4.3586509742778</v>
       </c>
       <c r="V6">
-        <v>35350.24193863171</v>
+        <v>35350.24191771688</v>
       </c>
       <c r="W6">
-        <v>1291.201012022883</v>
+        <v>1291.200998242575</v>
       </c>
       <c r="X6">
-        <v>20465.82610235758</v>
+        <v>20465.82610241411</v>
       </c>
       <c r="Y6">
-        <v>20605.61764032608</v>
+        <v>20605.61764027897</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -2933,13 +2933,13 @@
         <v>16287.85609529705</v>
       </c>
       <c r="I7">
-        <v>16368.02464023403</v>
+        <v>16368.02464023404</v>
       </c>
       <c r="J7">
         <v>19156.79074907382</v>
       </c>
       <c r="K7">
-        <v>0.4819794877790768</v>
+        <v>0.481979487779077</v>
       </c>
       <c r="L7">
         <v>81.81938715909342</v>
@@ -2951,7 +2951,7 @@
         <v>156713.6798329461</v>
       </c>
       <c r="O7">
-        <v>1698.511100748139</v>
+        <v>1698.51110074814</v>
       </c>
       <c r="P7">
         <v>19116.93263443063</v>
@@ -2969,7 +2969,7 @@
         <v>85.61159411610619</v>
       </c>
       <c r="U7">
-        <v>3.809667184210698</v>
+        <v>3.809667184210697</v>
       </c>
       <c r="V7">
         <v>28269.36396558837</v>
@@ -2978,10 +2978,10 @@
         <v>1041.894921808712</v>
       </c>
       <c r="X7">
-        <v>19580.29021075788</v>
+        <v>19580.29021076742</v>
       </c>
       <c r="Y7">
-        <v>19696.11540939018</v>
+        <v>19696.11540937949</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -2989,22 +2989,22 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>16650.2555413927</v>
+        <v>16650.25554139862</v>
       </c>
       <c r="C8">
-        <v>0.431179763010655</v>
+        <v>0.4311797589058398</v>
       </c>
       <c r="D8">
-        <v>59.55253480931179</v>
+        <v>59.55253482419353</v>
       </c>
       <c r="E8">
-        <v>0.8933335914589694</v>
+        <v>0.8933335750276272</v>
       </c>
       <c r="F8">
-        <v>90262.29056622938</v>
+        <v>90262.29058427425</v>
       </c>
       <c r="G8">
-        <v>1216.056337638515</v>
+        <v>1216.056346600439</v>
       </c>
       <c r="H8">
         <v>16596.21852422161</v>
@@ -3016,25 +3016,25 @@
         <v>19349.55105578417</v>
       </c>
       <c r="K8">
-        <v>0.6619618881211145</v>
+        <v>0.6619618881211146</v>
       </c>
       <c r="L8">
         <v>80.3255923615572</v>
       </c>
       <c r="M8">
-        <v>1.366113009979416</v>
+        <v>1.366113009979417</v>
       </c>
       <c r="N8">
         <v>163642.1693796135</v>
       </c>
       <c r="O8">
-        <v>2456.086565331148</v>
+        <v>2456.086565331149</v>
       </c>
       <c r="P8">
-        <v>19311.22686191367</v>
+        <v>19311.22686191304</v>
       </c>
       <c r="Q8">
-        <v>19422.65461963915</v>
+        <v>19422.65461964161</v>
       </c>
       <c r="R8">
         <v>19823.82494062921</v>
@@ -3055,10 +3055,10 @@
         <v>547.8808545292136</v>
       </c>
       <c r="X8">
-        <v>19752.15118493268</v>
+        <v>19752.15118493393</v>
       </c>
       <c r="Y8">
-        <v>19863.1285638275</v>
+        <v>19863.12856382399</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -3066,22 +3066,22 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>16220.93644493576</v>
+        <v>16220.93644494073</v>
       </c>
       <c r="C9">
-        <v>0.573367264243831</v>
+        <v>0.5733672592751622</v>
       </c>
       <c r="D9">
-        <v>56.25233947215889</v>
+        <v>56.25233948529414</v>
       </c>
       <c r="E9">
-        <v>1.395789041704117</v>
+        <v>1.39578904305904</v>
       </c>
       <c r="F9">
-        <v>91454.9745089606</v>
+        <v>91454.97453027243</v>
       </c>
       <c r="G9">
-        <v>1913.711784453768</v>
+        <v>1913.71181628551</v>
       </c>
       <c r="H9">
         <v>16170.80149880195</v>
@@ -3108,22 +3108,22 @@
         <v>1651.494636626604</v>
       </c>
       <c r="P9">
-        <v>18669.02638347452</v>
+        <v>18669.0263834776</v>
       </c>
       <c r="Q9">
-        <v>18772.58291163525</v>
+        <v>18772.58291162812</v>
       </c>
       <c r="R9">
         <v>19150.3458913483</v>
       </c>
       <c r="S9">
-        <v>1.089429979520656</v>
+        <v>1.089429979520657</v>
       </c>
       <c r="T9">
         <v>75.67287165344742</v>
       </c>
       <c r="U9">
-        <v>2.57020182852373</v>
+        <v>2.570201828523731</v>
       </c>
       <c r="V9">
         <v>24981.48161796421</v>
@@ -3132,10 +3132,10 @@
         <v>700.1148176679486</v>
       </c>
       <c r="X9">
-        <v>19080.23733665661</v>
+        <v>19080.23733665938</v>
       </c>
       <c r="Y9">
-        <v>19185.44809414325</v>
+        <v>19185.44809414223</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -3143,40 +3143,40 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>16308.64706338477</v>
+        <v>16308.64706339601</v>
       </c>
       <c r="C10">
-        <v>0.668174615450893</v>
+        <v>0.6681746122480402</v>
       </c>
       <c r="D10">
-        <v>61.39758034515325</v>
+        <v>61.39758037917997</v>
       </c>
       <c r="E10">
-        <v>1.501234783998606</v>
+        <v>1.501234767761775</v>
       </c>
       <c r="F10">
-        <v>82896.05660002028</v>
+        <v>82896.05663064774</v>
       </c>
       <c r="G10">
-        <v>1741.838781154592</v>
+        <v>1741.838765502492</v>
       </c>
       <c r="H10">
-        <v>16254.19895211352</v>
+        <v>16254.19895210562</v>
       </c>
       <c r="I10">
-        <v>16336.37611540437</v>
+        <v>16336.37611541097</v>
       </c>
       <c r="J10">
         <v>18752.84661257905</v>
       </c>
       <c r="K10">
-        <v>0.2642779806150314</v>
+        <v>0.2642779806150315</v>
       </c>
       <c r="L10">
         <v>76.75063908627781</v>
       </c>
       <c r="M10">
-        <v>0.5804688645426823</v>
+        <v>0.5804688645426822</v>
       </c>
       <c r="N10">
         <v>134208.2987745236</v>
@@ -3185,28 +3185,28 @@
         <v>852.5276457301675</v>
       </c>
       <c r="P10">
-        <v>18714.01458779948</v>
+        <v>18714.01458779753</v>
       </c>
       <c r="Q10">
-        <v>18822.04040811384</v>
+        <v>18822.04040811829</v>
       </c>
       <c r="R10">
         <v>19194.61341499045</v>
       </c>
       <c r="S10">
-        <v>3.543663734430662</v>
+        <v>3.543663734430661</v>
       </c>
       <c r="T10">
         <v>85.25194824321298</v>
       </c>
       <c r="U10">
-        <v>7.000185453180088</v>
+        <v>7.000185453180087</v>
       </c>
       <c r="V10">
         <v>24756.35433902733</v>
       </c>
       <c r="W10">
-        <v>1900.288680733489</v>
+        <v>1900.288680733488</v>
       </c>
       <c r="X10">
         <v>19119.72928971123</v>
@@ -3223,7 +3223,7 @@
         <v>17710.50765228515</v>
       </c>
       <c r="C11">
-        <v>0.7412851408091189</v>
+        <v>0.741285140809119</v>
       </c>
       <c r="D11">
         <v>68.30414030154708</v>
@@ -3238,22 +3238,22 @@
         <v>1958.761307545199</v>
       </c>
       <c r="H11">
-        <v>17650.62933088115</v>
+        <v>17650.62933088011</v>
       </c>
       <c r="I11">
-        <v>17740.06253023847</v>
+        <v>17740.06253023902</v>
       </c>
       <c r="J11">
         <v>20861.32340367884</v>
       </c>
       <c r="K11">
-        <v>0.7125103540640531</v>
+        <v>0.7125103540640528</v>
       </c>
       <c r="L11">
         <v>90.31367180703212</v>
       </c>
       <c r="M11">
-        <v>1.440949067372625</v>
+        <v>1.440949067372624</v>
       </c>
       <c r="N11">
         <v>143361.014087773</v>
@@ -3262,34 +3262,34 @@
         <v>2064.003437946099</v>
       </c>
       <c r="P11">
-        <v>20820.29825295938</v>
+        <v>20820.29825295854</v>
       </c>
       <c r="Q11">
-        <v>20940.59356616021</v>
+        <v>20940.59356616206</v>
       </c>
       <c r="R11">
-        <v>21403.57887861906</v>
+        <v>21403.5788786378</v>
       </c>
       <c r="S11">
-        <v>1.125646333518037</v>
+        <v>1.125646335607671</v>
       </c>
       <c r="T11">
-        <v>97.53875918395906</v>
+        <v>97.53875923603536</v>
       </c>
       <c r="U11">
-        <v>2.43245862493876</v>
+        <v>2.432458630470169</v>
       </c>
       <c r="V11">
-        <v>27435.58853039242</v>
+        <v>27435.58854126798</v>
       </c>
       <c r="W11">
-        <v>589.2211615245909</v>
+        <v>589.221162713422</v>
       </c>
       <c r="X11">
-        <v>21318.43970251736</v>
+        <v>21318.4397025143</v>
       </c>
       <c r="Y11">
-        <v>21443.33665921765</v>
+        <v>21443.33665921899</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -3300,7 +3300,7 @@
         <v>16667.30330845941</v>
       </c>
       <c r="C12">
-        <v>0.4704568906211808</v>
+        <v>0.4704568906211807</v>
       </c>
       <c r="D12">
         <v>55.25724591029572</v>
@@ -3312,7 +3312,7 @@
         <v>101072.6990274327</v>
       </c>
       <c r="G12">
-        <v>1603.223529666375</v>
+        <v>1603.223529666374</v>
       </c>
       <c r="H12">
         <v>16619.20653029161</v>
@@ -3348,7 +3348,7 @@
         <v>19486.6628556138</v>
       </c>
       <c r="S12">
-        <v>0.7942665001842716</v>
+        <v>0.7942665001842715</v>
       </c>
       <c r="T12">
         <v>70.97957699694753</v>
@@ -3360,13 +3360,13 @@
         <v>24043.32270130021</v>
       </c>
       <c r="W12">
-        <v>531.154051699684</v>
+        <v>531.1540516996839</v>
       </c>
       <c r="X12">
-        <v>19420.74890255772</v>
+        <v>19420.74890254638</v>
       </c>
       <c r="Y12">
-        <v>19521.59509994744</v>
+        <v>19521.59509995855</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -3377,13 +3377,13 @@
         <v>16847.37823846449</v>
       </c>
       <c r="C13">
-        <v>0.7203374788852519</v>
+        <v>0.7203374788852518</v>
       </c>
       <c r="D13">
         <v>68.14865763344881</v>
       </c>
       <c r="E13">
-        <v>1.491238027140468</v>
+        <v>1.491238027140467</v>
       </c>
       <c r="F13">
         <v>94337.62653377399</v>
@@ -3416,34 +3416,34 @@
         <v>2293.398021588244</v>
       </c>
       <c r="P13">
-        <v>19638.91080176111</v>
+        <v>19638.91080176191</v>
       </c>
       <c r="Q13">
-        <v>19755.06997291571</v>
+        <v>19755.06997291298</v>
       </c>
       <c r="R13">
-        <v>20174.76186558767</v>
+        <v>20174.76186558551</v>
       </c>
       <c r="S13">
-        <v>1.181247826833323</v>
+        <v>1.181247821745696</v>
       </c>
       <c r="T13">
-        <v>84.54280442584286</v>
+        <v>84.54280442433978</v>
       </c>
       <c r="U13">
-        <v>2.610398537454081</v>
+        <v>2.610398607183873</v>
       </c>
       <c r="V13">
-        <v>30028.07157175707</v>
+        <v>30028.07156827922</v>
       </c>
       <c r="W13">
-        <v>776.9204426736362</v>
+        <v>776.9204435442869</v>
       </c>
       <c r="X13">
-        <v>20099.05194038053</v>
+        <v>20099.05194036947</v>
       </c>
       <c r="Y13">
-        <v>20211.13846594195</v>
+        <v>20211.13846594908</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -3451,22 +3451,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17039.94238363748</v>
+        <v>17039.94238364523</v>
       </c>
       <c r="C14">
-        <v>3.088441248449053</v>
+        <v>3.08844126041601</v>
       </c>
       <c r="D14">
-        <v>98.792788030914</v>
+        <v>98.79278801208821</v>
       </c>
       <c r="E14">
-        <v>7.435117171584205</v>
+        <v>7.435117205327333</v>
       </c>
       <c r="F14">
-        <v>103048.7792445586</v>
+        <v>103048.779252555</v>
       </c>
       <c r="G14">
-        <v>6228.03669996931</v>
+        <v>6228.036740451959</v>
       </c>
       <c r="H14">
         <v>16952.98406334623</v>
@@ -3475,52 +3475,52 @@
         <v>17103.03311755729</v>
       </c>
       <c r="J14">
-        <v>19870.49911021238</v>
+        <v>19870.49911022067</v>
       </c>
       <c r="K14">
-        <v>1.453420015267722</v>
+        <v>1.453420020467709</v>
       </c>
       <c r="L14">
-        <v>130.6472432588226</v>
+        <v>130.6472432362436</v>
       </c>
       <c r="M14">
-        <v>3.22455881033455</v>
+        <v>3.224558830326253</v>
       </c>
       <c r="N14">
-        <v>194047.9418706649</v>
+        <v>194047.9418447055</v>
       </c>
       <c r="O14">
-        <v>4074.288852251724</v>
+        <v>4074.288823651446</v>
       </c>
       <c r="P14">
-        <v>19818.95298274867</v>
+        <v>19818.9529827367</v>
       </c>
       <c r="Q14">
-        <v>19981.63596179798</v>
+        <v>19981.63596183668</v>
       </c>
       <c r="R14">
-        <v>20377.50808880684</v>
+        <v>20377.50808879305</v>
       </c>
       <c r="S14">
-        <v>2.998056148052103</v>
+        <v>2.998056158166552</v>
       </c>
       <c r="T14">
-        <v>122.9597704593872</v>
+        <v>122.9597704118614</v>
       </c>
       <c r="U14">
-        <v>6.6542458436921</v>
+        <v>6.654245904896457</v>
       </c>
       <c r="V14">
-        <v>31423.66526522099</v>
+        <v>31423.66525554996</v>
       </c>
       <c r="W14">
-        <v>1405.072428228733</v>
+        <v>1405.072427815982</v>
       </c>
       <c r="X14">
-        <v>20262.90604721393</v>
+        <v>20262.90604722919</v>
       </c>
       <c r="Y14">
-        <v>20442.15859431329</v>
+        <v>20442.15859429606</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -3531,7 +3531,7 @@
         <v>16385.33803459026</v>
       </c>
       <c r="C15">
-        <v>0.6584063186349207</v>
+        <v>0.6584063186349208</v>
       </c>
       <c r="D15">
         <v>66.57830896905567</v>
@@ -3543,7 +3543,7 @@
         <v>106859.037957379</v>
       </c>
       <c r="G15">
-        <v>1987.886907476385</v>
+        <v>1987.886907476386</v>
       </c>
       <c r="H15">
         <v>16325.51749756023</v>
@@ -3552,46 +3552,46 @@
         <v>16416.97002579902</v>
       </c>
       <c r="J15">
-        <v>19297.58990598536</v>
+        <v>19297.58990598591</v>
       </c>
       <c r="K15">
-        <v>0.3503240581092615</v>
+        <v>0.3503240580592606</v>
       </c>
       <c r="L15">
-        <v>83.3682871642421</v>
+        <v>83.36828716228618</v>
       </c>
       <c r="M15">
-        <v>0.7901248916933292</v>
+        <v>0.7901248862767218</v>
       </c>
       <c r="N15">
-        <v>170023.7954538888</v>
+        <v>170023.7954516883</v>
       </c>
       <c r="O15">
-        <v>1333.25579134767</v>
+        <v>1333.255791893545</v>
       </c>
       <c r="P15">
-        <v>19255.42146533369</v>
+        <v>19255.42146534515</v>
       </c>
       <c r="Q15">
-        <v>19373.18774060353</v>
+        <v>19373.18774057348</v>
       </c>
       <c r="R15">
-        <v>19803.07051408292</v>
+        <v>19803.07051409124</v>
       </c>
       <c r="S15">
-        <v>1.339124429403648</v>
+        <v>1.339124425047856</v>
       </c>
       <c r="T15">
-        <v>84.21707376839849</v>
+        <v>84.21707379145819</v>
       </c>
       <c r="U15">
-        <v>3.10280073311382</v>
+        <v>3.102800697247907</v>
       </c>
       <c r="V15">
-        <v>30627.62274335906</v>
+        <v>30627.62275222188</v>
       </c>
       <c r="W15">
-        <v>920.066726232876</v>
+        <v>920.0667248524198</v>
       </c>
       <c r="X15">
         <v>19728.86683917083</v>
@@ -3605,22 +3605,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16787.65883010143</v>
+        <v>16787.65883010302</v>
       </c>
       <c r="C16">
-        <v>0.4142424940818447</v>
+        <v>0.4142424949831194</v>
       </c>
       <c r="D16">
-        <v>58.96933664612718</v>
+        <v>58.96933665144866</v>
       </c>
       <c r="E16">
-        <v>0.9504598328264874</v>
+        <v>0.9504598517572299</v>
       </c>
       <c r="F16">
-        <v>109118.1651802646</v>
+        <v>109118.1651863785</v>
       </c>
       <c r="G16">
-        <v>1472.444064029104</v>
+        <v>1472.444073412208</v>
       </c>
       <c r="H16">
         <v>16734.96847335018</v>
@@ -3647,10 +3647,10 @@
         <v>2139.016806621983</v>
       </c>
       <c r="P16">
-        <v>19269.04122280757</v>
+        <v>19269.0412228051</v>
       </c>
       <c r="Q16">
-        <v>19371.99483985325</v>
+        <v>19371.99483986065</v>
       </c>
       <c r="R16">
         <v>19755.81035240601</v>
@@ -3671,10 +3671,10 @@
         <v>865.2579141971137</v>
       </c>
       <c r="X16">
-        <v>19687.16637385848</v>
+        <v>19687.1663738757</v>
       </c>
       <c r="Y16">
-        <v>19792.54884197573</v>
+        <v>19792.54884196152</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -3685,43 +3685,43 @@
         <v>16448.82932208051</v>
       </c>
       <c r="C17">
-        <v>0.9113813204147707</v>
+        <v>0.9113813204147715</v>
       </c>
       <c r="D17">
         <v>66.78051861512685</v>
       </c>
       <c r="E17">
-        <v>1.790960867006375</v>
+        <v>1.790960867006376</v>
       </c>
       <c r="F17">
         <v>118460.5759416121</v>
       </c>
       <c r="G17">
-        <v>2952.535250962896</v>
+        <v>2952.535250962898</v>
       </c>
       <c r="H17">
-        <v>16389.83562896439</v>
+        <v>16389.83562896445</v>
       </c>
       <c r="I17">
-        <v>16478.5000336536</v>
+        <v>16478.50003365391</v>
       </c>
       <c r="J17">
-        <v>19131.90627968976</v>
+        <v>19131.9062796958</v>
       </c>
       <c r="K17">
-        <v>0.8290192429715746</v>
+        <v>0.8290192473789108</v>
       </c>
       <c r="L17">
-        <v>86.58586364814482</v>
+        <v>86.58586363029153</v>
       </c>
       <c r="M17">
-        <v>1.90262024543958</v>
+        <v>1.902620272317755</v>
       </c>
       <c r="N17">
-        <v>178120.5094964301</v>
+        <v>178120.5094677912</v>
       </c>
       <c r="O17">
-        <v>3304.953074350117</v>
+        <v>3304.953133488611</v>
       </c>
       <c r="P17">
         <v>19092.23064674024</v>
@@ -3733,7 +3733,7 @@
         <v>19608.41710902934</v>
       </c>
       <c r="S17">
-        <v>2.226636857438433</v>
+        <v>2.226636857438432</v>
       </c>
       <c r="T17">
         <v>77.83508286310126</v>
@@ -3748,10 +3748,10 @@
         <v>1555.045493789916</v>
       </c>
       <c r="X17">
-        <v>19534.34358738676</v>
+        <v>19534.34358737948</v>
       </c>
       <c r="Y17">
-        <v>19647.95281216715</v>
+        <v>19647.95281217339</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -3759,22 +3759,22 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>16878.04191240043</v>
+        <v>16878.04191240039</v>
       </c>
       <c r="C18">
-        <v>1.259837682078022</v>
+        <v>1.259837682068423</v>
       </c>
       <c r="D18">
-        <v>70.14169890724071</v>
+        <v>70.14169890717811</v>
       </c>
       <c r="E18">
-        <v>2.559003773343011</v>
+        <v>2.559003773327901</v>
       </c>
       <c r="F18">
-        <v>103973.9201167612</v>
+        <v>103973.9201166746</v>
       </c>
       <c r="G18">
-        <v>3484.451265343332</v>
+        <v>3484.451265334065</v>
       </c>
       <c r="H18">
         <v>16816.70850579488</v>
@@ -3783,22 +3783,22 @@
         <v>16909.77733728163</v>
       </c>
       <c r="J18">
-        <v>19591.65527296422</v>
+        <v>19591.65527294844</v>
       </c>
       <c r="K18">
-        <v>0.8424313772738257</v>
+        <v>0.8424313739273254</v>
       </c>
       <c r="L18">
-        <v>83.06296588391027</v>
+        <v>83.06296592321463</v>
       </c>
       <c r="M18">
-        <v>1.855463903593483</v>
+        <v>1.855463912783046</v>
       </c>
       <c r="N18">
-        <v>150853.8214293292</v>
+        <v>150853.8215013074</v>
       </c>
       <c r="O18">
-        <v>2874.991493621797</v>
+        <v>2874.991468049655</v>
       </c>
       <c r="P18">
         <v>19550.75336676768</v>
@@ -3807,28 +3807,28 @@
         <v>19666.16438096844</v>
       </c>
       <c r="R18">
-        <v>20069.65949541067</v>
+        <v>20069.65949541743</v>
       </c>
       <c r="S18">
-        <v>1.295113177129841</v>
+        <v>1.295113175638771</v>
       </c>
       <c r="T18">
-        <v>83.37029093732379</v>
+        <v>83.37029096851545</v>
       </c>
       <c r="U18">
-        <v>3.183719384887802</v>
+        <v>3.183719337425007</v>
       </c>
       <c r="V18">
-        <v>25947.96643104849</v>
+        <v>25947.96643554049</v>
       </c>
       <c r="W18">
-        <v>788.3510612460777</v>
+        <v>788.3510415334067</v>
       </c>
       <c r="X18">
-        <v>19993.61910067035</v>
+        <v>19993.61910066547</v>
       </c>
       <c r="Y18">
-        <v>20110.43369269598</v>
+        <v>20110.43369269836</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -3839,19 +3839,19 @@
         <v>17281.43057524181</v>
       </c>
       <c r="C19">
-        <v>0.6868688322779063</v>
+        <v>0.6868688322779055</v>
       </c>
       <c r="D19">
         <v>59.35802925654923</v>
       </c>
       <c r="E19">
-        <v>1.347738391370691</v>
+        <v>1.347738391370689</v>
       </c>
       <c r="F19">
         <v>110494.2374179151</v>
       </c>
       <c r="G19">
-        <v>2339.957282390934</v>
+        <v>2339.957282390932</v>
       </c>
       <c r="H19">
         <v>17228.41338697285</v>
@@ -3860,22 +3860,22 @@
         <v>17307.30190576464</v>
       </c>
       <c r="J19">
-        <v>20042.4512721344</v>
+        <v>20042.4512721385</v>
       </c>
       <c r="K19">
-        <v>0.7911791279027183</v>
+        <v>0.7911791310627555</v>
       </c>
       <c r="L19">
-        <v>77.69512881669804</v>
+        <v>77.69512880495768</v>
       </c>
       <c r="M19">
-        <v>1.711466994695422</v>
+        <v>1.711466986157745</v>
       </c>
       <c r="N19">
-        <v>153010.5887571654</v>
+        <v>153010.5887410294</v>
       </c>
       <c r="O19">
-        <v>2859.767275411363</v>
+        <v>2859.767251134821</v>
       </c>
       <c r="P19">
         <v>20005.32034190213</v>
@@ -3893,7 +3893,7 @@
         <v>75.1445619762965</v>
       </c>
       <c r="U19">
-        <v>2.969133600115593</v>
+        <v>2.969133600115591</v>
       </c>
       <c r="V19">
         <v>26339.49166859641</v>
@@ -3916,13 +3916,13 @@
         <v>16995.76951538426</v>
       </c>
       <c r="C20">
-        <v>0.4400185690154542</v>
+        <v>0.440018569015454</v>
       </c>
       <c r="D20">
         <v>47.14770499218715</v>
       </c>
       <c r="E20">
-        <v>0.9682456315948598</v>
+        <v>0.9682456315948593</v>
       </c>
       <c r="F20">
         <v>95167.37477469731</v>
@@ -3931,34 +3931,34 @@
         <v>1755.96895303985</v>
       </c>
       <c r="H20">
-        <v>16954.40253762958</v>
+        <v>16954.40253762766</v>
       </c>
       <c r="I20">
-        <v>17015.97093052066</v>
+        <v>17015.97093052215</v>
       </c>
       <c r="J20">
-        <v>19271.03265856623</v>
+        <v>19271.03265855208</v>
       </c>
       <c r="K20">
-        <v>0.8869111542554701</v>
+        <v>0.8869111523418994</v>
       </c>
       <c r="L20">
-        <v>65.60562465820952</v>
+        <v>65.60562470022064</v>
       </c>
       <c r="M20">
-        <v>2.037471690359793</v>
+        <v>2.037471690074446</v>
       </c>
       <c r="N20">
-        <v>146662.544811819</v>
+        <v>146662.5448815964</v>
       </c>
       <c r="O20">
-        <v>3974.49341155802</v>
+        <v>3974.493399406493</v>
       </c>
       <c r="P20">
-        <v>19240.09170997878</v>
+        <v>19240.09170997823</v>
       </c>
       <c r="Q20">
-        <v>19328.00350740954</v>
+        <v>19328.0035074113</v>
       </c>
       <c r="R20">
         <v>19684.94525674929</v>
@@ -3970,19 +3970,19 @@
         <v>68.8355651669262</v>
       </c>
       <c r="U20">
-        <v>3.658154693881719</v>
+        <v>3.658154693881721</v>
       </c>
       <c r="V20">
         <v>26862.10820893317</v>
       </c>
       <c r="W20">
-        <v>1204.597103774974</v>
+        <v>1204.597103774975</v>
       </c>
       <c r="X20">
-        <v>19622.19951214498</v>
+        <v>19622.19951214497</v>
       </c>
       <c r="Y20">
-        <v>19714.12128159166</v>
+        <v>19714.12128159165</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -3993,49 +3993,49 @@
         <v>16555.32910087694</v>
       </c>
       <c r="C21">
-        <v>0.8594576083804392</v>
+        <v>0.8594576083804385</v>
       </c>
       <c r="D21">
         <v>68.1188413649966</v>
       </c>
       <c r="E21">
-        <v>1.914702205336131</v>
+        <v>1.914702205336129</v>
       </c>
       <c r="F21">
         <v>120155.635511771</v>
       </c>
       <c r="G21">
-        <v>2892.581872897836</v>
+        <v>2892.581872897833</v>
       </c>
       <c r="H21">
-        <v>16496.16824296636</v>
+        <v>16496.16824296712</v>
       </c>
       <c r="I21">
-        <v>16584.34431667411</v>
+        <v>16584.34431667354</v>
       </c>
       <c r="J21">
-        <v>19215.25655344385</v>
+        <v>19215.25655344205</v>
       </c>
       <c r="K21">
-        <v>0.6694485355272864</v>
+        <v>0.6694485363455428</v>
       </c>
       <c r="L21">
-        <v>83.9259400097247</v>
+        <v>83.92594001670386</v>
       </c>
       <c r="M21">
-        <v>1.455707438251356</v>
+        <v>1.455707446439406</v>
       </c>
       <c r="N21">
-        <v>156232.5605984946</v>
+        <v>156232.5606030243</v>
       </c>
       <c r="O21">
-        <v>2292.472953715169</v>
+        <v>2292.472980523552</v>
       </c>
       <c r="P21">
-        <v>19174.36432530967</v>
+        <v>19174.36432531138</v>
       </c>
       <c r="Q21">
-        <v>19290.53669623262</v>
+        <v>19290.53669622841</v>
       </c>
       <c r="R21">
         <v>19684.46966853688</v>
@@ -4053,7 +4053,7 @@
         <v>25445.07151568992</v>
       </c>
       <c r="W21">
-        <v>785.1230283687834</v>
+        <v>785.1230283687831</v>
       </c>
       <c r="X21">
         <v>19612.21138833161</v>
@@ -4067,22 +4067,22 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>17542.33072461618</v>
+        <v>17542.33072461041</v>
       </c>
       <c r="C22">
-        <v>0.717471511962754</v>
+        <v>0.7174715199204211</v>
       </c>
       <c r="D22">
-        <v>56.8147416923111</v>
+        <v>56.81474167950066</v>
       </c>
       <c r="E22">
-        <v>1.628485966371044</v>
+        <v>1.628485996233285</v>
       </c>
       <c r="F22">
-        <v>107832.4604150094</v>
+        <v>107832.4603873226</v>
       </c>
       <c r="G22">
-        <v>2727.72406184694</v>
+        <v>2727.724083097923</v>
       </c>
       <c r="H22">
         <v>17490.54292993712</v>
@@ -4091,28 +4091,28 @@
         <v>17569.0947444605</v>
       </c>
       <c r="J22">
-        <v>20191.51375695392</v>
+        <v>20191.51375695916</v>
       </c>
       <c r="K22">
-        <v>0.4378492628676031</v>
+        <v>0.4378492641074588</v>
       </c>
       <c r="L22">
-        <v>79.39815576242793</v>
+        <v>79.39815574478263</v>
       </c>
       <c r="M22">
-        <v>1.117515729216497</v>
+        <v>1.117515716755577</v>
       </c>
       <c r="N22">
-        <v>157706.0873843299</v>
+        <v>157706.0873551322</v>
       </c>
       <c r="O22">
-        <v>1777.37109120531</v>
+        <v>1777.371095163365</v>
       </c>
       <c r="P22">
-        <v>20156.06582069859</v>
+        <v>20156.06582069601</v>
       </c>
       <c r="Q22">
-        <v>20259.79623822336</v>
+        <v>20259.79623822757</v>
       </c>
       <c r="R22">
         <v>20657.78854027863</v>
@@ -4124,19 +4124,19 @@
         <v>70.55614802364423</v>
       </c>
       <c r="U22">
-        <v>2.142210868909495</v>
+        <v>2.142210868909494</v>
       </c>
       <c r="V22">
         <v>27045.24239892658</v>
       </c>
       <c r="W22">
-        <v>748.6989344792943</v>
+        <v>748.6989344792941</v>
       </c>
       <c r="X22">
-        <v>20593.27756363063</v>
+        <v>20593.27756361093</v>
       </c>
       <c r="Y22">
-        <v>20687.92049091277</v>
+        <v>20687.9204909279</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -4147,31 +4147,31 @@
         <v>16915.33729037626</v>
       </c>
       <c r="C23">
-        <v>0.4966258334500284</v>
+        <v>0.4966258334500287</v>
       </c>
       <c r="D23">
         <v>58.22249143762959</v>
       </c>
       <c r="E23">
-        <v>0.9914131654475933</v>
+        <v>0.9914131654475938</v>
       </c>
       <c r="F23">
         <v>108412.2944644353</v>
       </c>
       <c r="G23">
-        <v>1799.485834865101</v>
+        <v>1799.485834865102</v>
       </c>
       <c r="H23">
-        <v>16864.35233985119</v>
+        <v>16864.35233985095</v>
       </c>
       <c r="I23">
-        <v>16939.25263933735</v>
+        <v>16939.25263933782</v>
       </c>
       <c r="J23">
         <v>19327.07152295009</v>
       </c>
       <c r="K23">
-        <v>0.7939016408511413</v>
+        <v>0.793901640851141</v>
       </c>
       <c r="L23">
         <v>72.37191633600979</v>
@@ -4183,31 +4183,31 @@
         <v>169109.2985172927</v>
       </c>
       <c r="O23">
-        <v>3390.881610352385</v>
+        <v>3390.881610352384</v>
       </c>
       <c r="P23">
-        <v>19290.09990417924</v>
+        <v>19290.0999041761</v>
       </c>
       <c r="Q23">
-        <v>19392.92261447349</v>
+        <v>19392.92261448062</v>
       </c>
       <c r="R23">
-        <v>19762.26603147276</v>
+        <v>19762.26603149297</v>
       </c>
       <c r="S23">
-        <v>2.537101889733839</v>
+        <v>2.537101876196809</v>
       </c>
       <c r="T23">
-        <v>83.55968062769963</v>
+        <v>83.55968067682306</v>
       </c>
       <c r="U23">
-        <v>5.307957456103405</v>
+        <v>5.307957428334054</v>
       </c>
       <c r="V23">
-        <v>33184.17556776159</v>
+        <v>33184.1755848336</v>
       </c>
       <c r="W23">
-        <v>1876.128755959704</v>
+        <v>1876.12872111965</v>
       </c>
       <c r="X23">
         <v>19688.09388473133</v>
@@ -4224,13 +4224,13 @@
         <v>17441.2706565583</v>
       </c>
       <c r="C24">
-        <v>0.7697937981425597</v>
+        <v>0.7697937981425595</v>
       </c>
       <c r="D24">
         <v>80.52172880177227</v>
       </c>
       <c r="E24">
-        <v>2.037896127693707</v>
+        <v>2.037896127693708</v>
       </c>
       <c r="F24">
         <v>113796.9849365808</v>
@@ -4239,34 +4239,34 @@
         <v>2210.921685588667</v>
       </c>
       <c r="H24">
-        <v>17370.55241072885</v>
+        <v>17370.55241071502</v>
       </c>
       <c r="I24">
-        <v>17480.06109585214</v>
+        <v>17480.06109586317</v>
       </c>
       <c r="J24">
-        <v>20342.89772746576</v>
+        <v>20342.897727463</v>
       </c>
       <c r="K24">
-        <v>0.6955580047856316</v>
+        <v>0.6955580048732102</v>
       </c>
       <c r="L24">
-        <v>91.74290761494836</v>
+        <v>91.742907625558</v>
       </c>
       <c r="M24">
-        <v>1.62987733459569</v>
+        <v>1.629877332912944</v>
       </c>
       <c r="N24">
-        <v>172590.4693052709</v>
+        <v>172590.4693159583</v>
       </c>
       <c r="O24">
-        <v>2484.881019021779</v>
+        <v>2484.881020476385</v>
       </c>
       <c r="P24">
-        <v>20297.93914032192</v>
+        <v>20297.9391403201</v>
       </c>
       <c r="Q24">
-        <v>20424.92615402678</v>
+        <v>20424.9261540306</v>
       </c>
       <c r="R24">
         <v>20848.3311339042</v>
@@ -4284,7 +4284,7 @@
         <v>33118.59618335141</v>
       </c>
       <c r="W24">
-        <v>803.8981485104664</v>
+        <v>803.8981485104669</v>
       </c>
       <c r="X24">
         <v>20757.86246300879</v>
@@ -4301,13 +4301,13 @@
         <v>17067.27777843345</v>
       </c>
       <c r="C25">
-        <v>0.410697609901009</v>
+        <v>0.4106976099010091</v>
       </c>
       <c r="D25">
         <v>56.28318057436942</v>
       </c>
       <c r="E25">
-        <v>0.9235576385332667</v>
+        <v>0.9235576385332673</v>
       </c>
       <c r="F25">
         <v>86202.5665010425</v>
@@ -4316,34 +4316,34 @@
         <v>1179.722364223213</v>
       </c>
       <c r="H25">
-        <v>17017.41490193231</v>
+        <v>17017.41490193225</v>
       </c>
       <c r="I25">
-        <v>17091.50550341694</v>
+        <v>17091.50550341737</v>
       </c>
       <c r="J25">
-        <v>19724.55028047228</v>
+        <v>19724.55028047771</v>
       </c>
       <c r="K25">
-        <v>0.3535797813278871</v>
+        <v>0.3535797812799939</v>
       </c>
       <c r="L25">
-        <v>74.23554343587145</v>
+        <v>74.23554342001827</v>
       </c>
       <c r="M25">
-        <v>0.7899383656147748</v>
+        <v>0.7899383613102218</v>
       </c>
       <c r="N25">
-        <v>167506.3973518783</v>
+        <v>167506.3973175266</v>
       </c>
       <c r="O25">
-        <v>1480.741616248583</v>
+        <v>1480.741622003101</v>
       </c>
       <c r="P25">
-        <v>19687.72671975662</v>
+        <v>19687.7267197621</v>
       </c>
       <c r="Q25">
-        <v>19791.54854317235</v>
+        <v>19791.54854315852</v>
       </c>
       <c r="R25">
         <v>20188.6922292839</v>
@@ -4375,52 +4375,52 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>16924.93227799654</v>
+        <v>16924.93227800884</v>
       </c>
       <c r="C26">
-        <v>0.9749234141346871</v>
+        <v>0.974923405010989</v>
       </c>
       <c r="D26">
-        <v>65.56687378852588</v>
+        <v>65.56687382141625</v>
       </c>
       <c r="E26">
-        <v>2.167567192009116</v>
+        <v>2.167567160015554</v>
       </c>
       <c r="F26">
-        <v>110405.0574080729</v>
+        <v>110405.0574577348</v>
       </c>
       <c r="G26">
-        <v>3096.305463696297</v>
+        <v>3096.305405815762</v>
       </c>
       <c r="H26">
-        <v>16867.22077178088</v>
+        <v>16867.2207717862</v>
       </c>
       <c r="I26">
-        <v>16952.72160297248</v>
+        <v>16952.72160296872</v>
       </c>
       <c r="J26">
-        <v>19792.90517361874</v>
+        <v>19792.90517361975</v>
       </c>
       <c r="K26">
-        <v>0.5193572025921146</v>
+        <v>0.5193572059575793</v>
       </c>
       <c r="L26">
-        <v>82.52646520714511</v>
+        <v>82.5264652035189</v>
       </c>
       <c r="M26">
-        <v>1.19686289584253</v>
+        <v>1.196862921225492</v>
       </c>
       <c r="N26">
-        <v>171400.2729140093</v>
+        <v>171400.2729101234</v>
       </c>
       <c r="O26">
-        <v>2064.038379886542</v>
+        <v>2064.038354836806</v>
       </c>
       <c r="P26">
-        <v>19751.45541452395</v>
+        <v>19751.45541452374</v>
       </c>
       <c r="Q26">
-        <v>19866.8500649968</v>
+        <v>19866.85006499716</v>
       </c>
       <c r="R26">
         <v>20294.61865756654</v>
@@ -4432,19 +4432,19 @@
         <v>86.06647112020377</v>
       </c>
       <c r="U26">
-        <v>2.792953233188238</v>
+        <v>2.792953233188237</v>
       </c>
       <c r="V26">
         <v>30915.62369076797</v>
       </c>
       <c r="W26">
-        <v>846.2936741506179</v>
+        <v>846.2936741506177</v>
       </c>
       <c r="X26">
-        <v>20218.43122527617</v>
+        <v>20218.43122524678</v>
       </c>
       <c r="Y26">
-        <v>20331.6234526081</v>
+        <v>20331.6234526293</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -4452,28 +4452,28 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>15952.03689640425</v>
+        <v>15952.0368964056</v>
       </c>
       <c r="C27">
-        <v>0.4284265659978774</v>
+        <v>0.4284265667001336</v>
       </c>
       <c r="D27">
-        <v>60.06743641389971</v>
+        <v>60.06743641883379</v>
       </c>
       <c r="E27">
-        <v>0.9793588240801032</v>
+        <v>0.9793588246042275</v>
       </c>
       <c r="F27">
-        <v>98813.3738340361</v>
+        <v>98813.37383838797</v>
       </c>
       <c r="G27">
-        <v>1318.190730618487</v>
+        <v>1318.19073334269</v>
       </c>
       <c r="H27">
-        <v>15898.42115122502</v>
+        <v>15898.42115121587</v>
       </c>
       <c r="I27">
-        <v>15980.03241203223</v>
+        <v>15980.03241203894</v>
       </c>
       <c r="J27">
         <v>18410.87320822935</v>
@@ -4485,7 +4485,7 @@
         <v>77.16491560918111</v>
       </c>
       <c r="M27">
-        <v>0.9511005434358643</v>
+        <v>0.951100543435864</v>
       </c>
       <c r="N27">
         <v>169442.7354806586</v>
@@ -4494,34 +4494,34 @@
         <v>1687.205979545628</v>
       </c>
       <c r="P27">
-        <v>18372.93047437668</v>
+        <v>18372.93047437505</v>
       </c>
       <c r="Q27">
-        <v>18479.69509075503</v>
+        <v>18479.69509075844</v>
       </c>
       <c r="R27">
-        <v>18855.5339741381</v>
+        <v>18855.53397413414</v>
       </c>
       <c r="S27">
-        <v>0.5491469136660332</v>
+        <v>0.5491469133140994</v>
       </c>
       <c r="T27">
-        <v>76.40660503579255</v>
+        <v>76.40660502270396</v>
       </c>
       <c r="U27">
-        <v>1.271198854696508</v>
+        <v>1.271198867947392</v>
       </c>
       <c r="V27">
-        <v>29911.155298108</v>
+        <v>29911.15529433059</v>
       </c>
       <c r="W27">
-        <v>405.9988596309245</v>
+        <v>405.9988624162526</v>
       </c>
       <c r="X27">
-        <v>18783.99805857523</v>
+        <v>18783.99805857374</v>
       </c>
       <c r="Y27">
-        <v>18893.40412435215</v>
+        <v>18893.40412435406</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -4538,7 +4538,7 @@
         <v>59.01744808268956</v>
       </c>
       <c r="E28">
-        <v>0.8276914735833854</v>
+        <v>0.8276914735833852</v>
       </c>
       <c r="F28">
         <v>109215.1762859281</v>
@@ -4568,7 +4568,7 @@
         <v>176927.7445441851</v>
       </c>
       <c r="O28">
-        <v>2355.895894818503</v>
+        <v>2355.895894818504</v>
       </c>
       <c r="P28">
         <v>19158.77247840882</v>
@@ -4577,22 +4577,22 @@
         <v>19274.48111076539</v>
       </c>
       <c r="R28">
-        <v>19710.67322171734</v>
+        <v>19710.67322173374</v>
       </c>
       <c r="S28">
-        <v>1.569177837430636</v>
+        <v>1.569177839224414</v>
       </c>
       <c r="T28">
-        <v>81.95178881021729</v>
+        <v>81.95178884842694</v>
       </c>
       <c r="U28">
-        <v>3.317831918367705</v>
+        <v>3.317831939077377</v>
       </c>
       <c r="V28">
-        <v>30308.0647064941</v>
+        <v>30308.0647208399</v>
       </c>
       <c r="W28">
-        <v>1076.790738284582</v>
+        <v>1076.790754620372</v>
       </c>
       <c r="X28">
         <v>19635.61396363844</v>
@@ -4621,7 +4621,7 @@
         <v>113071.9673626608</v>
       </c>
       <c r="G29">
-        <v>3225.699118007774</v>
+        <v>3225.699118007775</v>
       </c>
       <c r="H29">
         <v>16613.66504126001</v>
@@ -4648,22 +4648,22 @@
         <v>2266.699598051301</v>
       </c>
       <c r="P29">
-        <v>19398.99344745198</v>
+        <v>19398.99344743953</v>
       </c>
       <c r="Q29">
-        <v>19500.78596570974</v>
+        <v>19500.78596574113</v>
       </c>
       <c r="R29">
         <v>19931.55439752997</v>
       </c>
       <c r="S29">
-        <v>1.797364256472763</v>
+        <v>1.797364256472762</v>
       </c>
       <c r="T29">
         <v>77.70836707590134</v>
       </c>
       <c r="U29">
-        <v>3.511617803172342</v>
+        <v>3.51161780317234</v>
       </c>
       <c r="V29">
         <v>33322.13525361002</v>
@@ -4672,10 +4672,10 @@
         <v>1496.466328832394</v>
       </c>
       <c r="X29">
-        <v>19862.53444483215</v>
+        <v>19862.534444836</v>
       </c>
       <c r="Y29">
-        <v>19959.11296866096</v>
+        <v>19959.11296865797</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -4707,28 +4707,28 @@
         <v>17390.31537951156</v>
       </c>
       <c r="J30">
-        <v>20062.93412339752</v>
+        <v>20062.93412339943</v>
       </c>
       <c r="K30">
-        <v>1.029094943593424</v>
+        <v>1.029094942228492</v>
       </c>
       <c r="L30">
-        <v>82.29914250808046</v>
+        <v>82.29914250175729</v>
       </c>
       <c r="M30">
-        <v>2.368874924790092</v>
+        <v>2.368874923264537</v>
       </c>
       <c r="N30">
-        <v>174222.0263905945</v>
+        <v>174222.0263822166</v>
       </c>
       <c r="O30">
-        <v>4159.577000001326</v>
+        <v>4159.577000914162</v>
       </c>
       <c r="P30">
-        <v>20023.99613877265</v>
+        <v>20023.99613877598</v>
       </c>
       <c r="Q30">
-        <v>20135.74264704169</v>
+        <v>20135.74264703678</v>
       </c>
       <c r="R30">
         <v>20544.17776447825</v>
@@ -4740,7 +4740,7 @@
         <v>78.06771506396159</v>
       </c>
       <c r="U30">
-        <v>1.854733523400301</v>
+        <v>1.8547335234003</v>
       </c>
       <c r="V30">
         <v>28742.65146668565</v>
@@ -4749,10 +4749,10 @@
         <v>548.6600394580445</v>
       </c>
       <c r="X30">
-        <v>20472.0022605115</v>
+        <v>20472.00226051334</v>
       </c>
       <c r="Y30">
-        <v>20584.09470367285</v>
+        <v>20584.09470367063</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -4763,19 +4763,19 @@
         <v>17388.46572714448</v>
       </c>
       <c r="C31">
-        <v>1.004991550139928</v>
+        <v>1.004991550139929</v>
       </c>
       <c r="D31">
         <v>61.74056453346549</v>
       </c>
       <c r="E31">
-        <v>2.2761192304003</v>
+        <v>2.276119230400302</v>
       </c>
       <c r="F31">
         <v>110524.3442396163</v>
       </c>
       <c r="G31">
-        <v>3492.27848793511</v>
+        <v>3492.278487935114</v>
       </c>
       <c r="H31">
         <v>17333.71038914628</v>
@@ -4787,43 +4787,43 @@
         <v>20291.50738789869</v>
       </c>
       <c r="K31">
-        <v>0.5259396037921381</v>
+        <v>0.525939603792138</v>
       </c>
       <c r="L31">
         <v>78.71219524007785</v>
       </c>
       <c r="M31">
-        <v>1.136382992356044</v>
+        <v>1.136382992356043</v>
       </c>
       <c r="N31">
         <v>170434.8402585907</v>
       </c>
       <c r="O31">
-        <v>2098.610393265116</v>
+        <v>2098.610393265115</v>
       </c>
       <c r="P31">
-        <v>20252.59839222937</v>
+        <v>20252.59839222898</v>
       </c>
       <c r="Q31">
-        <v>20361.996642319</v>
+        <v>20361.9966423213</v>
       </c>
       <c r="R31">
-        <v>20795.91907019531</v>
+        <v>20795.91907019878</v>
       </c>
       <c r="S31">
-        <v>0.8910905778240835</v>
+        <v>0.8910905792066481</v>
       </c>
       <c r="T31">
-        <v>79.10851424303574</v>
+        <v>79.10851425526275</v>
       </c>
       <c r="U31">
-        <v>2.070476732501867</v>
+        <v>2.070476723842288</v>
       </c>
       <c r="V31">
-        <v>31722.00637769554</v>
+        <v>31722.00638055101</v>
       </c>
       <c r="W31">
-        <v>678.4414895441784</v>
+        <v>678.4414895716531</v>
       </c>
       <c r="X31">
         <v>20725.80704483729</v>
@@ -4855,28 +4855,28 @@
         <v>1821.746783974262</v>
       </c>
       <c r="H32">
-        <v>16587.91648500438</v>
+        <v>16587.91648500091</v>
       </c>
       <c r="I32">
-        <v>16672.0281984358</v>
+        <v>16672.02819843813</v>
       </c>
       <c r="J32">
-        <v>19204.67454134113</v>
+        <v>19204.674541341</v>
       </c>
       <c r="K32">
-        <v>0.5046795047856304</v>
+        <v>0.5046795048786452</v>
       </c>
       <c r="L32">
-        <v>78.14763662938712</v>
+        <v>78.14763662894865</v>
       </c>
       <c r="M32">
-        <v>1.171551448450065</v>
+        <v>1.171551448925678</v>
       </c>
       <c r="N32">
-        <v>171018.6758580028</v>
+        <v>171018.6758610981</v>
       </c>
       <c r="O32">
-        <v>2094.223048480638</v>
+        <v>2094.2230615465</v>
       </c>
       <c r="P32">
         <v>19167.53188844932</v>
@@ -4885,22 +4885,22 @@
         <v>19274.4134871124</v>
       </c>
       <c r="R32">
-        <v>19659.44995867452</v>
+        <v>19659.44995867049</v>
       </c>
       <c r="S32">
-        <v>2.051031261468642</v>
+        <v>2.051031263230751</v>
       </c>
       <c r="T32">
-        <v>83.67208612592354</v>
+        <v>83.67208611065938</v>
       </c>
       <c r="U32">
-        <v>4.472560277638371</v>
+        <v>4.472560268236938</v>
       </c>
       <c r="V32">
-        <v>30853.04512692606</v>
+        <v>30853.04512516865</v>
       </c>
       <c r="W32">
-        <v>1420.488395722036</v>
+        <v>1420.488401460099</v>
       </c>
       <c r="X32">
         <v>19584.35705449546</v>
@@ -5052,7 +5052,7 @@
         <v>16773.43400356441</v>
       </c>
       <c r="C4">
-        <v>0.465186492669253</v>
+        <v>0.4651864926692529</v>
       </c>
       <c r="D4">
         <v>61.10188435449536</v>
@@ -5091,10 +5091,10 @@
         <v>1862.90883017895</v>
       </c>
       <c r="P4">
-        <v>19444.71612411053</v>
+        <v>19444.71612411058</v>
       </c>
       <c r="Q4">
-        <v>19553.80708315797</v>
+        <v>19553.80708315887</v>
       </c>
       <c r="R4">
         <v>19963.43444809082</v>
@@ -5106,7 +5106,7 @@
         <v>76.14287636306778</v>
       </c>
       <c r="U4">
-        <v>3.558851758656536</v>
+        <v>3.558851758656537</v>
       </c>
       <c r="V4">
         <v>26459.67755944785</v>
@@ -5115,10 +5115,10 @@
         <v>1098.02986754032</v>
       </c>
       <c r="X4">
-        <v>19893.51093003244</v>
+        <v>19893.51093002659</v>
       </c>
       <c r="Y4">
-        <v>19999.3362703276</v>
+        <v>19999.33627033195</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -5129,7 +5129,7 @@
         <v>17471.97982612186</v>
       </c>
       <c r="C5">
-        <v>0.608162356282008</v>
+        <v>0.6081623562820078</v>
       </c>
       <c r="D5">
         <v>61.33192196604495</v>
@@ -5141,7 +5141,7 @@
         <v>80150.17636263858</v>
       </c>
       <c r="G5">
-        <v>1474.920932381607</v>
+        <v>1474.920932381606</v>
       </c>
       <c r="H5">
         <v>17418.5703169043</v>
@@ -5159,7 +5159,7 @@
         <v>76.39635464391328</v>
       </c>
       <c r="M5">
-        <v>1.677571129352317</v>
+        <v>1.677571129352316</v>
       </c>
       <c r="N5">
         <v>139483.9417795847</v>
@@ -5174,22 +5174,22 @@
         <v>20458.89036812884</v>
       </c>
       <c r="R5">
-        <v>20895.64950772366</v>
+        <v>20895.64950775507</v>
       </c>
       <c r="S5">
-        <v>2.900050203888015</v>
+        <v>2.900050200576602</v>
       </c>
       <c r="T5">
-        <v>80.0177043765467</v>
+        <v>80.01770443961605</v>
       </c>
       <c r="U5">
-        <v>6.116194029721256</v>
+        <v>6.116194034901391</v>
       </c>
       <c r="V5">
-        <v>26253.76444799885</v>
+        <v>26253.76446699949</v>
       </c>
       <c r="W5">
-        <v>1824.397812745987</v>
+        <v>1824.397808299652</v>
       </c>
       <c r="X5">
         <v>20825.77705071219</v>
@@ -5206,7 +5206,7 @@
         <v>17034.98900076407</v>
       </c>
       <c r="C6">
-        <v>0.7064483216564412</v>
+        <v>0.7064483216564411</v>
       </c>
       <c r="D6">
         <v>55.7947555005692</v>
@@ -5218,7 +5218,7 @@
         <v>81166.95481265418</v>
       </c>
       <c r="G6">
-        <v>1986.046355825528</v>
+        <v>1986.046355825527</v>
       </c>
       <c r="H6">
         <v>16983.67913032003</v>
@@ -5230,19 +5230,19 @@
         <v>19976.57549164416</v>
       </c>
       <c r="K6">
-        <v>0.727804790250724</v>
+        <v>0.7278047902507245</v>
       </c>
       <c r="L6">
         <v>79.47666040085466</v>
       </c>
       <c r="M6">
-        <v>1.795130203242232</v>
+        <v>1.795130203242233</v>
       </c>
       <c r="N6">
         <v>152129.170560774</v>
       </c>
       <c r="O6">
-        <v>2728.163312654154</v>
+        <v>2728.163312654156</v>
       </c>
       <c r="P6">
         <v>19936.94513843493</v>
@@ -5254,13 +5254,13 @@
         <v>20495.42894362309</v>
       </c>
       <c r="S6">
-        <v>2.924846707725024</v>
+        <v>2.924846707725025</v>
       </c>
       <c r="T6">
         <v>82.42363421361414</v>
       </c>
       <c r="U6">
-        <v>6.260777348027869</v>
+        <v>6.26077734802787</v>
       </c>
       <c r="V6">
         <v>27162.55413505082</v>
@@ -5269,10 +5269,10 @@
         <v>1871.023396522651</v>
       </c>
       <c r="X6">
-        <v>20422.68990949333</v>
+        <v>20422.68990948741</v>
       </c>
       <c r="Y6">
-        <v>20527.98616686451</v>
+        <v>20527.98616686844</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -5280,22 +5280,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16765.16830279249</v>
+        <v>16765.16830280045</v>
       </c>
       <c r="C7">
-        <v>0.7938276413934691</v>
+        <v>0.793827650030923</v>
       </c>
       <c r="D7">
-        <v>66.32330731143364</v>
+        <v>66.3233073358245</v>
       </c>
       <c r="E7">
-        <v>1.770926085297447</v>
+        <v>1.770926127495911</v>
       </c>
       <c r="F7">
-        <v>83081.56420470562</v>
+        <v>83081.56422464564</v>
       </c>
       <c r="G7">
-        <v>1882.105019488445</v>
+        <v>1882.105031389485</v>
       </c>
       <c r="H7">
         <v>16707.66134887551</v>
@@ -5307,7 +5307,7 @@
         <v>19779.53698011685</v>
       </c>
       <c r="K7">
-        <v>0.5848366339163555</v>
+        <v>0.5848366339163554</v>
       </c>
       <c r="L7">
         <v>86.05864052400096</v>
@@ -5337,7 +5337,7 @@
         <v>89.91444696131656</v>
       </c>
       <c r="U7">
-        <v>3.752594834483101</v>
+        <v>3.752594834483103</v>
       </c>
       <c r="V7">
         <v>28450.45266089008</v>
@@ -5357,46 +5357,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16694.63066491409</v>
+        <v>16694.63066489018</v>
       </c>
       <c r="C8">
-        <v>1.578708848328037</v>
+        <v>1.578708870873245</v>
       </c>
       <c r="D8">
-        <v>52.30104571138543</v>
+        <v>52.30104565942101</v>
       </c>
       <c r="E8">
-        <v>3.126012943099381</v>
+        <v>3.126012927790544</v>
       </c>
       <c r="F8">
-        <v>83385.7662728971</v>
+        <v>83385.76619443168</v>
       </c>
       <c r="G8">
-        <v>4683.667630160542</v>
+        <v>4683.667858930084</v>
       </c>
       <c r="H8">
-        <v>16648.90164763196</v>
+        <v>16648.9016476322</v>
       </c>
       <c r="I8">
-        <v>16715.73157267687</v>
+        <v>16715.73157267672</v>
       </c>
       <c r="J8">
-        <v>19310.88239230969</v>
+        <v>19310.88239230623</v>
       </c>
       <c r="K8">
-        <v>0.4867987006293164</v>
+        <v>0.4867987016512014</v>
       </c>
       <c r="L8">
-        <v>72.28154943588241</v>
+        <v>72.28154944662138</v>
       </c>
       <c r="M8">
-        <v>1.134448666454191</v>
+        <v>1.134448665619495</v>
       </c>
       <c r="N8">
-        <v>147911.4080671857</v>
+        <v>147911.4080860928</v>
       </c>
       <c r="O8">
-        <v>1896.912500397368</v>
+        <v>1896.912464636042</v>
       </c>
       <c r="P8">
         <v>19275.69726875106</v>
@@ -5405,22 +5405,22 @@
         <v>19374.87164196972</v>
       </c>
       <c r="R8">
-        <v>19779.73531590539</v>
+        <v>19779.73531590957</v>
       </c>
       <c r="S8">
-        <v>1.083620943073875</v>
+        <v>1.083620941475951</v>
       </c>
       <c r="T8">
-        <v>73.30360601083171</v>
+        <v>73.3036060254914</v>
       </c>
       <c r="U8">
-        <v>2.574800208983638</v>
+        <v>2.574800156553148</v>
       </c>
       <c r="V8">
-        <v>26782.55821618458</v>
+        <v>26782.55821887255</v>
       </c>
       <c r="W8">
-        <v>766.7846070431372</v>
+        <v>766.784616004684</v>
       </c>
       <c r="X8">
         <v>19715.22440822183</v>
@@ -5443,13 +5443,13 @@
         <v>56.8812769507735</v>
       </c>
       <c r="E9">
-        <v>1.366042559892419</v>
+        <v>1.36604255989242</v>
       </c>
       <c r="F9">
         <v>56336.23006627508</v>
       </c>
       <c r="G9">
-        <v>1091.901798921802</v>
+        <v>1091.901798921801</v>
       </c>
       <c r="H9">
         <v>16716.14521026253</v>
@@ -5461,7 +5461,7 @@
         <v>19401.31710422474</v>
       </c>
       <c r="K9">
-        <v>0.827034035097077</v>
+        <v>0.8270340350970768</v>
       </c>
       <c r="L9">
         <v>76.42948318796367</v>
@@ -5476,34 +5476,34 @@
         <v>2538.034531035775</v>
       </c>
       <c r="P9">
-        <v>19366.35592030067</v>
+        <v>19366.35592030015</v>
       </c>
       <c r="Q9">
-        <v>19468.42843325947</v>
+        <v>19468.42843326201</v>
       </c>
       <c r="R9">
-        <v>19871.95087019723</v>
+        <v>19871.95087021619</v>
       </c>
       <c r="S9">
-        <v>2.380763168592186</v>
+        <v>2.380763213899415</v>
       </c>
       <c r="T9">
-        <v>76.16051374333767</v>
+        <v>76.16051380266964</v>
       </c>
       <c r="U9">
-        <v>5.52035265298305</v>
+        <v>5.52035275318454</v>
       </c>
       <c r="V9">
-        <v>21162.14096189518</v>
+        <v>21162.14097825735</v>
       </c>
       <c r="W9">
-        <v>1281.879043682955</v>
+        <v>1281.879090358158</v>
       </c>
       <c r="X9">
-        <v>19802.24768314965</v>
+        <v>19802.24768314616</v>
       </c>
       <c r="Y9">
-        <v>19907.43918117599</v>
+        <v>19907.43918117837</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -5514,19 +5514,19 @@
         <v>16975.74906495039</v>
       </c>
       <c r="C10">
-        <v>1.927259362524353</v>
+        <v>1.927259362524351</v>
       </c>
       <c r="D10">
         <v>64.87521902038579</v>
       </c>
       <c r="E10">
-        <v>4.030175838051378</v>
+        <v>4.030175838051377</v>
       </c>
       <c r="F10">
         <v>62385.98284416879</v>
       </c>
       <c r="G10">
-        <v>3836.837231124069</v>
+        <v>3836.837231124066</v>
       </c>
       <c r="H10">
         <v>16921.34260134018</v>
@@ -5553,34 +5553,34 @@
         <v>2565.383938948885</v>
       </c>
       <c r="P10">
-        <v>20084.05762509842</v>
+        <v>20084.05762510509</v>
       </c>
       <c r="Q10">
-        <v>20198.04342246405</v>
+        <v>20198.0434224525</v>
       </c>
       <c r="R10">
-        <v>20670.3549777133</v>
+        <v>20670.35497771029</v>
       </c>
       <c r="S10">
-        <v>1.020914024987688</v>
+        <v>1.0209140294572</v>
       </c>
       <c r="T10">
-        <v>71.36249543727622</v>
+        <v>71.36249542814069</v>
       </c>
       <c r="U10">
-        <v>2.26271899694413</v>
+        <v>2.262718996354469</v>
       </c>
       <c r="V10">
-        <v>19561.43900004869</v>
+        <v>19561.43899875425</v>
       </c>
       <c r="W10">
-        <v>520.2454296692545</v>
+        <v>520.2454265868212</v>
       </c>
       <c r="X10">
-        <v>20603.61526831626</v>
+        <v>20603.61526832192</v>
       </c>
       <c r="Y10">
-        <v>20707.28773031694</v>
+        <v>20707.28773031297</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -5591,43 +5591,43 @@
         <v>16986.59112198546</v>
       </c>
       <c r="C11">
-        <v>1.070505989606005</v>
+        <v>1.070505989606004</v>
       </c>
       <c r="D11">
         <v>42.91734438638947</v>
       </c>
       <c r="E11">
-        <v>2.116696420537227</v>
+        <v>2.116696420537226</v>
       </c>
       <c r="F11">
         <v>54865.49827445699</v>
       </c>
       <c r="G11">
-        <v>2516.208311183266</v>
+        <v>2516.208311183264</v>
       </c>
       <c r="H11">
-        <v>16948.24121357104</v>
+        <v>16948.24121356817</v>
       </c>
       <c r="I11">
-        <v>17006.11114239639</v>
+        <v>17006.11114239855</v>
       </c>
       <c r="J11">
-        <v>19516.79123063113</v>
+        <v>19516.79123063754</v>
       </c>
       <c r="K11">
-        <v>0.4119320687237197</v>
+        <v>0.4119320676067439</v>
       </c>
       <c r="L11">
-        <v>66.37406962480678</v>
+        <v>66.37406960450085</v>
       </c>
       <c r="M11">
-        <v>0.9672948375661581</v>
+        <v>0.9672948407621642</v>
       </c>
       <c r="N11">
-        <v>112548.9345624878</v>
+        <v>112548.934536903</v>
       </c>
       <c r="O11">
-        <v>1345.415359718418</v>
+        <v>1345.415353173353</v>
       </c>
       <c r="P11">
         <v>19483.17797824485</v>
@@ -5645,7 +5645,7 @@
         <v>58.58132454072231</v>
       </c>
       <c r="U11">
-        <v>4.283895241131718</v>
+        <v>4.283895241131719</v>
       </c>
       <c r="V11">
         <v>19126.70531466269</v>
@@ -5665,22 +5665,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16092.89756546251</v>
+        <v>16092.89756546691</v>
       </c>
       <c r="C12">
-        <v>0.409426149219242</v>
+        <v>0.4094261470969647</v>
       </c>
       <c r="D12">
-        <v>45.19106838665092</v>
+        <v>45.19106840257292</v>
       </c>
       <c r="E12">
-        <v>1.049523291008233</v>
+        <v>1.049523282123811</v>
       </c>
       <c r="F12">
-        <v>56282.27946015356</v>
+        <v>56282.27947343769</v>
       </c>
       <c r="G12">
-        <v>1054.291516852018</v>
+        <v>1054.291514275597</v>
       </c>
       <c r="H12">
         <v>16051.03642143902</v>
@@ -5704,7 +5704,7 @@
         <v>120046.6942729968</v>
       </c>
       <c r="O12">
-        <v>1138.081604228681</v>
+        <v>1138.08160422868</v>
       </c>
       <c r="P12">
         <v>18389.98256554571</v>
@@ -5716,25 +5716,25 @@
         <v>18850.86748528386</v>
       </c>
       <c r="S12">
-        <v>2.799513317460887</v>
+        <v>2.799513317460889</v>
       </c>
       <c r="T12">
         <v>71.50439527487141</v>
       </c>
       <c r="U12">
-        <v>5.339387575682553</v>
+        <v>5.339387575682555</v>
       </c>
       <c r="V12">
         <v>23519.41865456741</v>
       </c>
       <c r="W12">
-        <v>1714.92409275347</v>
+        <v>1714.924092753471</v>
       </c>
       <c r="X12">
-        <v>18788.29506952075</v>
+        <v>18788.29506951939</v>
       </c>
       <c r="Y12">
-        <v>18878.62613274386</v>
+        <v>18878.62613274436</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -5742,52 +5742,52 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17134.04483120739</v>
+        <v>17134.04483121296</v>
       </c>
       <c r="C13">
-        <v>1.090098994409004</v>
+        <v>1.090098989759628</v>
       </c>
       <c r="D13">
-        <v>53.40624123476057</v>
+        <v>53.40624124598842</v>
       </c>
       <c r="E13">
-        <v>2.16837537644723</v>
+        <v>2.168375395822448</v>
       </c>
       <c r="F13">
-        <v>106518.8596150729</v>
+        <v>106518.8596399678</v>
       </c>
       <c r="G13">
-        <v>4053.781006579716</v>
+        <v>4053.780961562629</v>
       </c>
       <c r="H13">
-        <v>17087.01723846003</v>
+        <v>17087.0172384609</v>
       </c>
       <c r="I13">
-        <v>17155.10910076028</v>
+        <v>17155.10910075972</v>
       </c>
       <c r="J13">
-        <v>20080.40715956843</v>
+        <v>20080.4071595582</v>
       </c>
       <c r="K13">
-        <v>0.6413643889467753</v>
+        <v>0.6413643876786801</v>
       </c>
       <c r="L13">
-        <v>71.60264081154644</v>
+        <v>71.60264084241804</v>
       </c>
       <c r="M13">
-        <v>1.4708767278585</v>
+        <v>1.470876721519603</v>
       </c>
       <c r="N13">
-        <v>156958.4393187148</v>
+        <v>156958.4393736921</v>
       </c>
       <c r="O13">
-        <v>2650.193474577002</v>
+        <v>2650.193460068174</v>
       </c>
       <c r="P13">
-        <v>20044.11517202769</v>
+        <v>20044.11517202282</v>
       </c>
       <c r="Q13">
-        <v>20144.95610589411</v>
+        <v>20144.95610590613</v>
       </c>
       <c r="R13">
         <v>20590.81558085033</v>
@@ -5799,7 +5799,7 @@
         <v>72.59637117963793</v>
       </c>
       <c r="U13">
-        <v>2.850712210409588</v>
+        <v>2.850712210409589</v>
       </c>
       <c r="V13">
         <v>28112.4386066137</v>
@@ -5828,13 +5828,13 @@
         <v>49.07071768220815</v>
       </c>
       <c r="E14">
-        <v>0.5846445819084429</v>
+        <v>0.584644581908443</v>
       </c>
       <c r="F14">
         <v>53968.84155028136</v>
       </c>
       <c r="G14">
-        <v>488.9174973950286</v>
+        <v>488.9174973950285</v>
       </c>
       <c r="H14">
         <v>16900.28171843735</v>
@@ -5843,22 +5843,22 @@
         <v>16970.82965755795</v>
       </c>
       <c r="J14">
-        <v>19706.68232662055</v>
+        <v>19706.68232661506</v>
       </c>
       <c r="K14">
-        <v>0.5887825154128702</v>
+        <v>0.5887825155835393</v>
       </c>
       <c r="L14">
-        <v>73.51749609879411</v>
+        <v>73.51749611267816</v>
       </c>
       <c r="M14">
-        <v>1.221688686347905</v>
+        <v>1.221688696445462</v>
       </c>
       <c r="N14">
-        <v>119516.4601482956</v>
+        <v>119516.4601680424</v>
       </c>
       <c r="O14">
-        <v>1754.943027763775</v>
+        <v>1754.943018944326</v>
       </c>
       <c r="P14">
         <v>19670.75967874967</v>
@@ -5870,25 +5870,25 @@
         <v>20191.61788283632</v>
       </c>
       <c r="S14">
-        <v>1.825322695625533</v>
+        <v>1.825322695625532</v>
       </c>
       <c r="T14">
         <v>72.54256432724218</v>
       </c>
       <c r="U14">
-        <v>4.05438392176123</v>
+        <v>4.054383921761228</v>
       </c>
       <c r="V14">
         <v>21156.7147654766</v>
       </c>
       <c r="W14">
-        <v>998.7135256030342</v>
+        <v>998.7135256030339</v>
       </c>
       <c r="X14">
-        <v>20127.55432711763</v>
+        <v>20127.55432711917</v>
       </c>
       <c r="Y14">
-        <v>20224.04901861689</v>
+        <v>20224.04901861573</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -5899,19 +5899,19 @@
         <v>17097.7572051779</v>
       </c>
       <c r="C15">
-        <v>0.7569945417826685</v>
+        <v>0.7569945417826688</v>
       </c>
       <c r="D15">
         <v>62.12195928498568</v>
       </c>
       <c r="E15">
-        <v>1.789040804530497</v>
+        <v>1.789040804530498</v>
       </c>
       <c r="F15">
         <v>100368.7830796965</v>
       </c>
       <c r="G15">
-        <v>2424.374229181012</v>
+        <v>2424.374229181014</v>
       </c>
       <c r="H15">
         <v>17042.07867935743</v>
@@ -5923,7 +5923,7 @@
         <v>20230.25927906075</v>
       </c>
       <c r="K15">
-        <v>0.838005711617406</v>
+        <v>0.8380057116174061</v>
       </c>
       <c r="L15">
         <v>82.00428369931946</v>
@@ -5935,37 +5935,37 @@
         <v>162161.6303557308</v>
       </c>
       <c r="O15">
-        <v>3151.485648103461</v>
+        <v>3151.485648103462</v>
       </c>
       <c r="P15">
-        <v>20188.49492847643</v>
+        <v>20188.49492847743</v>
       </c>
       <c r="Q15">
-        <v>20305.15493149259</v>
+        <v>20305.15493149003</v>
       </c>
       <c r="R15">
-        <v>20762.82778355463</v>
+        <v>20762.82778355702</v>
       </c>
       <c r="S15">
-        <v>1.105007002148184</v>
+        <v>1.10500700489368</v>
       </c>
       <c r="T15">
-        <v>78.24766898873706</v>
+        <v>78.24766900496677</v>
       </c>
       <c r="U15">
-        <v>2.826272863352242</v>
+        <v>2.826272923134081</v>
       </c>
       <c r="V15">
-        <v>28464.9547250985</v>
+        <v>28464.95472574502</v>
       </c>
       <c r="W15">
-        <v>799.314978449587</v>
+        <v>799.3149699062121</v>
       </c>
       <c r="X15">
-        <v>20691.32781213776</v>
+        <v>20691.32781213422</v>
       </c>
       <c r="Y15">
-        <v>20802.29046604104</v>
+        <v>20802.29046604562</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -5976,7 +5976,7 @@
         <v>16167.025255146</v>
       </c>
       <c r="C16">
-        <v>0.479616998271875</v>
+        <v>0.4796169982718749</v>
       </c>
       <c r="D16">
         <v>55.7307774727261</v>
@@ -5988,19 +5988,19 @@
         <v>91730.85304935867</v>
       </c>
       <c r="G16">
-        <v>1474.217311416311</v>
+        <v>1474.21731141631</v>
       </c>
       <c r="H16">
-        <v>16116.81065648668</v>
+        <v>16116.81065648323</v>
       </c>
       <c r="I16">
-        <v>16193.33745248857</v>
+        <v>16193.33745249184</v>
       </c>
       <c r="J16">
         <v>18831.1950318792</v>
       </c>
       <c r="K16">
-        <v>0.7718790225863758</v>
+        <v>0.7718790225863756</v>
       </c>
       <c r="L16">
         <v>78.07885979726838</v>
@@ -6021,28 +6021,28 @@
         <v>18900.32360342275</v>
       </c>
       <c r="R16">
-        <v>19307.28804469484</v>
+        <v>19307.28804469455</v>
       </c>
       <c r="S16">
-        <v>1.164054319459525</v>
+        <v>1.164054317421622</v>
       </c>
       <c r="T16">
-        <v>72.05239781813572</v>
+        <v>72.05239781429728</v>
       </c>
       <c r="U16">
-        <v>2.508547923378047</v>
+        <v>2.508547983422597</v>
       </c>
       <c r="V16">
-        <v>24908.9667109722</v>
+        <v>24908.96671161008</v>
       </c>
       <c r="W16">
-        <v>740.3890920181576</v>
+        <v>740.3890903503474</v>
       </c>
       <c r="X16">
-        <v>19239.6345163661</v>
+        <v>19239.63451634436</v>
       </c>
       <c r="Y16">
-        <v>19344.3985344707</v>
+        <v>19344.39853449093</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -6053,19 +6053,19 @@
         <v>16819.39529403329</v>
       </c>
       <c r="C17">
-        <v>0.2637837576334567</v>
+        <v>0.2637837576321971</v>
       </c>
       <c r="D17">
-        <v>51.02062542161578</v>
+        <v>51.02062542160773</v>
       </c>
       <c r="E17">
-        <v>0.4971776392055547</v>
+        <v>0.4971776392022901</v>
       </c>
       <c r="F17">
-        <v>103622.4844600485</v>
+        <v>103622.4844600308</v>
       </c>
       <c r="G17">
-        <v>1052.896762749012</v>
+        <v>1052.89676274658</v>
       </c>
       <c r="H17">
         <v>16774.70652269137</v>
@@ -6074,28 +6074,28 @@
         <v>16839.64082824784</v>
       </c>
       <c r="J17">
-        <v>19657.43081798427</v>
+        <v>19657.43081797615</v>
       </c>
       <c r="K17">
-        <v>0.6355363845192965</v>
+        <v>0.635536380965113</v>
       </c>
       <c r="L17">
-        <v>70.47221918791223</v>
+        <v>70.47221920963629</v>
       </c>
       <c r="M17">
-        <v>1.326271014819269</v>
+        <v>1.32627102244437</v>
       </c>
       <c r="N17">
-        <v>151021.1844818842</v>
+        <v>151021.1845177361</v>
       </c>
       <c r="O17">
-        <v>2475.42120397234</v>
+        <v>2475.421223510997</v>
       </c>
       <c r="P17">
-        <v>19621.89937893062</v>
+        <v>19621.89937893498</v>
       </c>
       <c r="Q17">
-        <v>19721.27367295234</v>
+        <v>19721.27367294471</v>
       </c>
       <c r="R17">
         <v>20151.40313287058</v>
@@ -6107,13 +6107,13 @@
         <v>69.13949950069585</v>
       </c>
       <c r="U17">
-        <v>2.935269797278306</v>
+        <v>2.935269797278305</v>
       </c>
       <c r="V17">
         <v>26596.7495499125</v>
       </c>
       <c r="W17">
-        <v>950.4755600837516</v>
+        <v>950.4755600837519</v>
       </c>
       <c r="X17">
         <v>20089.87346179801</v>
@@ -6142,7 +6142,7 @@
         <v>98739.11962429351</v>
       </c>
       <c r="G18">
-        <v>2025.071162041137</v>
+        <v>2025.071162041138</v>
       </c>
       <c r="H18">
         <v>16301.13560842989</v>
@@ -6160,7 +6160,7 @@
         <v>67.0945489483119</v>
       </c>
       <c r="M18">
-        <v>1.408429145659786</v>
+        <v>1.408429145659787</v>
       </c>
       <c r="N18">
         <v>158562.7262264583</v>
@@ -6169,28 +6169,28 @@
         <v>2658.511643245728</v>
       </c>
       <c r="P18">
-        <v>18755.73245408431</v>
+        <v>18755.73245408385</v>
       </c>
       <c r="Q18">
-        <v>18849.3511364624</v>
+        <v>18849.35113646392</v>
       </c>
       <c r="R18">
-        <v>19235.6836225966</v>
+        <v>19235.68362258069</v>
       </c>
       <c r="S18">
-        <v>1.576199183870188</v>
+        <v>1.576199169781669</v>
       </c>
       <c r="T18">
-        <v>65.89170502388407</v>
+        <v>65.89170498352128</v>
       </c>
       <c r="U18">
-        <v>3.422263443836863</v>
+        <v>3.422263425068356</v>
       </c>
       <c r="V18">
-        <v>28082.78778616778</v>
+        <v>28082.78777070607</v>
       </c>
       <c r="W18">
-        <v>1252.000373976903</v>
+        <v>1252.000336239797</v>
       </c>
       <c r="X18">
         <v>19175.45380497507</v>
@@ -6207,7 +6207,7 @@
         <v>16607.93668684242</v>
       </c>
       <c r="C19">
-        <v>0.7920433476257588</v>
+        <v>0.7920433476257591</v>
       </c>
       <c r="D19">
         <v>66.39664187958273</v>
@@ -6219,37 +6219,37 @@
         <v>60521.51051734952</v>
       </c>
       <c r="G19">
-        <v>1319.861134607996</v>
+        <v>1319.861134607997</v>
       </c>
       <c r="H19">
-        <v>16549.0160308816</v>
+        <v>16549.01603089138</v>
       </c>
       <c r="I19">
-        <v>16638.11141606022</v>
+        <v>16638.11141605202</v>
       </c>
       <c r="J19">
-        <v>19279.05362425049</v>
+        <v>19279.05362424694</v>
       </c>
       <c r="K19">
-        <v>0.6237720116075102</v>
+        <v>0.6237720142413625</v>
       </c>
       <c r="L19">
-        <v>83.26113919789566</v>
+        <v>83.26113920791876</v>
       </c>
       <c r="M19">
-        <v>1.467613218384184</v>
+        <v>1.467613238989289</v>
       </c>
       <c r="N19">
-        <v>113079.1718536001</v>
+        <v>113079.1718701909</v>
       </c>
       <c r="O19">
-        <v>1610.462141745711</v>
+        <v>1610.462137796241</v>
       </c>
       <c r="P19">
-        <v>19238.0897876209</v>
+        <v>19238.08978762597</v>
       </c>
       <c r="Q19">
-        <v>19354.29368135594</v>
+        <v>19354.2936813437</v>
       </c>
       <c r="R19">
         <v>19754.8770874215</v>
@@ -6261,19 +6261,19 @@
         <v>80.24809036502391</v>
       </c>
       <c r="U19">
-        <v>2.492372975739162</v>
+        <v>2.492372975739161</v>
       </c>
       <c r="V19">
         <v>20312.94018260087</v>
       </c>
       <c r="W19">
-        <v>510.7653571851465</v>
+        <v>510.7653571851464</v>
       </c>
       <c r="X19">
-        <v>19681.88659346323</v>
+        <v>19681.88659345646</v>
       </c>
       <c r="Y19">
-        <v>19792.39626474201</v>
+        <v>19792.39626474856</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -6281,22 +6281,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16217.48740076991</v>
+        <v>16217.48740074883</v>
       </c>
       <c r="C20">
-        <v>1.173305715406823</v>
+        <v>1.173305721594694</v>
       </c>
       <c r="D20">
-        <v>48.28155068080076</v>
+        <v>48.28155063018514</v>
       </c>
       <c r="E20">
-        <v>2.39048568078117</v>
+        <v>2.390485629838162</v>
       </c>
       <c r="F20">
-        <v>59977.39809801608</v>
+        <v>59977.39804409435</v>
       </c>
       <c r="G20">
-        <v>2851.973892889104</v>
+        <v>2851.973853965148</v>
       </c>
       <c r="H20">
         <v>16173.06469967434</v>
@@ -6305,28 +6305,28 @@
         <v>16238.38182573535</v>
       </c>
       <c r="J20">
-        <v>19045.51277868362</v>
+        <v>19045.51277868266</v>
       </c>
       <c r="K20">
-        <v>0.3175863436593944</v>
+        <v>0.3175863442277471</v>
       </c>
       <c r="L20">
-        <v>71.51677463225208</v>
+        <v>71.51677463718786</v>
       </c>
       <c r="M20">
-        <v>0.8490865793646158</v>
+        <v>0.8490865666636165</v>
       </c>
       <c r="N20">
-        <v>113393.9642495266</v>
+        <v>113393.9642535791</v>
       </c>
       <c r="O20">
-        <v>1030.842494670725</v>
+        <v>1030.84249404122</v>
       </c>
       <c r="P20">
-        <v>19009.25945592085</v>
+        <v>19009.25945591826</v>
       </c>
       <c r="Q20">
-        <v>19109.56870702294</v>
+        <v>19109.568707029</v>
       </c>
       <c r="R20">
         <v>19542.40512704076</v>
@@ -6338,7 +6338,7 @@
         <v>69.75694763346765</v>
       </c>
       <c r="U20">
-        <v>4.852958271935416</v>
+        <v>4.852958271935414</v>
       </c>
       <c r="V20">
         <v>19921.29076207424</v>
@@ -6347,10 +6347,10 @@
         <v>1173.031762749275</v>
       </c>
       <c r="X20">
-        <v>19479.22131943303</v>
+        <v>19479.22131940878</v>
       </c>
       <c r="Y20">
-        <v>19572.89540901857</v>
+        <v>19572.8954090356</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -6376,10 +6376,10 @@
         <v>1861.986134051078</v>
       </c>
       <c r="H21">
-        <v>16031.61698249417</v>
+        <v>16031.61698249033</v>
       </c>
       <c r="I21">
-        <v>16094.02600773763</v>
+        <v>16094.02600774003</v>
       </c>
       <c r="J21">
         <v>18805.40636361357</v>
@@ -6397,31 +6397,31 @@
         <v>122876.7369575861</v>
       </c>
       <c r="O21">
-        <v>3552.294272734786</v>
+        <v>3552.294272734785</v>
       </c>
       <c r="P21">
-        <v>18770.9508752073</v>
+        <v>18770.95087520729</v>
       </c>
       <c r="Q21">
         <v>18868.33723640747</v>
       </c>
       <c r="R21">
-        <v>19298.28262438553</v>
+        <v>19298.28262438554</v>
       </c>
       <c r="S21">
-        <v>1.831688075725868</v>
+        <v>1.831688075741455</v>
       </c>
       <c r="T21">
-        <v>69.09746660823592</v>
+        <v>69.09746660823693</v>
       </c>
       <c r="U21">
-        <v>3.66313690002359</v>
+        <v>3.663136900041183</v>
       </c>
       <c r="V21">
-        <v>21669.71100897356</v>
+        <v>21669.71100897386</v>
       </c>
       <c r="W21">
-        <v>1064.188991599185</v>
+        <v>1064.188991606799</v>
       </c>
       <c r="X21">
         <v>19235.19708226052</v>
@@ -6453,22 +6453,22 @@
         <v>256.1061675709479</v>
       </c>
       <c r="H22">
-        <v>16497.97159074491</v>
+        <v>16497.9715907467</v>
       </c>
       <c r="I22">
-        <v>16561.09672039029</v>
+        <v>16561.09672038923</v>
       </c>
       <c r="J22">
         <v>19063.17630966413</v>
       </c>
       <c r="K22">
-        <v>0.8283976140262008</v>
+        <v>0.8283976140262009</v>
       </c>
       <c r="L22">
         <v>68.53102062913055</v>
       </c>
       <c r="M22">
-        <v>1.725571567800923</v>
+        <v>1.725571567800924</v>
       </c>
       <c r="N22">
         <v>113035.717269788</v>
@@ -6483,28 +6483,28 @@
         <v>19124.12818978696</v>
       </c>
       <c r="R22">
-        <v>19507.96238764037</v>
+        <v>19507.96238764252</v>
       </c>
       <c r="S22">
-        <v>1.102359416290547</v>
+        <v>1.10235941436875</v>
       </c>
       <c r="T22">
-        <v>64.25534168095923</v>
+        <v>64.25534169120101</v>
       </c>
       <c r="U22">
-        <v>2.591762583935528</v>
+        <v>2.591762573538817</v>
       </c>
       <c r="V22">
-        <v>19085.31344467805</v>
+        <v>19085.31344526528</v>
       </c>
       <c r="W22">
-        <v>623.2510819491127</v>
+        <v>623.2510692983884</v>
       </c>
       <c r="X22">
-        <v>19447.16181316478</v>
+        <v>19447.16181317463</v>
       </c>
       <c r="Y22">
-        <v>19541.36937715715</v>
+        <v>19541.36937715022</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -6515,7 +6515,7 @@
         <v>16316.34536874929</v>
       </c>
       <c r="C23">
-        <v>0.7091645994537966</v>
+        <v>0.7091645994537968</v>
       </c>
       <c r="D23">
         <v>46.69031538039154</v>
@@ -6530,58 +6530,58 @@
         <v>1821.219501475389</v>
       </c>
       <c r="H23">
-        <v>16275.05138717829</v>
+        <v>16275.05138717804</v>
       </c>
       <c r="I23">
-        <v>16336.47594582832</v>
+        <v>16336.47594582874</v>
       </c>
       <c r="J23">
-        <v>18929.77496518233</v>
+        <v>18929.77496518151</v>
       </c>
       <c r="K23">
-        <v>0.5094790193757638</v>
+        <v>0.509479013532113</v>
       </c>
       <c r="L23">
-        <v>67.26871064706322</v>
+        <v>67.26871064869881</v>
       </c>
       <c r="M23">
-        <v>1.101118843485192</v>
+        <v>1.101118828112533</v>
       </c>
       <c r="N23">
-        <v>119095.7803824601</v>
+        <v>119095.7803874863</v>
       </c>
       <c r="O23">
-        <v>1646.674536934062</v>
+        <v>1646.674534414525</v>
       </c>
       <c r="P23">
-        <v>18896.542482663</v>
+        <v>18896.54248266584</v>
       </c>
       <c r="Q23">
-        <v>18992.1062093477</v>
+        <v>18992.10620934116</v>
       </c>
       <c r="R23">
-        <v>19390.64198523543</v>
+        <v>19390.64198524026</v>
       </c>
       <c r="S23">
-        <v>0.7521903655384434</v>
+        <v>0.7521903670443544</v>
       </c>
       <c r="T23">
-        <v>63.13182392412887</v>
+        <v>63.13182394220446</v>
       </c>
       <c r="U23">
-        <v>1.851278879380288</v>
+        <v>1.851278882676226</v>
       </c>
       <c r="V23">
-        <v>19628.51322309416</v>
+        <v>19628.51322718748</v>
       </c>
       <c r="W23">
-        <v>455.4579991121525</v>
+        <v>455.4580015877339</v>
       </c>
       <c r="X23">
-        <v>19332.17428221909</v>
+        <v>19332.17428221866</v>
       </c>
       <c r="Y23">
-        <v>19421.31909530596</v>
+        <v>19421.3190953067</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -6592,7 +6592,7 @@
         <v>16949.37942794285</v>
       </c>
       <c r="C24">
-        <v>0.5722573574495219</v>
+        <v>0.5722573574495217</v>
       </c>
       <c r="D24">
         <v>62.68999672471691</v>
@@ -6604,13 +6604,13 @@
         <v>114367.9544417497</v>
       </c>
       <c r="G24">
-        <v>2018.033991325905</v>
+        <v>2018.033991325904</v>
       </c>
       <c r="H24">
-        <v>16895.00087310441</v>
+        <v>16895.00087311351</v>
       </c>
       <c r="I24">
-        <v>16974.02613241336</v>
+        <v>16974.02613240716</v>
       </c>
       <c r="J24">
         <v>19959.87504495677</v>
@@ -6622,43 +6622,43 @@
         <v>81.85039500206321</v>
       </c>
       <c r="M24">
-        <v>1.857717382747886</v>
+        <v>1.857717382747887</v>
       </c>
       <c r="N24">
         <v>158379.9164659702</v>
       </c>
       <c r="O24">
-        <v>3162.728341773439</v>
+        <v>3162.72834177344</v>
       </c>
       <c r="P24">
-        <v>19921.03808271484</v>
+        <v>19921.03808271051</v>
       </c>
       <c r="Q24">
-        <v>20030.81855217868</v>
+        <v>20030.81855218737</v>
       </c>
       <c r="R24">
-        <v>20480.54343064532</v>
+        <v>20480.543430653</v>
       </c>
       <c r="S24">
-        <v>1.151497287568703</v>
+        <v>1.151497282132539</v>
       </c>
       <c r="T24">
-        <v>81.28441495887411</v>
+        <v>81.28441497816524</v>
       </c>
       <c r="U24">
-        <v>2.41165603373714</v>
+        <v>2.411656068152342</v>
       </c>
       <c r="V24">
-        <v>27290.76816430829</v>
+        <v>27290.76816997996</v>
       </c>
       <c r="W24">
-        <v>712.2047564663889</v>
+        <v>712.2047571863083</v>
       </c>
       <c r="X24">
-        <v>20407.49985817138</v>
+        <v>20407.49985817423</v>
       </c>
       <c r="Y24">
-        <v>20517.0364893836</v>
+        <v>20517.03648938113</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -6666,22 +6666,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17356.31545536919</v>
+        <v>17356.31545536172</v>
       </c>
       <c r="C25">
-        <v>0.6512059618545375</v>
+        <v>0.651205959561073</v>
       </c>
       <c r="D25">
-        <v>74.75093380484022</v>
+        <v>74.75093377506441</v>
       </c>
       <c r="E25">
-        <v>1.706858565966477</v>
+        <v>1.706858572837316</v>
       </c>
       <c r="F25">
-        <v>116276.7541263021</v>
+        <v>116276.7540911244</v>
       </c>
       <c r="G25">
-        <v>2060.006108781419</v>
+        <v>2060.006112771891</v>
       </c>
       <c r="H25">
         <v>17290.20862807317</v>
@@ -6693,49 +6693,49 @@
         <v>20212.6378658621</v>
       </c>
       <c r="K25">
-        <v>0.3630802575568596</v>
+        <v>0.3630802575568597</v>
       </c>
       <c r="L25">
         <v>97.96250478222086</v>
       </c>
       <c r="M25">
-        <v>0.8924231347822927</v>
+        <v>0.8924231347822931</v>
       </c>
       <c r="N25">
         <v>173129.3151611271</v>
       </c>
       <c r="O25">
-        <v>1260.748238179652</v>
+        <v>1260.748238179653</v>
       </c>
       <c r="P25">
-        <v>20168.54581593556</v>
+        <v>20168.54581593887</v>
       </c>
       <c r="Q25">
-        <v>20298.60064736971</v>
+        <v>20298.60064736269</v>
       </c>
       <c r="R25">
-        <v>20710.87957462389</v>
+        <v>20710.87957460624</v>
       </c>
       <c r="S25">
-        <v>1.461118998913916</v>
+        <v>1.461118998366578</v>
       </c>
       <c r="T25">
-        <v>92.89838731898602</v>
+        <v>92.89838727196339</v>
       </c>
       <c r="U25">
-        <v>3.232592890386078</v>
+        <v>3.232592903788302</v>
       </c>
       <c r="V25">
-        <v>29771.43978261127</v>
+        <v>29771.43976762279</v>
       </c>
       <c r="W25">
-        <v>870.0867220525711</v>
+        <v>870.0867127601033</v>
       </c>
       <c r="X25">
-        <v>20625.74189575269</v>
+        <v>20625.74189569564</v>
       </c>
       <c r="Y25">
-        <v>20758.15356811895</v>
+        <v>20758.15356816531</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -6752,19 +6752,19 @@
         <v>61.85774634818226</v>
       </c>
       <c r="E26">
-        <v>2.915079932212626</v>
+        <v>2.915079932212628</v>
       </c>
       <c r="F26">
         <v>117763.7331912092</v>
       </c>
       <c r="G26">
-        <v>4855.32456513468</v>
+        <v>4855.324565134682</v>
       </c>
       <c r="H26">
-        <v>16622.43364383951</v>
+        <v>16622.43364383165</v>
       </c>
       <c r="I26">
-        <v>16706.23598913063</v>
+        <v>16706.2359891358</v>
       </c>
       <c r="J26">
         <v>19534.37088016108</v>
@@ -6782,13 +6782,13 @@
         <v>165634.8573308541</v>
       </c>
       <c r="O26">
-        <v>1792.216889120871</v>
+        <v>1792.21688912087</v>
       </c>
       <c r="P26">
-        <v>19492.68175176435</v>
+        <v>19492.68175175899</v>
       </c>
       <c r="Q26">
-        <v>19607.97740873513</v>
+        <v>19607.97740874946</v>
       </c>
       <c r="R26">
         <v>20042.07777319458</v>
@@ -6806,13 +6806,13 @@
         <v>30202.35379749912</v>
       </c>
       <c r="W26">
-        <v>841.2102517108187</v>
+        <v>841.210251710819</v>
       </c>
       <c r="X26">
-        <v>19965.92237452354</v>
+        <v>19965.92237453439</v>
       </c>
       <c r="Y26">
-        <v>20079.08192554294</v>
+        <v>20079.08192553634</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -6823,73 +6823,73 @@
         <v>17690.22481758235</v>
       </c>
       <c r="C27">
-        <v>0.5680038344038749</v>
+        <v>0.5680038344038755</v>
       </c>
       <c r="D27">
         <v>50.51197248369312</v>
       </c>
       <c r="E27">
-        <v>1.344276137305637</v>
+        <v>1.344276137305638</v>
       </c>
       <c r="F27">
         <v>119445.6561841952</v>
       </c>
       <c r="G27">
-        <v>2606.550561309006</v>
+        <v>2606.550561309009</v>
       </c>
       <c r="H27">
-        <v>17645.84921527229</v>
+        <v>17645.8492152731</v>
       </c>
       <c r="I27">
-        <v>17710.77581466045</v>
+        <v>17710.77581465918</v>
       </c>
       <c r="J27">
-        <v>20491.41298446338</v>
+        <v>20491.4129844654</v>
       </c>
       <c r="K27">
-        <v>0.5116672253100435</v>
+        <v>0.5116672292637126</v>
       </c>
       <c r="L27">
-        <v>72.93940561312019</v>
+        <v>72.93940560706221</v>
       </c>
       <c r="M27">
-        <v>1.228475696189647</v>
+        <v>1.228475704352069</v>
       </c>
       <c r="N27">
-        <v>162663.1056524699</v>
+        <v>162663.1056397748</v>
       </c>
       <c r="O27">
-        <v>2206.993357382005</v>
+        <v>2206.993381690571</v>
       </c>
       <c r="P27">
-        <v>20456.33325834608</v>
+        <v>20456.33325834807</v>
       </c>
       <c r="Q27">
-        <v>20555.54521083028</v>
+        <v>20555.54521082589</v>
       </c>
       <c r="R27">
-        <v>20978.70405815023</v>
+        <v>20978.70405815452</v>
       </c>
       <c r="S27">
-        <v>1.554054339043688</v>
+        <v>1.554054344342776</v>
       </c>
       <c r="T27">
-        <v>71.46830941398383</v>
+        <v>71.46830942512078</v>
       </c>
       <c r="U27">
-        <v>3.756462015383549</v>
+        <v>3.756462006652509</v>
       </c>
       <c r="V27">
-        <v>27803.0786830794</v>
+        <v>27803.07868867733</v>
       </c>
       <c r="W27">
-        <v>1176.484665723096</v>
+        <v>1176.484673685848</v>
       </c>
       <c r="X27">
-        <v>20913.63204599627</v>
+        <v>20913.63204600328</v>
       </c>
       <c r="Y27">
-        <v>21012.38368624812</v>
+        <v>21012.38368624124</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -6912,7 +6912,7 @@
         <v>116244.7923033358</v>
       </c>
       <c r="G28">
-        <v>888.1440967436743</v>
+        <v>888.1440967436741</v>
       </c>
       <c r="H28">
         <v>16932.52487571641</v>
@@ -6924,49 +6924,49 @@
         <v>19422.10508159885</v>
       </c>
       <c r="K28">
-        <v>0.6307527890825606</v>
+        <v>0.6307527890825603</v>
       </c>
       <c r="L28">
         <v>64.08483162693044</v>
       </c>
       <c r="M28">
-        <v>1.4858187419027</v>
+        <v>1.485818741902699</v>
       </c>
       <c r="N28">
         <v>158426.9257095426</v>
       </c>
       <c r="O28">
-        <v>3118.943737135937</v>
+        <v>3118.943737135936</v>
       </c>
       <c r="P28">
-        <v>19390.89939460162</v>
+        <v>19390.89939460086</v>
       </c>
       <c r="Q28">
-        <v>19479.13043310564</v>
+        <v>19479.13043310747</v>
       </c>
       <c r="R28">
-        <v>19857.5196771823</v>
+        <v>19857.51967719038</v>
       </c>
       <c r="S28">
-        <v>1.092877433423193</v>
+        <v>1.092877431927818</v>
       </c>
       <c r="T28">
-        <v>58.46773816648518</v>
+        <v>58.46773819163612</v>
       </c>
       <c r="U28">
-        <v>2.467316247544349</v>
+        <v>2.467316247079032</v>
       </c>
       <c r="V28">
-        <v>26681.24022205425</v>
+        <v>26681.24022978123</v>
       </c>
       <c r="W28">
-        <v>949.5385380061723</v>
+        <v>949.5385360111607</v>
       </c>
       <c r="X28">
-        <v>19800.75556096097</v>
+        <v>19800.75556097133</v>
       </c>
       <c r="Y28">
-        <v>19888.10238397748</v>
+        <v>19888.10238396807</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -6977,7 +6977,7 @@
         <v>16911.95721825416</v>
       </c>
       <c r="C29">
-        <v>0.7907224300435343</v>
+        <v>0.7907224300435339</v>
       </c>
       <c r="D29">
         <v>52.41734964344739</v>
@@ -6989,7 +6989,7 @@
         <v>106295.3469274169</v>
       </c>
       <c r="G29">
-        <v>3072.986679030143</v>
+        <v>3072.986679030142</v>
       </c>
       <c r="H29">
         <v>16866.40264678083</v>
@@ -6998,40 +6998,40 @@
         <v>16934.93680815052</v>
       </c>
       <c r="J29">
-        <v>19478.54587473185</v>
+        <v>19478.54587473731</v>
       </c>
       <c r="K29">
-        <v>0.6339231068202462</v>
+        <v>0.6339231067994912</v>
       </c>
       <c r="L29">
-        <v>69.88211577338279</v>
+        <v>69.88211576094677</v>
       </c>
       <c r="M29">
-        <v>1.349380226165428</v>
+        <v>1.349380228187748</v>
       </c>
       <c r="N29">
-        <v>157569.0095143846</v>
+        <v>157569.0094810598</v>
       </c>
       <c r="O29">
-        <v>2603.041027885502</v>
+        <v>2603.041023818942</v>
       </c>
       <c r="P29">
-        <v>19443.02972908397</v>
+        <v>19443.02972907714</v>
       </c>
       <c r="Q29">
-        <v>19542.15154518083</v>
+        <v>19542.15154519624</v>
       </c>
       <c r="R29">
         <v>19935.14063005555</v>
       </c>
       <c r="S29">
-        <v>1.996992362841165</v>
+        <v>1.996992362841166</v>
       </c>
       <c r="T29">
         <v>67.71426240999497</v>
       </c>
       <c r="U29">
-        <v>4.585528550674041</v>
+        <v>4.585528550674039</v>
       </c>
       <c r="V29">
         <v>27697.15534053815</v>
@@ -7040,10 +7040,10 @@
         <v>1574.549769149696</v>
       </c>
       <c r="X29">
-        <v>19873.9309776314</v>
+        <v>19873.93097760469</v>
       </c>
       <c r="Y29">
-        <v>19965.74362966422</v>
+        <v>19965.74362968456</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -7051,28 +7051,28 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>16551.24263652791</v>
+        <v>16551.24263652525</v>
       </c>
       <c r="C30">
-        <v>0.438056450239402</v>
+        <v>0.4380564529588676</v>
       </c>
       <c r="D30">
-        <v>50.55024470928539</v>
+        <v>50.55024470097251</v>
       </c>
       <c r="E30">
-        <v>0.987421141544592</v>
+        <v>0.9874211314993401</v>
       </c>
       <c r="F30">
-        <v>107884.0220178352</v>
+        <v>107884.0220070527</v>
       </c>
       <c r="G30">
-        <v>1781.704556710329</v>
+        <v>1781.704523461399</v>
       </c>
       <c r="H30">
-        <v>16506.46525462889</v>
+        <v>16506.46525462957</v>
       </c>
       <c r="I30">
-        <v>16572.42480242894</v>
+        <v>16572.42480242855</v>
       </c>
       <c r="J30">
         <v>19224.37464235001</v>
@@ -7093,10 +7093,10 @@
         <v>1811.001250732907</v>
       </c>
       <c r="P30">
-        <v>19189.35300730428</v>
+        <v>19189.35300730914</v>
       </c>
       <c r="Q30">
-        <v>19288.04517929677</v>
+        <v>19288.04517928461</v>
       </c>
       <c r="R30">
         <v>19698.7158277335</v>
@@ -7108,7 +7108,7 @@
         <v>67.34531294427423</v>
       </c>
       <c r="U30">
-        <v>3.852614465658589</v>
+        <v>3.852614465658586</v>
       </c>
       <c r="V30">
         <v>26494.69700625465</v>
@@ -7117,10 +7117,10 @@
         <v>1217.579998703554</v>
       </c>
       <c r="X30">
-        <v>19634.17406241331</v>
+        <v>19634.1740624211</v>
       </c>
       <c r="Y30">
-        <v>19731.76019957052</v>
+        <v>19731.76019956622</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -7131,19 +7131,19 @@
         <v>16316.64473866203</v>
       </c>
       <c r="C31">
-        <v>0.6906305563421229</v>
+        <v>0.6906305563421233</v>
       </c>
       <c r="D31">
         <v>52.57528711055416</v>
       </c>
       <c r="E31">
-        <v>1.566076430338984</v>
+        <v>1.566076430338985</v>
       </c>
       <c r="F31">
         <v>110632.4979901455</v>
       </c>
       <c r="G31">
-        <v>3069.603787938413</v>
+        <v>3069.603787938416</v>
       </c>
       <c r="H31">
         <v>16271.19837557965</v>
@@ -7152,52 +7152,52 @@
         <v>16338.79773073529</v>
       </c>
       <c r="J31">
-        <v>18839.78095718255</v>
+        <v>18839.78095718275</v>
       </c>
       <c r="K31">
-        <v>0.4304548601297704</v>
+        <v>0.4304548613586749</v>
       </c>
       <c r="L31">
-        <v>71.32805879358841</v>
+        <v>71.32805879293399</v>
       </c>
       <c r="M31">
-        <v>0.9760831420290698</v>
+        <v>0.9760831384942297</v>
       </c>
       <c r="N31">
-        <v>169336.1114422363</v>
+        <v>169336.1114413048</v>
       </c>
       <c r="O31">
-        <v>1921.652402884444</v>
+        <v>1921.6524086094</v>
       </c>
       <c r="P31">
-        <v>18804.3842220851</v>
+        <v>18804.38422208971</v>
       </c>
       <c r="Q31">
-        <v>18904.5972637471</v>
+        <v>18904.59726373321</v>
       </c>
       <c r="R31">
         <v>19292.07848871536</v>
       </c>
       <c r="S31">
-        <v>1.607274291083586</v>
+        <v>1.607274291083585</v>
       </c>
       <c r="T31">
         <v>68.77618792264335</v>
       </c>
       <c r="U31">
-        <v>3.416082558843517</v>
+        <v>3.416082558843519</v>
       </c>
       <c r="V31">
         <v>28029.7187777694</v>
       </c>
       <c r="W31">
-        <v>1191.353951598315</v>
+        <v>1191.353951598314</v>
       </c>
       <c r="X31">
-        <v>19229.12851796348</v>
+        <v>19229.12851799439</v>
       </c>
       <c r="Y31">
-        <v>19326.144001141</v>
+        <v>19326.14400111468</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -7208,7 +7208,7 @@
         <v>17141.7709215117</v>
       </c>
       <c r="C32">
-        <v>0.7933672290893157</v>
+        <v>0.7933672290893158</v>
       </c>
       <c r="D32">
         <v>49.69535100798462</v>
@@ -7223,34 +7223,34 @@
         <v>3100.492486862933</v>
       </c>
       <c r="H32">
-        <v>17097.90577655674</v>
+        <v>17097.90577655425</v>
       </c>
       <c r="I32">
-        <v>17163.07082792727</v>
+        <v>17163.0708279284</v>
       </c>
       <c r="J32">
         <v>19724.52005137444</v>
       </c>
       <c r="K32">
-        <v>0.7157375295923192</v>
+        <v>0.7157375295923194</v>
       </c>
       <c r="L32">
         <v>68.91236373324635</v>
       </c>
       <c r="M32">
-        <v>1.572409338897683</v>
+        <v>1.572409338897685</v>
       </c>
       <c r="N32">
         <v>157361.7989117769</v>
       </c>
       <c r="O32">
-        <v>3103.766236856178</v>
+        <v>3103.76623685618</v>
       </c>
       <c r="P32">
-        <v>19691.67195837323</v>
+        <v>19691.67195837395</v>
       </c>
       <c r="Q32">
-        <v>19786.08809011365</v>
+        <v>19786.08809010923</v>
       </c>
       <c r="R32">
         <v>20181.66567777521</v>
@@ -7268,7 +7268,7 @@
         <v>26300.79963804556</v>
       </c>
       <c r="W32">
-        <v>905.5724440337941</v>
+        <v>905.5724440337939</v>
       </c>
       <c r="X32">
         <v>20120.4000401247</v>
@@ -7285,19 +7285,19 @@
         <v>16256.28190142653</v>
       </c>
       <c r="C33">
-        <v>0.3677459255126935</v>
+        <v>0.3677459255161492</v>
       </c>
       <c r="D33">
-        <v>55.76717396041975</v>
+        <v>55.76717396041972</v>
       </c>
       <c r="E33">
-        <v>0.8562878491027682</v>
+        <v>0.8562878527673909</v>
       </c>
       <c r="F33">
         <v>108376.686296861</v>
       </c>
       <c r="G33">
-        <v>1358.788300257255</v>
+        <v>1358.788300265291</v>
       </c>
       <c r="H33">
         <v>16206.21840004099</v>
@@ -7309,25 +7309,25 @@
         <v>19261.72305993407</v>
       </c>
       <c r="K33">
-        <v>0.4995705275871414</v>
+        <v>0.4995705275871413</v>
       </c>
       <c r="L33">
         <v>76.51804694011038</v>
       </c>
       <c r="M33">
-        <v>1.060388778672455</v>
+        <v>1.060388778672456</v>
       </c>
       <c r="N33">
         <v>157943.4414912304</v>
       </c>
       <c r="O33">
-        <v>1874.167559668419</v>
+        <v>1874.167559668418</v>
       </c>
       <c r="P33">
-        <v>19221.02710285976</v>
+        <v>19221.02710285852</v>
       </c>
       <c r="Q33">
-        <v>19330.6290853756</v>
+        <v>19330.62908537783</v>
       </c>
       <c r="R33">
         <v>19786.45387513281</v>
@@ -7497,19 +7497,19 @@
         <v>16832.74787339228</v>
       </c>
       <c r="C4">
-        <v>0.3705160500099819</v>
+        <v>0.3705160500099818</v>
       </c>
       <c r="D4">
         <v>56.09481462696534</v>
       </c>
       <c r="E4">
-        <v>0.8231977366335549</v>
+        <v>0.8231977366335546</v>
       </c>
       <c r="F4">
         <v>139271.5432673803</v>
       </c>
       <c r="G4">
-        <v>1820.32061323006</v>
+        <v>1820.320613230059</v>
       </c>
       <c r="H4">
         <v>16782.07720520625</v>
@@ -7518,52 +7518,52 @@
         <v>16856.27668939592</v>
       </c>
       <c r="J4">
-        <v>19221.38687710163</v>
+        <v>19221.38687709981</v>
       </c>
       <c r="K4">
-        <v>0.6870146405690933</v>
+        <v>0.6870146382586733</v>
       </c>
       <c r="L4">
-        <v>71.80456628656874</v>
+        <v>71.80456629056468</v>
       </c>
       <c r="M4">
-        <v>1.634022632021765</v>
+        <v>1.63402261693587</v>
       </c>
       <c r="N4">
-        <v>169327.7622808979</v>
+        <v>169327.7622978849</v>
       </c>
       <c r="O4">
-        <v>3113.498471639509</v>
+        <v>3113.498555183448</v>
       </c>
       <c r="P4">
-        <v>19185.40660647573</v>
+        <v>19185.40660646935</v>
       </c>
       <c r="Q4">
-        <v>19286.31107528551</v>
+        <v>19286.31107529885</v>
       </c>
       <c r="R4">
-        <v>19646.82441521734</v>
+        <v>19646.82441521489</v>
       </c>
       <c r="S4">
-        <v>1.875089825139454</v>
+        <v>1.875089828076421</v>
       </c>
       <c r="T4">
-        <v>78.14224683966806</v>
+        <v>78.14224683082702</v>
       </c>
       <c r="U4">
-        <v>4.40476348506196</v>
+        <v>4.404763494112856</v>
       </c>
       <c r="V4">
-        <v>33555.81427293578</v>
+        <v>33555.81427074484</v>
       </c>
       <c r="W4">
-        <v>1542.555920542937</v>
+        <v>1542.555920530676</v>
       </c>
       <c r="X4">
-        <v>19573.96430258169</v>
+        <v>19573.96430256302</v>
       </c>
       <c r="Y4">
-        <v>19683.90040756222</v>
+        <v>19683.90040758342</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -7574,25 +7574,25 @@
         <v>15903.26763065731</v>
       </c>
       <c r="C5">
-        <v>0.9853855598759884</v>
+        <v>0.9853855598759893</v>
       </c>
       <c r="D5">
         <v>54.02525877398451</v>
       </c>
       <c r="E5">
-        <v>2.091549692162094</v>
+        <v>2.091549692162095</v>
       </c>
       <c r="F5">
         <v>118395.4877508018</v>
       </c>
       <c r="G5">
-        <v>4136.843011147442</v>
+        <v>4136.843011147444</v>
       </c>
       <c r="H5">
-        <v>15854.84687685206</v>
+        <v>15854.84687685502</v>
       </c>
       <c r="I5">
-        <v>15926.12769939643</v>
+        <v>15926.12769939479</v>
       </c>
       <c r="J5">
         <v>18568.4740184589</v>
@@ -7604,7 +7604,7 @@
         <v>71.40966219669279</v>
       </c>
       <c r="M5">
-        <v>2.29419719354894</v>
+        <v>2.294197193548939</v>
       </c>
       <c r="N5">
         <v>150235.1605383269</v>
@@ -7613,10 +7613,10 @@
         <v>4138.369620959718</v>
       </c>
       <c r="P5">
-        <v>18531.08566883796</v>
+        <v>18531.08566884927</v>
       </c>
       <c r="Q5">
-        <v>18633.89827923646</v>
+        <v>18633.89827921361</v>
       </c>
       <c r="R5">
         <v>19039.00700616359</v>
@@ -7637,10 +7637,10 @@
         <v>918.1703676318346</v>
       </c>
       <c r="X5">
-        <v>18970.29963476128</v>
+        <v>18970.29963475896</v>
       </c>
       <c r="Y5">
-        <v>19074.17425922252</v>
+        <v>19074.17425922385</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -7648,28 +7648,28 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>16240.91062521179</v>
+        <v>16240.91062521265</v>
       </c>
       <c r="C6">
-        <v>0.551254578759519</v>
+        <v>0.5512545697189651</v>
       </c>
       <c r="D6">
-        <v>69.6440366527732</v>
+        <v>69.64403665739469</v>
       </c>
       <c r="E6">
-        <v>1.216416545252584</v>
+        <v>1.21641653803112</v>
       </c>
       <c r="F6">
-        <v>120383.0291904075</v>
+        <v>120383.029189376</v>
       </c>
       <c r="G6">
-        <v>1766.196271357363</v>
+        <v>1766.196249422167</v>
       </c>
       <c r="H6">
-        <v>16178.26515837086</v>
+        <v>16178.26515835592</v>
       </c>
       <c r="I6">
-        <v>16276.06795352586</v>
+        <v>16276.0679535381</v>
       </c>
       <c r="J6">
         <v>18991.80472634867</v>
@@ -7690,34 +7690,34 @@
         <v>1968.917688130776</v>
       </c>
       <c r="P6">
-        <v>18949.64934706872</v>
+        <v>18949.64934706901</v>
       </c>
       <c r="Q6">
-        <v>19073.52931147381</v>
+        <v>19073.52931147434</v>
       </c>
       <c r="R6">
-        <v>19476.18583982611</v>
+        <v>19476.18583982004</v>
       </c>
       <c r="S6">
-        <v>1.167945459504998</v>
+        <v>1.167945460667608</v>
       </c>
       <c r="T6">
-        <v>92.46670162939024</v>
+        <v>92.46670160663236</v>
       </c>
       <c r="U6">
-        <v>2.839153708531794</v>
+        <v>2.839153676459818</v>
       </c>
       <c r="V6">
-        <v>29160.91990775176</v>
+        <v>29160.91990248406</v>
       </c>
       <c r="W6">
-        <v>715.1213702458964</v>
+        <v>715.1213646225555</v>
       </c>
       <c r="X6">
-        <v>19392.01965247786</v>
+        <v>19392.01965248331</v>
       </c>
       <c r="Y6">
-        <v>19520.09032103932</v>
+        <v>19520.09032103436</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -7725,58 +7725,58 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>17041.63464258612</v>
+        <v>17041.63464258689</v>
       </c>
       <c r="C7">
-        <v>1.38055662838898</v>
+        <v>1.38055661615177</v>
       </c>
       <c r="D7">
-        <v>58.29923976910206</v>
+        <v>58.29923977132123</v>
       </c>
       <c r="E7">
-        <v>2.722908447852536</v>
+        <v>2.722908433740173</v>
       </c>
       <c r="F7">
-        <v>137778.5532868709</v>
+        <v>137778.5532918777</v>
       </c>
       <c r="G7">
-        <v>5969.172114763565</v>
+        <v>5969.172168850854</v>
       </c>
       <c r="H7">
-        <v>16989.53731452882</v>
+        <v>16989.53731451939</v>
       </c>
       <c r="I7">
-        <v>17065.28026479351</v>
+        <v>17065.28026479945</v>
       </c>
       <c r="J7">
-        <v>19774.41956312043</v>
+        <v>19774.41956312565</v>
       </c>
       <c r="K7">
-        <v>0.4416748209775727</v>
+        <v>0.4416748181537478</v>
       </c>
       <c r="L7">
-        <v>74.13281889857606</v>
+        <v>74.13281888185895</v>
       </c>
       <c r="M7">
-        <v>0.999383653968216</v>
+        <v>0.9993836486117442</v>
       </c>
       <c r="N7">
-        <v>160932.4989458364</v>
+        <v>160932.4989173567</v>
       </c>
       <c r="O7">
-        <v>1791.375477332582</v>
+        <v>1791.375469393179</v>
       </c>
       <c r="P7">
-        <v>19736.0878591519</v>
+        <v>19736.08785915983</v>
       </c>
       <c r="Q7">
-        <v>19842.0441529076</v>
+        <v>19842.04415288613</v>
       </c>
       <c r="R7">
         <v>20258.47241111878</v>
       </c>
       <c r="S7">
-        <v>1.929532496393826</v>
+        <v>1.929532496393825</v>
       </c>
       <c r="T7">
         <v>82.23838637848641</v>
@@ -7791,10 +7791,10 @@
         <v>1357.633439910932</v>
       </c>
       <c r="X7">
-        <v>20185.7810729925</v>
+        <v>20185.78107298289</v>
       </c>
       <c r="Y7">
-        <v>20291.01088022341</v>
+        <v>20291.01088023373</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -7805,13 +7805,13 @@
         <v>16710.90066462296</v>
       </c>
       <c r="C8">
-        <v>0.3984460291766249</v>
+        <v>0.3984460291766248</v>
       </c>
       <c r="D8">
         <v>56.46656900759934</v>
       </c>
       <c r="E8">
-        <v>0.7786537126937153</v>
+        <v>0.7786537126937152</v>
       </c>
       <c r="F8">
         <v>117259.9718462909</v>
@@ -7826,52 +7826,52 @@
         <v>16737.91312144184</v>
       </c>
       <c r="J8">
-        <v>19011.27876906982</v>
+        <v>19011.2787690695</v>
       </c>
       <c r="K8">
-        <v>0.4469975261269463</v>
+        <v>0.4469975207617648</v>
       </c>
       <c r="L8">
-        <v>70.88027619249175</v>
+        <v>70.88027619494768</v>
       </c>
       <c r="M8">
-        <v>1.048190043094974</v>
+        <v>1.04819003729257</v>
       </c>
       <c r="N8">
-        <v>160092.7473868732</v>
+        <v>160092.747385786</v>
       </c>
       <c r="O8">
-        <v>1923.023324249717</v>
+        <v>1923.023293297147</v>
       </c>
       <c r="P8">
-        <v>18974.52100275176</v>
+        <v>18974.52100275355</v>
       </c>
       <c r="Q8">
-        <v>19075.4891497662</v>
+        <v>19075.48914976756</v>
       </c>
       <c r="R8">
         <v>19425.13891529397</v>
       </c>
       <c r="S8">
-        <v>0.9814229067617051</v>
+        <v>0.9814229067617054</v>
       </c>
       <c r="T8">
         <v>75.51079549330015</v>
       </c>
       <c r="U8">
-        <v>1.986446107288848</v>
+        <v>1.986446107288851</v>
       </c>
       <c r="V8">
         <v>29911.78562558282</v>
       </c>
       <c r="W8">
-        <v>716.4067930614108</v>
+        <v>716.4067930614112</v>
       </c>
       <c r="X8">
-        <v>19357.83815294144</v>
+        <v>19357.83815293644</v>
       </c>
       <c r="Y8">
-        <v>19458.31411209896</v>
+        <v>19458.31411210221</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -7882,7 +7882,7 @@
         <v>17154.02200840723</v>
       </c>
       <c r="C9">
-        <v>0.6166696359719968</v>
+        <v>0.6166696359719966</v>
       </c>
       <c r="D9">
         <v>66.03604421755968</v>
@@ -7903,28 +7903,28 @@
         <v>17183.33402171849</v>
       </c>
       <c r="J9">
-        <v>19855.03010840348</v>
+        <v>19855.03010840228</v>
       </c>
       <c r="K9">
-        <v>0.5933451819410837</v>
+        <v>0.5933451816771845</v>
       </c>
       <c r="L9">
-        <v>80.82868158683399</v>
+        <v>80.82868159085378</v>
       </c>
       <c r="M9">
-        <v>1.42000966489657</v>
+        <v>1.420009656577652</v>
       </c>
       <c r="N9">
-        <v>154491.2291945171</v>
+        <v>154491.2292006345</v>
       </c>
       <c r="O9">
-        <v>2189.273454711834</v>
+        <v>2189.273440335068</v>
       </c>
       <c r="P9">
-        <v>19813.46892053622</v>
+        <v>19813.46892052607</v>
       </c>
       <c r="Q9">
-        <v>19927.46020124818</v>
+        <v>19927.46020127123</v>
       </c>
       <c r="R9">
         <v>20322.68644864889</v>
@@ -7936,7 +7936,7 @@
         <v>82.49832703125098</v>
       </c>
       <c r="U9">
-        <v>4.503924531890423</v>
+        <v>4.503924531890424</v>
       </c>
       <c r="V9">
         <v>28197.37914655412</v>
@@ -7945,10 +7945,10 @@
         <v>1246.944994948178</v>
       </c>
       <c r="X9">
-        <v>20249.33261898989</v>
+        <v>20249.33261898051</v>
       </c>
       <c r="Y9">
-        <v>20360.30811244724</v>
+        <v>20360.30811245461</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -7965,7 +7965,7 @@
         <v>57.67129957539737</v>
       </c>
       <c r="E10">
-        <v>0.8854468330101993</v>
+        <v>0.8854468330101992</v>
       </c>
       <c r="F10">
         <v>125560.8556053642</v>
@@ -7983,7 +7983,7 @@
         <v>19594.38383786734</v>
       </c>
       <c r="K10">
-        <v>0.7503389074628446</v>
+        <v>0.7503389074628445</v>
       </c>
       <c r="L10">
         <v>79.86675542416326</v>
@@ -8004,28 +8004,28 @@
         <v>19666.35216230685</v>
       </c>
       <c r="R10">
-        <v>20104.51551497174</v>
+        <v>20104.51551496079</v>
       </c>
       <c r="S10">
-        <v>0.9002798649676109</v>
+        <v>0.9002798691887214</v>
       </c>
       <c r="T10">
-        <v>86.33554785123395</v>
+        <v>86.33554781267617</v>
       </c>
       <c r="U10">
-        <v>2.016667799481644</v>
+        <v>2.01666778952409</v>
       </c>
       <c r="V10">
-        <v>32644.59934202843</v>
+        <v>32644.59933496906</v>
       </c>
       <c r="W10">
-        <v>637.9883455271265</v>
+        <v>637.9883467976408</v>
       </c>
       <c r="X10">
-        <v>20026.67353335884</v>
+        <v>20026.67353338878</v>
       </c>
       <c r="Y10">
-        <v>20142.30021752539</v>
+        <v>20142.30021750456</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -8033,22 +8033,22 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>17129.51032342139</v>
+        <v>17129.51032341733</v>
       </c>
       <c r="C11">
-        <v>0.6963614916095966</v>
+        <v>0.6963614913872055</v>
       </c>
       <c r="D11">
-        <v>56.60765696295532</v>
+        <v>56.60765695215878</v>
       </c>
       <c r="E11">
-        <v>1.426140516073212</v>
+        <v>1.426140526927881</v>
       </c>
       <c r="F11">
-        <v>117954.1065443693</v>
+        <v>117954.1065285577</v>
       </c>
       <c r="G11">
-        <v>2641.701224079759</v>
+        <v>2641.701228340595</v>
       </c>
       <c r="H11">
         <v>17078.91412494428</v>
@@ -8060,7 +8060,7 @@
         <v>19927.29571329417</v>
       </c>
       <c r="K11">
-        <v>0.5925207650306381</v>
+        <v>0.592520765030638</v>
       </c>
       <c r="L11">
         <v>68.98577299244798</v>
@@ -8081,28 +8081,28 @@
         <v>19990.83747832252</v>
       </c>
       <c r="R11">
-        <v>20411.68651511082</v>
+        <v>20411.68651510667</v>
       </c>
       <c r="S11">
-        <v>1.510738948560102</v>
+        <v>1.510738948825093</v>
       </c>
       <c r="T11">
-        <v>74.3898972656918</v>
+        <v>74.3898972487505</v>
       </c>
       <c r="U11">
-        <v>3.372274143654515</v>
+        <v>3.372274084513115</v>
       </c>
       <c r="V11">
-        <v>23114.09912769554</v>
+        <v>23114.09912632738</v>
       </c>
       <c r="W11">
-        <v>885.8724551183186</v>
+        <v>885.8724686447002</v>
       </c>
       <c r="X11">
-        <v>20343.72638077757</v>
+        <v>20343.72638076196</v>
       </c>
       <c r="Y11">
-        <v>20444.7086814953</v>
+        <v>20444.70868150531</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -8113,19 +8113,19 @@
         <v>17543.87606032401</v>
       </c>
       <c r="C12">
-        <v>0.7078647185398118</v>
+        <v>0.7078647185398116</v>
       </c>
       <c r="D12">
         <v>50.97143134635423</v>
       </c>
       <c r="E12">
-        <v>1.385291392033417</v>
+        <v>1.385291392033416</v>
       </c>
       <c r="F12">
         <v>129713.0121625967</v>
       </c>
       <c r="G12">
-        <v>3284.847550538339</v>
+        <v>3284.847550538337</v>
       </c>
       <c r="H12">
         <v>17499.09718261279</v>
@@ -8143,7 +8143,7 @@
         <v>68.67529637222142</v>
       </c>
       <c r="M12">
-        <v>0.9033516632094465</v>
+        <v>0.903351663209447</v>
       </c>
       <c r="N12">
         <v>139896.6874873977</v>
@@ -8152,16 +8152,16 @@
         <v>1500.194712024881</v>
       </c>
       <c r="P12">
-        <v>20187.63689097188</v>
+        <v>20187.6368909722</v>
       </c>
       <c r="Q12">
-        <v>20282.81334903478</v>
+        <v>20282.81334903197</v>
       </c>
       <c r="R12">
         <v>20686.32761203529</v>
       </c>
       <c r="S12">
-        <v>1.382697398807562</v>
+        <v>1.382697398807561</v>
       </c>
       <c r="T12">
         <v>67.30383675778775</v>
@@ -8173,7 +8173,7 @@
         <v>25471.09447754201</v>
       </c>
       <c r="W12">
-        <v>975.7768717428507</v>
+        <v>975.7768717428503</v>
       </c>
       <c r="X12">
         <v>20624.37946639686</v>
@@ -8187,22 +8187,22 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>17195.3809520614</v>
+        <v>17195.38095206298</v>
       </c>
       <c r="C13">
-        <v>0.4063304909649453</v>
+        <v>0.4063304912321201</v>
       </c>
       <c r="D13">
-        <v>60.55621203856929</v>
+        <v>60.55621204456946</v>
       </c>
       <c r="E13">
-        <v>1.02470039289688</v>
+        <v>1.024700391853412</v>
       </c>
       <c r="F13">
-        <v>124214.7181555557</v>
+        <v>124214.7181632701</v>
       </c>
       <c r="G13">
-        <v>1680.900475384729</v>
+        <v>1680.900473790862</v>
       </c>
       <c r="H13">
         <v>17141.86943831555</v>
@@ -8214,25 +8214,25 @@
         <v>19981.07482385868</v>
       </c>
       <c r="K13">
-        <v>0.6933776114501863</v>
+        <v>0.6933776114501865</v>
       </c>
       <c r="L13">
         <v>76.87586556018783</v>
       </c>
       <c r="M13">
-        <v>1.459987735023835</v>
+        <v>1.459987735023836</v>
       </c>
       <c r="N13">
         <v>138353.1134889075</v>
       </c>
       <c r="O13">
-        <v>2265.195403336495</v>
+        <v>2265.195403336496</v>
       </c>
       <c r="P13">
-        <v>19941.78439970627</v>
+        <v>19941.78439970588</v>
       </c>
       <c r="Q13">
-        <v>20052.52455320843</v>
+        <v>20052.52455320986</v>
       </c>
       <c r="R13">
         <v>20461.6696143675</v>
@@ -8253,10 +8253,10 @@
         <v>599.6333229678371</v>
       </c>
       <c r="X13">
-        <v>20391.71276913728</v>
+        <v>20391.71276916463</v>
       </c>
       <c r="Y13">
-        <v>20498.31126870706</v>
+        <v>20498.3112686877</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -8267,25 +8267,25 @@
         <v>16145.24920454588</v>
       </c>
       <c r="C14">
-        <v>0.5950104907364772</v>
+        <v>0.5950104907364777</v>
       </c>
       <c r="D14">
         <v>53.13349328197692</v>
       </c>
       <c r="E14">
-        <v>1.13276159685329</v>
+        <v>1.132761596853292</v>
       </c>
       <c r="F14">
         <v>129169.4139558812</v>
       </c>
       <c r="G14">
-        <v>2674.844701422602</v>
+        <v>2674.844701422604</v>
       </c>
       <c r="H14">
-        <v>16098.50646085904</v>
+        <v>16098.50646085125</v>
       </c>
       <c r="I14">
-        <v>16166.98542425241</v>
+        <v>16166.9854242577</v>
       </c>
       <c r="J14">
         <v>18650.85996729768</v>
@@ -8297,7 +8297,7 @@
         <v>69.49162150748801</v>
       </c>
       <c r="M14">
-        <v>0.7144539501339159</v>
+        <v>0.7144539501339163</v>
       </c>
       <c r="N14">
         <v>142049.2561850807</v>
@@ -8315,19 +8315,19 @@
         <v>19097.05666035901</v>
       </c>
       <c r="S14">
-        <v>2.227390542288519</v>
+        <v>2.227390542288521</v>
       </c>
       <c r="T14">
         <v>72.65824065880111</v>
       </c>
       <c r="U14">
-        <v>4.898090881317412</v>
+        <v>4.898090881317414</v>
       </c>
       <c r="V14">
         <v>25866.82795031826</v>
       </c>
       <c r="W14">
-        <v>1545.968885746663</v>
+        <v>1545.968885746664</v>
       </c>
       <c r="X14">
         <v>19033.75271228639</v>
@@ -8341,76 +8341,76 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>16859.83688968075</v>
+        <v>16859.83688968353</v>
       </c>
       <c r="C15">
-        <v>0.2389174014124128</v>
+        <v>0.2389174026640226</v>
       </c>
       <c r="D15">
-        <v>56.06388928464571</v>
+        <v>56.06388929429018</v>
       </c>
       <c r="E15">
-        <v>0.61716602128694</v>
+        <v>0.6171660152073376</v>
       </c>
       <c r="F15">
-        <v>126758.229620563</v>
+        <v>126758.2296364656</v>
       </c>
       <c r="G15">
-        <v>1138.931658619181</v>
+        <v>1138.931668580673</v>
       </c>
       <c r="H15">
-        <v>16810.08464514085</v>
+        <v>16810.08464512471</v>
       </c>
       <c r="I15">
-        <v>16883.63972705564</v>
+        <v>16883.63972706935</v>
       </c>
       <c r="J15">
-        <v>19748.35823673629</v>
+        <v>19748.35823673569</v>
       </c>
       <c r="K15">
-        <v>0.8259769382505484</v>
+        <v>0.825976936759624</v>
       </c>
       <c r="L15">
-        <v>76.89842730527999</v>
+        <v>76.89842730681205</v>
       </c>
       <c r="M15">
-        <v>2.082455915204429</v>
+        <v>2.082455939340617</v>
       </c>
       <c r="N15">
-        <v>137349.6794322353</v>
+        <v>137349.6794372751</v>
       </c>
       <c r="O15">
-        <v>2906.944693534544</v>
+        <v>2906.944757486992</v>
       </c>
       <c r="P15">
-        <v>19709.79647253909</v>
+        <v>19709.79647253923</v>
       </c>
       <c r="Q15">
-        <v>19818.5169269592</v>
+        <v>19818.51692696214</v>
       </c>
       <c r="R15">
-        <v>20253.95390359154</v>
+        <v>20253.95390356818</v>
       </c>
       <c r="S15">
-        <v>2.347358876218619</v>
+        <v>2.347358870645075</v>
       </c>
       <c r="T15">
-        <v>80.34460988953893</v>
+        <v>80.3446098262197</v>
       </c>
       <c r="U15">
-        <v>5.067263480017843</v>
+        <v>5.067263366325815</v>
       </c>
       <c r="V15">
-        <v>24754.31106954098</v>
+        <v>24754.31105439778</v>
       </c>
       <c r="W15">
-        <v>1389.535127479808</v>
+        <v>1389.535119645748</v>
       </c>
       <c r="X15">
-        <v>20182.59865400717</v>
+        <v>20182.59865397801</v>
       </c>
       <c r="Y15">
-        <v>20287.91432999</v>
+        <v>20287.914330011</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -8421,7 +8421,7 @@
         <v>16103.33218516245</v>
       </c>
       <c r="C16">
-        <v>0.5969413141510196</v>
+        <v>0.5969413141510198</v>
       </c>
       <c r="D16">
         <v>44.42556367290142</v>
@@ -8445,19 +8445,19 @@
         <v>18636.00367605832</v>
       </c>
       <c r="K16">
-        <v>0.5611497172561635</v>
+        <v>0.5611497172561634</v>
       </c>
       <c r="L16">
         <v>65.06152043480421</v>
       </c>
       <c r="M16">
-        <v>1.251807230715486</v>
+        <v>1.251807230715485</v>
       </c>
       <c r="N16">
         <v>153884.0362728803</v>
       </c>
       <c r="O16">
-        <v>2487.338564364613</v>
+        <v>2487.338564364612</v>
       </c>
       <c r="P16">
         <v>18602.99031043181</v>
@@ -8466,28 +8466,28 @@
         <v>18695.1490765476</v>
       </c>
       <c r="R16">
-        <v>19091.1646238871</v>
+        <v>19091.1646238722</v>
       </c>
       <c r="S16">
-        <v>1.003752416209603</v>
+        <v>1.003752411990312</v>
       </c>
       <c r="T16">
-        <v>62.945284015585</v>
+        <v>62.94528396380037</v>
       </c>
       <c r="U16">
-        <v>2.444413434937196</v>
+        <v>2.444413443120091</v>
       </c>
       <c r="V16">
-        <v>25960.20923676576</v>
+        <v>25960.20921962836</v>
       </c>
       <c r="W16">
-        <v>801.092161424955</v>
+        <v>801.092173324939</v>
       </c>
       <c r="X16">
-        <v>19033.7789352358</v>
+        <v>19033.77893523261</v>
       </c>
       <c r="Y16">
-        <v>19120.85169595824</v>
+        <v>19120.85169596035</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -8498,7 +8498,7 @@
         <v>16951.47824195487</v>
       </c>
       <c r="C17">
-        <v>0.433430280468077</v>
+        <v>0.4334302804680774</v>
       </c>
       <c r="D17">
         <v>55.42718337278178</v>
@@ -8510,7 +8510,7 @@
         <v>128342.2595320182</v>
       </c>
       <c r="G17">
-        <v>2016.490402578527</v>
+        <v>2016.490402578529</v>
       </c>
       <c r="H17">
         <v>16903.98454674521</v>
@@ -8537,16 +8537,16 @@
         <v>2105.985706408323</v>
       </c>
       <c r="P17">
-        <v>19499.44515950152</v>
+        <v>19499.44515949461</v>
       </c>
       <c r="Q17">
-        <v>19598.99898011091</v>
+        <v>19598.99898012855</v>
       </c>
       <c r="R17">
         <v>19990.23195463314</v>
       </c>
       <c r="S17">
-        <v>1.369827201759248</v>
+        <v>1.369827201759247</v>
       </c>
       <c r="T17">
         <v>69.32554928503586</v>
@@ -8575,31 +8575,31 @@
         <v>16720.7147375349</v>
       </c>
       <c r="C18">
-        <v>0.3716286557792578</v>
+        <v>0.371628655779258</v>
       </c>
       <c r="D18">
         <v>51.51466453780244</v>
       </c>
       <c r="E18">
-        <v>0.8663533594658057</v>
+        <v>0.866353359465806</v>
       </c>
       <c r="F18">
         <v>122308.4540311148</v>
       </c>
       <c r="G18">
-        <v>1715.261599969887</v>
+        <v>1715.261599969888</v>
       </c>
       <c r="H18">
-        <v>16673.50251608616</v>
+        <v>16673.50251608569</v>
       </c>
       <c r="I18">
-        <v>16744.16506052403</v>
+        <v>16744.1650605237</v>
       </c>
       <c r="J18">
         <v>19368.14790199755</v>
       </c>
       <c r="K18">
-        <v>0.7791293268023248</v>
+        <v>0.7791293268023251</v>
       </c>
       <c r="L18">
         <v>71.65686592368512</v>
@@ -8614,16 +8614,16 @@
         <v>3101.853701611826</v>
       </c>
       <c r="P18">
-        <v>19331.14081976698</v>
+        <v>19331.14081977228</v>
       </c>
       <c r="Q18">
-        <v>19434.3250425688</v>
+        <v>19434.32504255361</v>
       </c>
       <c r="R18">
         <v>19833.15435519315</v>
       </c>
       <c r="S18">
-        <v>2.076870952798214</v>
+        <v>2.076870952798215</v>
       </c>
       <c r="T18">
         <v>75.37996796248346</v>
@@ -8635,7 +8635,7 @@
         <v>27064.23718137195</v>
       </c>
       <c r="W18">
-        <v>1410.986101077609</v>
+        <v>1410.98610107761</v>
       </c>
       <c r="X18">
         <v>19765.01266890175</v>
@@ -8652,49 +8652,49 @@
         <v>16529.5634823584</v>
       </c>
       <c r="C19">
-        <v>0.3885987435503027</v>
+        <v>0.388598743550998</v>
       </c>
       <c r="D19">
-        <v>55.9439649000327</v>
+        <v>55.94396490003592</v>
       </c>
       <c r="E19">
-        <v>0.9141115428361382</v>
+        <v>0.9141115467332748</v>
       </c>
       <c r="F19">
-        <v>104155.5758985941</v>
+        <v>104155.575898598</v>
       </c>
       <c r="G19">
-        <v>1384.445178211181</v>
+        <v>1384.445178210562</v>
       </c>
       <c r="H19">
-        <v>16475.25291312555</v>
+        <v>16475.2529131664</v>
       </c>
       <c r="I19">
-        <v>16567.11542874768</v>
+        <v>16567.11542871501</v>
       </c>
       <c r="J19">
-        <v>18803.51585507619</v>
+        <v>18803.51585508988</v>
       </c>
       <c r="K19">
-        <v>1.888137732073666</v>
+        <v>1.888137717400444</v>
       </c>
       <c r="L19">
-        <v>95.6601845535271</v>
+        <v>95.66018451747657</v>
       </c>
       <c r="M19">
-        <v>4.342420949695103</v>
+        <v>4.342420933338555</v>
       </c>
       <c r="N19">
-        <v>172931.8426420436</v>
+        <v>172931.8425765955</v>
       </c>
       <c r="O19">
-        <v>6670.12284697875</v>
+        <v>6670.122896559065</v>
       </c>
       <c r="P19">
-        <v>18766.76514582911</v>
+        <v>18766.76514582665</v>
       </c>
       <c r="Q19">
-        <v>18884.31245061564</v>
+        <v>18884.31245062118</v>
       </c>
       <c r="R19">
         <v>19215.53512847615</v>
@@ -8706,7 +8706,7 @@
         <v>75.33198633404686</v>
       </c>
       <c r="U19">
-        <v>2.474814675516923</v>
+        <v>2.474814675516924</v>
       </c>
       <c r="V19">
         <v>25728.70579506499</v>
@@ -8715,10 +8715,10 @@
         <v>686.2453695051519</v>
       </c>
       <c r="X19">
-        <v>19144.87320291828</v>
+        <v>19144.87320292771</v>
       </c>
       <c r="Y19">
-        <v>19257.05720786019</v>
+        <v>19257.05720785217</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -8735,7 +8735,7 @@
         <v>52.01948724752768</v>
       </c>
       <c r="E20">
-        <v>0.7286722150623566</v>
+        <v>0.7286722150623568</v>
       </c>
       <c r="F20">
         <v>112713.694921527</v>
@@ -8744,58 +8744,58 @@
         <v>1496.310322728454</v>
       </c>
       <c r="H20">
-        <v>16198.14195278881</v>
+        <v>16198.14195279022</v>
       </c>
       <c r="I20">
-        <v>16268.99002378388</v>
+        <v>16268.9900237832</v>
       </c>
       <c r="J20">
-        <v>18743.60899996786</v>
+        <v>18743.60899995934</v>
       </c>
       <c r="K20">
-        <v>0.747639836099823</v>
+        <v>0.7476398316909286</v>
       </c>
       <c r="L20">
-        <v>74.39364190256211</v>
+        <v>74.39364193003227</v>
       </c>
       <c r="M20">
-        <v>1.622391178590674</v>
+        <v>1.62239117055397</v>
       </c>
       <c r="N20">
-        <v>153066.4095074135</v>
+        <v>153066.4095443553</v>
       </c>
       <c r="O20">
-        <v>2816.191836918626</v>
+        <v>2816.191886043009</v>
       </c>
       <c r="P20">
-        <v>18707.2110240835</v>
+        <v>18707.21102407619</v>
       </c>
       <c r="Q20">
-        <v>18810.16185985051</v>
+        <v>18810.16185986688</v>
       </c>
       <c r="R20">
-        <v>19191.29060267538</v>
+        <v>19191.29060267146</v>
       </c>
       <c r="S20">
-        <v>1.157777101073842</v>
+        <v>1.157777101565353</v>
       </c>
       <c r="T20">
-        <v>71.80952529604141</v>
+        <v>71.80952528146777</v>
       </c>
       <c r="U20">
-        <v>2.592175070370715</v>
+        <v>2.592175057527422</v>
       </c>
       <c r="V20">
-        <v>27380.50285110862</v>
+        <v>27380.50284879567</v>
       </c>
       <c r="W20">
-        <v>827.9500576645352</v>
+        <v>827.9500595609167</v>
       </c>
       <c r="X20">
-        <v>19126.12052911435</v>
+        <v>19126.12052911129</v>
       </c>
       <c r="Y20">
-        <v>19224.07592566411</v>
+        <v>19224.07592566716</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -8806,19 +8806,19 @@
         <v>16912.12106407739</v>
       </c>
       <c r="C21">
-        <v>1.133774474826362</v>
+        <v>1.133774474826363</v>
       </c>
       <c r="D21">
         <v>61.69959327804958</v>
       </c>
       <c r="E21">
-        <v>2.206876987921199</v>
+        <v>2.2068769879212</v>
       </c>
       <c r="F21">
         <v>109828.1219458478</v>
       </c>
       <c r="G21">
-        <v>3743.298341781274</v>
+        <v>3743.298341781276</v>
       </c>
       <c r="H21">
         <v>16857.54113216453</v>
@@ -8830,7 +8830,7 @@
         <v>19581.31289325177</v>
       </c>
       <c r="K21">
-        <v>0.6215469182228174</v>
+        <v>0.6215469182228175</v>
       </c>
       <c r="L21">
         <v>78.54844568802142</v>
@@ -8851,22 +8851,22 @@
         <v>19651.18625953253</v>
       </c>
       <c r="R21">
-        <v>20052.79749381388</v>
+        <v>20052.79749382373</v>
       </c>
       <c r="S21">
-        <v>1.079685429261592</v>
+        <v>1.07968543381917</v>
       </c>
       <c r="T21">
-        <v>73.20767666331137</v>
+        <v>73.20767670352762</v>
       </c>
       <c r="U21">
-        <v>2.644621449253597</v>
+        <v>2.644621462183413</v>
       </c>
       <c r="V21">
-        <v>23435.03965752479</v>
+        <v>23435.03966724611</v>
       </c>
       <c r="W21">
-        <v>671.9723673079163</v>
+        <v>671.9723644062882</v>
       </c>
       <c r="X21">
         <v>19981.45872036423</v>
@@ -8883,7 +8883,7 @@
         <v>16171.47131850825</v>
       </c>
       <c r="C22">
-        <v>1.255522975853991</v>
+        <v>1.25552297585399</v>
       </c>
       <c r="D22">
         <v>62.6044343433028</v>
@@ -8895,55 +8895,55 @@
         <v>119203.8082205737</v>
       </c>
       <c r="G22">
-        <v>4503.266724620295</v>
+        <v>4503.266724620292</v>
       </c>
       <c r="H22">
-        <v>16114.45929914385</v>
+        <v>16114.45929915947</v>
       </c>
       <c r="I22">
-        <v>16198.41219069646</v>
+        <v>16198.41219068662</v>
       </c>
       <c r="J22">
-        <v>18818.82465291659</v>
+        <v>18818.82465291399</v>
       </c>
       <c r="K22">
-        <v>0.9175538335881168</v>
+        <v>0.9175538386150844</v>
       </c>
       <c r="L22">
-        <v>79.36621538509979</v>
+        <v>79.36621539096221</v>
       </c>
       <c r="M22">
-        <v>1.82415306006302</v>
+        <v>1.824153070542827</v>
       </c>
       <c r="N22">
-        <v>141319.8299770731</v>
+        <v>141319.8299870092</v>
       </c>
       <c r="O22">
-        <v>2933.152896455854</v>
+        <v>2933.15291831623</v>
       </c>
       <c r="P22">
         <v>18780.77692240478</v>
       </c>
       <c r="Q22">
-        <v>18892.33512674894</v>
+        <v>18892.33512674893</v>
       </c>
       <c r="R22">
-        <v>19287.73284157624</v>
+        <v>19287.73284158253</v>
       </c>
       <c r="S22">
-        <v>1.909532186171744</v>
+        <v>1.909532184231725</v>
       </c>
       <c r="T22">
-        <v>80.57009362150943</v>
+        <v>80.57009364277498</v>
       </c>
       <c r="U22">
-        <v>4.349057563141407</v>
+        <v>4.349057556660881</v>
       </c>
       <c r="V22">
-        <v>27017.14033747294</v>
+        <v>27017.14034156929</v>
       </c>
       <c r="W22">
-        <v>1214.719138581754</v>
+        <v>1214.719138471281</v>
       </c>
       <c r="X22">
         <v>19210.32777858854</v>
@@ -8966,7 +8966,7 @@
         <v>68.66867689875542</v>
       </c>
       <c r="E23">
-        <v>1.628133926814015</v>
+        <v>1.628133926814014</v>
       </c>
       <c r="F23">
         <v>119471.2104221866</v>
@@ -8975,16 +8975,16 @@
         <v>2430.043443930791</v>
       </c>
       <c r="H23">
-        <v>16883.52126414972</v>
+        <v>16883.52126416134</v>
       </c>
       <c r="I23">
-        <v>16973.84482996318</v>
+        <v>16973.84482995933</v>
       </c>
       <c r="J23">
         <v>19862.6202164518</v>
       </c>
       <c r="K23">
-        <v>0.578821608977572</v>
+        <v>0.5788216089775717</v>
       </c>
       <c r="L23">
         <v>82.76532377084767</v>
@@ -8996,37 +8996,37 @@
         <v>132521.716422956</v>
       </c>
       <c r="O23">
-        <v>1768.399961508797</v>
+        <v>1768.399961508798</v>
       </c>
       <c r="P23">
-        <v>19821.15753961202</v>
+        <v>19821.15753961762</v>
       </c>
       <c r="Q23">
-        <v>19936.72663510433</v>
+        <v>19936.72663509388</v>
       </c>
       <c r="R23">
-        <v>20366.01175798425</v>
+        <v>20366.01175796683</v>
       </c>
       <c r="S23">
-        <v>1.778890953205504</v>
+        <v>1.778890952352215</v>
       </c>
       <c r="T23">
-        <v>93.12340886303426</v>
+        <v>93.12340881136576</v>
       </c>
       <c r="U23">
-        <v>3.982974606177582</v>
+        <v>3.982974553523457</v>
       </c>
       <c r="V23">
-        <v>27107.95518790704</v>
+        <v>27107.95517704392</v>
       </c>
       <c r="W23">
-        <v>989.299726016671</v>
+        <v>989.2997142207777</v>
       </c>
       <c r="X23">
-        <v>20281.97365425214</v>
+        <v>20281.9736542627</v>
       </c>
       <c r="Y23">
-        <v>20406.95913495584</v>
+        <v>20406.95913494625</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -9052,46 +9052,46 @@
         <v>2074.180428446677</v>
       </c>
       <c r="H24">
-        <v>16059.71558939326</v>
+        <v>16059.7155893915</v>
       </c>
       <c r="I24">
-        <v>16142.28600322815</v>
+        <v>16142.28600322942</v>
       </c>
       <c r="J24">
-        <v>18613.65294231941</v>
+        <v>18613.65294233215</v>
       </c>
       <c r="K24">
-        <v>0.7056515725523294</v>
+        <v>0.7056515708883393</v>
       </c>
       <c r="L24">
-        <v>75.40222390735767</v>
+        <v>75.40222386746106</v>
       </c>
       <c r="M24">
-        <v>1.564886738489464</v>
+        <v>1.564886743583666</v>
       </c>
       <c r="N24">
-        <v>122104.6339659147</v>
+        <v>122104.6339227545</v>
       </c>
       <c r="O24">
-        <v>2110.973799123482</v>
+        <v>2110.973839947934</v>
       </c>
       <c r="P24">
-        <v>18575.94900435495</v>
+        <v>18575.94900436288</v>
       </c>
       <c r="Q24">
-        <v>18681.61041270234</v>
+        <v>18681.61041268761</v>
       </c>
       <c r="R24">
         <v>19060.34257224437</v>
       </c>
       <c r="S24">
-        <v>2.196963213153015</v>
+        <v>2.196963213153016</v>
       </c>
       <c r="T24">
         <v>79.05290911885143</v>
       </c>
       <c r="U24">
-        <v>4.564095156265644</v>
+        <v>4.564095156265648</v>
       </c>
       <c r="V24">
         <v>23425.28140951372</v>
@@ -9100,10 +9100,10 @@
         <v>1185.800048168377</v>
       </c>
       <c r="X24">
-        <v>18988.61279774228</v>
+        <v>18988.61279775594</v>
       </c>
       <c r="Y24">
-        <v>19095.8398664634</v>
+        <v>19095.8398664541</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -9114,19 +9114,19 @@
         <v>16987.31033167476</v>
       </c>
       <c r="C25">
-        <v>0.5725038624852034</v>
+        <v>0.5725038624825598</v>
       </c>
       <c r="D25">
-        <v>56.47179403077963</v>
+        <v>56.47179403078406</v>
       </c>
       <c r="E25">
-        <v>1.28854291932228</v>
+        <v>1.288542919320515</v>
       </c>
       <c r="F25">
-        <v>112539.8664126306</v>
+        <v>112539.8664126378</v>
       </c>
       <c r="G25">
-        <v>2143.365600867235</v>
+        <v>2143.36560086816</v>
       </c>
       <c r="H25">
         <v>16937.44735289866</v>
@@ -9138,7 +9138,7 @@
         <v>19689.91213233491</v>
       </c>
       <c r="K25">
-        <v>0.7728976579195357</v>
+        <v>0.7728976579195355</v>
       </c>
       <c r="L25">
         <v>77.12699943612577</v>
@@ -9153,16 +9153,16 @@
         <v>2983.081058702335</v>
       </c>
       <c r="P25">
-        <v>19652.45676381051</v>
+        <v>19652.45676380995</v>
       </c>
       <c r="Q25">
-        <v>19759.87055770317</v>
+        <v>19759.87055770842</v>
       </c>
       <c r="R25">
         <v>20168.8754166807</v>
       </c>
       <c r="S25">
-        <v>1.504058399427898</v>
+        <v>1.504058399427899</v>
       </c>
       <c r="T25">
         <v>75.92234021960452</v>
@@ -9215,7 +9215,7 @@
         <v>19359.15953373967</v>
       </c>
       <c r="K26">
-        <v>0.8658702170717886</v>
+        <v>0.8658702170717889</v>
       </c>
       <c r="L26">
         <v>71.72835027923793</v>
@@ -9227,13 +9227,13 @@
         <v>129551.5605252736</v>
       </c>
       <c r="O26">
-        <v>2903.819023620161</v>
+        <v>2903.819023620162</v>
       </c>
       <c r="P26">
-        <v>19324.02255727065</v>
+        <v>19324.02255727485</v>
       </c>
       <c r="Q26">
-        <v>19424.14881322978</v>
+        <v>19424.14881322148</v>
       </c>
       <c r="R26">
         <v>19826.12178936628</v>
@@ -9245,13 +9245,13 @@
         <v>67.95659796916597</v>
       </c>
       <c r="U26">
-        <v>2.760609819769803</v>
+        <v>2.760609819769804</v>
       </c>
       <c r="V26">
         <v>21362.71794782442</v>
       </c>
       <c r="W26">
-        <v>753.7615693946316</v>
+        <v>753.7615693946314</v>
       </c>
       <c r="X26">
         <v>19763.08522217163</v>
@@ -9268,13 +9268,13 @@
         <v>16391.16103717546</v>
       </c>
       <c r="C27">
-        <v>0.7869915551048297</v>
+        <v>0.7869915551048294</v>
       </c>
       <c r="D27">
         <v>67.17490755808026</v>
       </c>
       <c r="E27">
-        <v>1.685895274661424</v>
+        <v>1.685895274661425</v>
       </c>
       <c r="F27">
         <v>114322.7291655785</v>
@@ -9292,7 +9292,7 @@
         <v>18953.72288678271</v>
       </c>
       <c r="K27">
-        <v>0.8371353674088825</v>
+        <v>0.8371353674088824</v>
       </c>
       <c r="L27">
         <v>78.57300535498804</v>
@@ -9313,28 +9313,28 @@
         <v>19027.16648995071</v>
       </c>
       <c r="R27">
-        <v>19412.87709918559</v>
+        <v>19412.87709917848</v>
       </c>
       <c r="S27">
-        <v>2.320679818603018</v>
+        <v>2.320679818415918</v>
       </c>
       <c r="T27">
-        <v>89.81136330037772</v>
+        <v>89.81136327909921</v>
       </c>
       <c r="U27">
-        <v>5.72217364757404</v>
+        <v>5.722173715179521</v>
       </c>
       <c r="V27">
-        <v>26707.86024967444</v>
+        <v>26707.8602440742</v>
       </c>
       <c r="W27">
-        <v>1364.957756330659</v>
+        <v>1364.957798177813</v>
       </c>
       <c r="X27">
-        <v>19331.46371335866</v>
+        <v>19331.46371335434</v>
       </c>
       <c r="Y27">
-        <v>19451.88753742598</v>
+        <v>19451.88753742939</v>
       </c>
     </row>
   </sheetData>
